--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A29F3E5-A7BF-4151-B4C0-31CDBD715611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7468AC9A-565B-4848-A0C7-A1921130768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4716" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="1308">
   <si>
     <t>Segment</t>
   </si>
@@ -3445,9 +3445,6 @@
     <t>slides</t>
   </si>
   <si>
-    <t>audio/video</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
@@ -3941,6 +3938,12 @@
   </si>
   <si>
     <t>190|190|190|190|190|190|190|190|190|190</t>
+  </si>
+  <si>
+    <t>Cinematic</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -4367,18 +4370,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4394,6 +4385,18 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4612,10 +4615,10 @@
   <dimension ref="A1:Z982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I516" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="L526" sqref="L526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4637,37 +4640,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="74" t="s">
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="76"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="81"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -5502,7 +5505,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -5510,7 +5513,7 @@
       <c r="S22" s="17"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -5780,7 +5783,7 @@
       <c r="K29" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="77" t="s">
+      <c r="L29" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M29" s="12"/>
@@ -5788,10 +5791,10 @@
         <v>74</v>
       </c>
       <c r="O29" s="19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P29" s="19" t="s">
         <v>1146</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>1147</v>
       </c>
       <c r="Q29" s="19" t="s">
         <v>75</v>
@@ -5800,7 +5803,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -5834,7 +5837,7 @@
       <c r="K30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M30" s="12"/>
@@ -5842,10 +5845,10 @@
         <v>79</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q30" s="19" t="s">
         <v>80</v>
@@ -5854,7 +5857,7 @@
       <c r="S30" s="17"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -5888,7 +5891,7 @@
       <c r="K31" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="77" t="s">
+      <c r="L31" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M31" s="12"/>
@@ -5896,10 +5899,10 @@
         <v>84</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q31" s="19" t="s">
         <v>85</v>
@@ -5908,7 +5911,7 @@
       <c r="S31" s="17"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -5942,7 +5945,7 @@
       <c r="K32" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L32" s="77" t="s">
+      <c r="L32" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M32" s="12"/>
@@ -5950,10 +5953,10 @@
         <v>89</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>90</v>
@@ -5962,7 +5965,7 @@
       <c r="S32" s="17"/>
       <c r="T32" s="19"/>
       <c r="U32" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -5996,7 +5999,7 @@
       <c r="K33" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="77" t="s">
+      <c r="L33" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M33" s="12"/>
@@ -6004,10 +6007,10 @@
         <v>94</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q33" s="23" t="s">
         <v>95</v>
@@ -6016,7 +6019,7 @@
       <c r="S33" s="17"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -6024,7 +6027,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="14"/>
       <c r="C34" s="20" t="s">
@@ -6050,7 +6053,7 @@
       <c r="K34" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L34" s="77" t="s">
+      <c r="L34" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M34" s="12"/>
@@ -6058,10 +6061,10 @@
         <v>99</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q34" s="19" t="s">
         <v>100</v>
@@ -6070,7 +6073,7 @@
       <c r="S34" s="17"/>
       <c r="T34" s="19"/>
       <c r="U34" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -6104,7 +6107,7 @@
       <c r="K35" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="77" t="s">
+      <c r="L35" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M35" s="12"/>
@@ -6112,10 +6115,10 @@
         <v>104</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q35" s="19" t="s">
         <v>105</v>
@@ -6124,7 +6127,7 @@
       <c r="S35" s="17"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -6158,7 +6161,7 @@
       <c r="K36" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L36" s="77" t="s">
+      <c r="L36" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M36" s="12"/>
@@ -6166,10 +6169,10 @@
         <v>109</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q36" s="19" t="s">
         <v>110</v>
@@ -6178,7 +6181,7 @@
       <c r="S36" s="17"/>
       <c r="T36" s="19"/>
       <c r="U36" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -6212,7 +6215,7 @@
       <c r="K37" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="L37" s="77" t="s">
+      <c r="L37" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M37" s="12"/>
@@ -6220,10 +6223,10 @@
         <v>114</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q37" s="19" t="s">
         <v>115</v>
@@ -6232,7 +6235,7 @@
       <c r="S37" s="17"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -6266,7 +6269,7 @@
       <c r="K38" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="L38" s="77" t="s">
+      <c r="L38" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M38" s="12"/>
@@ -6274,10 +6277,10 @@
         <v>119</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q38" s="19" t="s">
         <v>120</v>
@@ -6286,7 +6289,7 @@
       <c r="S38" s="17"/>
       <c r="T38" s="19"/>
       <c r="U38" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -6360,7 +6363,7 @@
       <c r="K40" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="L40" s="77" t="s">
+      <c r="L40" s="71" t="s">
         <v>1140</v>
       </c>
       <c r="M40" s="12"/>
@@ -6402,7 +6405,7 @@
       <c r="K41" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="L41" s="77" t="s">
+      <c r="L41" s="71" t="s">
         <v>1140</v>
       </c>
       <c r="M41" s="12"/>
@@ -6444,7 +6447,7 @@
       <c r="K42" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L42" s="77" t="s">
+      <c r="L42" s="71" t="s">
         <v>1140</v>
       </c>
       <c r="M42" s="19"/>
@@ -6524,13 +6527,13 @@
       <c r="K44" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L44" s="77" t="s">
+      <c r="L44" s="71" t="s">
         <v>1138</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="19"/>
       <c r="O44" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -6756,13 +6759,13 @@
       <c r="K50" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L50" s="77" t="s">
+      <c r="L50" s="71" t="s">
         <v>1138</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="19"/>
       <c r="O50" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -6770,7 +6773,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="19"/>
       <c r="U50" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
@@ -6787,7 +6790,9 @@
       <c r="D51" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="12" t="s">
+        <v>1306</v>
+      </c>
       <c r="F51" s="12" t="s">
         <v>30</v>
       </c>
@@ -7110,7 +7115,7 @@
       <c r="K59" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="L59" s="77" t="s">
+      <c r="L59" s="71" t="s">
         <v>1138</v>
       </c>
       <c r="M59" s="12"/>
@@ -7404,13 +7409,13 @@
       <c r="K66" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="L66" s="78" t="s">
+      <c r="L66" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M66" s="25"/>
       <c r="N66" s="35"/>
       <c r="O66" s="35" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="P66" s="25"/>
       <c r="Q66" s="25"/>
@@ -7418,7 +7423,7 @@
       <c r="S66" s="17"/>
       <c r="T66" s="19"/>
       <c r="U66" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
@@ -7706,13 +7711,13 @@
       <c r="K73" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="L73" s="78" t="s">
+      <c r="L73" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M73" s="25"/>
       <c r="N73" s="35"/>
       <c r="O73" s="35" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="P73" s="25"/>
       <c r="Q73" s="25"/>
@@ -7720,7 +7725,7 @@
       <c r="S73" s="17"/>
       <c r="T73" s="37"/>
       <c r="U73" s="37" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -7754,13 +7759,13 @@
       <c r="K74" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="L74" s="78" t="s">
+      <c r="L74" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M74" s="25"/>
       <c r="N74" s="35"/>
       <c r="O74" s="35" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="P74" s="25"/>
       <c r="Q74" s="25"/>
@@ -7768,7 +7773,7 @@
       <c r="S74" s="17"/>
       <c r="T74" s="19"/>
       <c r="U74" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
@@ -7802,13 +7807,13 @@
       <c r="K75" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="L75" s="78" t="s">
+      <c r="L75" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M75" s="25"/>
       <c r="N75" s="35"/>
       <c r="O75" s="35" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="P75" s="25"/>
       <c r="Q75" s="25"/>
@@ -7816,7 +7821,7 @@
       <c r="S75" s="17"/>
       <c r="T75" s="19"/>
       <c r="U75" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
@@ -7926,13 +7931,13 @@
       <c r="K78" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="L78" s="79" t="s">
+      <c r="L78" s="73" t="s">
         <v>1138</v>
       </c>
       <c r="M78" s="27"/>
       <c r="N78" s="35"/>
       <c r="O78" s="35" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="P78" s="25"/>
       <c r="Q78" s="25"/>
@@ -8354,13 +8359,13 @@
       <c r="K89" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="L89" s="78" t="s">
+      <c r="L89" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M89" s="25"/>
       <c r="N89" s="35"/>
       <c r="O89" s="35" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="P89" s="25"/>
       <c r="Q89" s="25"/>
@@ -8396,13 +8401,13 @@
       <c r="K90" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="L90" s="78" t="s">
+      <c r="L90" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M90" s="25"/>
       <c r="N90" s="35"/>
       <c r="O90" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
@@ -8514,13 +8519,13 @@
       <c r="K93" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="L93" s="78" t="s">
+      <c r="L93" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M93" s="25"/>
       <c r="N93" s="35"/>
       <c r="O93" s="35" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="P93" s="25"/>
       <c r="Q93" s="25"/>
@@ -8528,7 +8533,7 @@
       <c r="S93" s="17"/>
       <c r="T93" s="19"/>
       <c r="U93" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
@@ -8910,13 +8915,13 @@
       <c r="K103" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="L103" s="78" t="s">
+      <c r="L103" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M103" s="25"/>
       <c r="N103" s="35"/>
       <c r="O103" s="35" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="P103" s="25"/>
       <c r="Q103" s="25"/>
@@ -9422,7 +9427,7 @@
       <c r="K116" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="L116" s="78" t="s">
+      <c r="L116" s="72" t="s">
         <v>1139</v>
       </c>
       <c r="M116" s="25"/>
@@ -9430,7 +9435,7 @@
         <v>258</v>
       </c>
       <c r="O116" s="35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="P116" s="25"/>
       <c r="Q116" s="25"/>
@@ -9772,13 +9777,13 @@
       <c r="K125" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="L125" s="80" t="s">
+      <c r="L125" s="74" t="s">
         <v>1138</v>
       </c>
       <c r="M125" s="33"/>
       <c r="N125" s="35"/>
       <c r="O125" s="35" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P125" s="25"/>
       <c r="Q125" s="25"/>
@@ -9786,7 +9791,7 @@
       <c r="S125" s="17"/>
       <c r="T125" s="19"/>
       <c r="U125" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
@@ -10706,13 +10711,13 @@
       <c r="K149" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="L149" s="78" t="s">
+      <c r="L149" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M149" s="25"/>
       <c r="N149" s="35"/>
       <c r="O149" s="35" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="P149" s="25"/>
       <c r="Q149" s="25"/>
@@ -10942,13 +10947,13 @@
       <c r="K155" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="L155" s="78" t="s">
+      <c r="L155" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M155" s="25"/>
       <c r="N155" s="35"/>
       <c r="O155" s="35" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="P155" s="25"/>
       <c r="Q155" s="25"/>
@@ -10956,7 +10961,7 @@
       <c r="S155" s="17"/>
       <c r="T155" s="19"/>
       <c r="U155" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
@@ -11258,16 +11263,16 @@
       <c r="K163" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="L163" s="78" t="s">
+      <c r="L163" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M163" s="25"/>
       <c r="N163" s="35"/>
       <c r="O163" s="35" t="s">
+        <v>1187</v>
+      </c>
+      <c r="P163" s="30" t="s">
         <v>1188</v>
-      </c>
-      <c r="P163" s="30" t="s">
-        <v>1189</v>
       </c>
       <c r="Q163" s="25" t="s">
         <v>320</v>
@@ -11418,13 +11423,13 @@
       <c r="K167" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="L167" s="78" t="s">
+      <c r="L167" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M167" s="25"/>
       <c r="N167" s="35"/>
       <c r="O167" s="35" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="P167" s="25"/>
       <c r="Q167" s="25"/>
@@ -11432,7 +11437,7 @@
       <c r="S167" s="17"/>
       <c r="T167" s="19"/>
       <c r="U167" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
@@ -11784,13 +11789,13 @@
       <c r="K176" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="L176" s="78" t="s">
+      <c r="L176" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M176" s="25"/>
       <c r="N176" s="35"/>
       <c r="O176" s="35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="P176" s="25"/>
       <c r="Q176" s="25"/>
@@ -11800,7 +11805,7 @@
       </c>
       <c r="T176" s="19"/>
       <c r="U176" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
@@ -11914,13 +11919,13 @@
       <c r="K179" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="L179" s="78" t="s">
+      <c r="L179" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M179" s="25"/>
       <c r="N179" s="35"/>
       <c r="O179" s="35" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="P179" s="25"/>
       <c r="Q179" s="25"/>
@@ -12034,13 +12039,13 @@
       <c r="K182" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="L182" s="78" t="s">
+      <c r="L182" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M182" s="48"/>
       <c r="N182" s="49"/>
       <c r="O182" s="50" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P182" s="48"/>
       <c r="Q182" s="25"/>
@@ -12048,7 +12053,7 @@
       <c r="S182" s="17"/>
       <c r="T182" s="19"/>
       <c r="U182" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
@@ -12202,7 +12207,7 @@
       <c r="K186" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="L186" s="78" t="s">
+      <c r="L186" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M186" s="25"/>
@@ -12358,7 +12363,7 @@
       <c r="K190" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="L190" s="78" t="s">
+      <c r="L190" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M190" s="25"/>
@@ -12668,13 +12673,13 @@
       <c r="K198" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="L198" s="78" t="s">
+      <c r="L198" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M198" s="25"/>
       <c r="N198" s="35"/>
       <c r="O198" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P198" s="25"/>
       <c r="Q198" s="25"/>
@@ -12682,7 +12687,7 @@
       <c r="S198" s="17"/>
       <c r="T198" s="19"/>
       <c r="U198" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
@@ -12714,7 +12719,7 @@
       <c r="K199" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="L199" s="78" t="s">
+      <c r="L199" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M199" s="25"/>
@@ -12756,7 +12761,7 @@
       <c r="K200" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="L200" s="78" t="s">
+      <c r="L200" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M200" s="25"/>
@@ -12836,7 +12841,7 @@
       <c r="K202" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L202" s="78" t="s">
+      <c r="L202" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M202" s="25"/>
@@ -12918,13 +12923,13 @@
       <c r="K204" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="L204" s="78" t="s">
+      <c r="L204" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M204" s="25"/>
       <c r="N204" s="35"/>
       <c r="O204" s="35" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="P204" s="25"/>
       <c r="Q204" s="25"/>
@@ -12932,7 +12937,7 @@
       <c r="S204" s="17"/>
       <c r="T204" s="19"/>
       <c r="U204" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
@@ -13042,13 +13047,13 @@
       <c r="K207" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="L207" s="78" t="s">
+      <c r="L207" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M207" s="25"/>
       <c r="N207" s="35"/>
       <c r="O207" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="P207" s="25"/>
       <c r="Q207" s="25"/>
@@ -13056,7 +13061,7 @@
       <c r="S207" s="17"/>
       <c r="T207" s="19"/>
       <c r="U207" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
@@ -13288,7 +13293,7 @@
       <c r="K213" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="L213" s="78" t="s">
+      <c r="L213" s="72" t="s">
         <v>1139</v>
       </c>
       <c r="M213" s="25"/>
@@ -13296,10 +13301,10 @@
         <v>405</v>
       </c>
       <c r="O213" s="35" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P213" s="30" t="s">
         <v>1203</v>
-      </c>
-      <c r="P213" s="30" t="s">
-        <v>1204</v>
       </c>
       <c r="Q213" s="30" t="s">
         <v>406</v>
@@ -13310,7 +13315,7 @@
       <c r="S213" s="17"/>
       <c r="T213" s="19"/>
       <c r="U213" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
@@ -13502,7 +13507,7 @@
       <c r="K218" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="L218" s="78" t="s">
+      <c r="L218" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M218" s="25"/>
@@ -13544,16 +13549,16 @@
       <c r="K219" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="L219" s="78" t="s">
+      <c r="L219" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M219" s="25"/>
       <c r="N219" s="35"/>
       <c r="O219" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P219" s="30" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q219" s="25" t="s">
         <v>417</v>
@@ -13564,7 +13569,7 @@
       <c r="S219" s="52"/>
       <c r="T219" s="54"/>
       <c r="U219" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
@@ -13756,7 +13761,7 @@
       <c r="K224" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="L224" s="78" t="s">
+      <c r="L224" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M224" s="25"/>
@@ -13798,16 +13803,16 @@
       <c r="K225" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="L225" s="78" t="s">
+      <c r="L225" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M225" s="25"/>
       <c r="N225" s="35"/>
       <c r="O225" s="35" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P225" s="30" t="s">
         <v>1203</v>
-      </c>
-      <c r="P225" s="30" t="s">
-        <v>1204</v>
       </c>
       <c r="Q225" s="25" t="s">
         <v>424</v>
@@ -13818,7 +13823,7 @@
       <c r="S225" s="52"/>
       <c r="T225" s="54"/>
       <c r="U225" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
@@ -14010,7 +14015,7 @@
       <c r="K230" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="L230" s="78" t="s">
+      <c r="L230" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M230" s="25"/>
@@ -14052,16 +14057,16 @@
       <c r="K231" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="L231" s="78" t="s">
+      <c r="L231" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M231" s="25"/>
       <c r="N231" s="35"/>
       <c r="O231" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P231" s="30" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q231" s="25" t="s">
         <v>431</v>
@@ -14072,7 +14077,7 @@
       <c r="S231" s="52"/>
       <c r="T231" s="54"/>
       <c r="U231" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
@@ -14264,7 +14269,7 @@
       <c r="K236" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="L236" s="78" t="s">
+      <c r="L236" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M236" s="25"/>
@@ -14306,16 +14311,16 @@
       <c r="K237" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="L237" s="78" t="s">
+      <c r="L237" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M237" s="25"/>
       <c r="N237" s="35"/>
       <c r="O237" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P237" s="30" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q237" s="25" t="s">
         <v>439</v>
@@ -14326,7 +14331,7 @@
       <c r="S237" s="52"/>
       <c r="T237" s="54"/>
       <c r="U237" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
@@ -14952,13 +14957,13 @@
       <c r="K253" s="32" t="s">
         <v>461</v>
       </c>
-      <c r="L253" s="78" t="s">
+      <c r="L253" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M253" s="25"/>
       <c r="N253" s="35"/>
       <c r="O253" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="P253" s="25"/>
       <c r="Q253" s="25"/>
@@ -14966,7 +14971,7 @@
       <c r="S253" s="52"/>
       <c r="T253" s="54"/>
       <c r="U253" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
@@ -15272,13 +15277,13 @@
       <c r="K261" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="L261" s="78" t="s">
+      <c r="L261" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M261" s="25"/>
       <c r="N261" s="35"/>
       <c r="O261" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="P261" s="25"/>
       <c r="Q261" s="25"/>
@@ -15440,13 +15445,13 @@
       <c r="K265" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="L265" s="78" t="s">
+      <c r="L265" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M265" s="25"/>
       <c r="N265" s="35"/>
       <c r="O265" s="35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="P265" s="25"/>
       <c r="Q265" s="25"/>
@@ -15560,13 +15565,13 @@
       <c r="K268" s="32" t="s">
         <v>485</v>
       </c>
-      <c r="L268" s="78" t="s">
+      <c r="L268" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M268" s="25"/>
       <c r="N268" s="35"/>
       <c r="O268" s="35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="P268" s="25"/>
       <c r="Q268" s="25"/>
@@ -15678,13 +15683,13 @@
       <c r="K271" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="L271" s="78" t="s">
+      <c r="L271" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M271" s="25"/>
       <c r="N271" s="35"/>
       <c r="O271" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="P271" s="25"/>
       <c r="Q271" s="25"/>
@@ -15692,7 +15697,7 @@
       <c r="S271" s="17"/>
       <c r="T271" s="19"/>
       <c r="U271" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
@@ -15876,13 +15881,13 @@
       <c r="K276" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="L276" s="78" t="s">
+      <c r="L276" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M276" s="25"/>
       <c r="N276" s="35"/>
       <c r="O276" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="P276" s="25"/>
       <c r="Q276" s="25"/>
@@ -15890,7 +15895,7 @@
       <c r="S276" s="17"/>
       <c r="T276" s="19"/>
       <c r="U276" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
@@ -16238,13 +16243,13 @@
       <c r="K285" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="L285" s="78" t="s">
+      <c r="L285" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M285" s="25"/>
       <c r="N285" s="35"/>
       <c r="O285" s="35" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P285" s="25"/>
       <c r="Q285" s="25"/>
@@ -16282,7 +16287,7 @@
       <c r="K286" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="L286" s="78" t="s">
+      <c r="L286" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M286" s="25"/>
@@ -16326,13 +16331,13 @@
       <c r="K287" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="L287" s="78" t="s">
+      <c r="L287" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M287" s="25"/>
       <c r="N287" s="35"/>
       <c r="O287" s="35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="P287" s="25"/>
       <c r="Q287" s="25"/>
@@ -16340,7 +16345,7 @@
       <c r="S287" s="17"/>
       <c r="T287" s="19"/>
       <c r="U287" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
@@ -16684,13 +16689,13 @@
       <c r="K296" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="L296" s="78" t="s">
+      <c r="L296" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M296" s="25"/>
       <c r="N296" s="35"/>
       <c r="O296" s="35" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="P296" s="25"/>
       <c r="Q296" s="25"/>
@@ -16954,13 +16959,13 @@
       <c r="K303" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="L303" s="78" t="s">
+      <c r="L303" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M303" s="25"/>
       <c r="N303" s="35"/>
       <c r="O303" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="P303" s="25"/>
       <c r="Q303" s="25"/>
@@ -17072,13 +17077,13 @@
       <c r="K306" s="32" t="s">
         <v>534</v>
       </c>
-      <c r="L306" s="78" t="s">
+      <c r="L306" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M306" s="25"/>
       <c r="N306" s="35"/>
       <c r="O306" s="35" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P306" s="25"/>
       <c r="Q306" s="25"/>
@@ -17086,7 +17091,7 @@
       <c r="S306" s="17"/>
       <c r="T306" s="19"/>
       <c r="U306" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V306" s="1"/>
       <c r="W306" s="1"/>
@@ -17194,13 +17199,13 @@
       <c r="K309" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="L309" s="78" t="s">
+      <c r="L309" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M309" s="25"/>
       <c r="N309" s="35"/>
       <c r="O309" s="35" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="P309" s="25"/>
       <c r="Q309" s="25"/>
@@ -17208,7 +17213,7 @@
       <c r="S309" s="17"/>
       <c r="T309" s="19"/>
       <c r="U309" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="V309" s="1"/>
       <c r="W309" s="1"/>
@@ -17468,13 +17473,13 @@
       <c r="K316" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="L316" s="78" t="s">
+      <c r="L316" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M316" s="25"/>
       <c r="N316" s="35"/>
       <c r="O316" s="35" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="P316" s="25"/>
       <c r="Q316" s="25"/>
@@ -17482,7 +17487,7 @@
       <c r="S316" s="17"/>
       <c r="T316" s="19"/>
       <c r="U316" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V316" s="1"/>
       <c r="W316" s="1"/>
@@ -17590,13 +17595,13 @@
       <c r="K319" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="L319" s="78" t="s">
+      <c r="L319" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M319" s="25"/>
       <c r="N319" s="35"/>
       <c r="O319" s="35" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="P319" s="25"/>
       <c r="Q319" s="25"/>
@@ -17604,7 +17609,7 @@
       <c r="S319" s="17"/>
       <c r="T319" s="19"/>
       <c r="U319" s="19" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="V319" s="1"/>
       <c r="W319" s="1"/>
@@ -17948,13 +17953,13 @@
       <c r="K328" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="L328" s="78" t="s">
+      <c r="L328" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M328" s="25"/>
       <c r="N328" s="35"/>
       <c r="O328" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P328" s="25"/>
       <c r="Q328" s="25"/>
@@ -17962,7 +17967,7 @@
       <c r="S328" s="17"/>
       <c r="T328" s="19"/>
       <c r="U328" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="V328" s="1"/>
       <c r="W328" s="1"/>
@@ -18032,13 +18037,13 @@
       <c r="K330" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="L330" s="78" t="s">
+      <c r="L330" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M330" s="25"/>
       <c r="N330" s="35"/>
       <c r="O330" s="35" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="P330" s="25"/>
       <c r="Q330" s="25"/>
@@ -18046,7 +18051,7 @@
       <c r="S330" s="17"/>
       <c r="T330" s="19"/>
       <c r="U330" s="19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V330" s="1"/>
       <c r="W330" s="1"/>
@@ -18078,13 +18083,13 @@
       <c r="K331" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="L331" s="78" t="s">
+      <c r="L331" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M331" s="25"/>
       <c r="N331" s="35"/>
       <c r="O331" s="35" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="P331" s="25"/>
       <c r="Q331" s="25"/>
@@ -18092,7 +18097,7 @@
       <c r="S331" s="17"/>
       <c r="T331" s="19"/>
       <c r="U331" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
@@ -18162,7 +18167,7 @@
       <c r="K333" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="L333" s="78" t="s">
+      <c r="L333" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M333" s="25"/>
@@ -18244,7 +18249,7 @@
       <c r="K335" s="32" t="s">
         <v>570</v>
       </c>
-      <c r="L335" s="78" t="s">
+      <c r="L335" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M335" s="25"/>
@@ -18440,7 +18445,7 @@
       <c r="K340" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="L340" s="78" t="s">
+      <c r="L340" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M340" s="25"/>
@@ -18636,7 +18641,7 @@
       <c r="K345" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="L345" s="78" t="s">
+      <c r="L345" s="72" t="s">
         <v>1139</v>
       </c>
       <c r="M345" s="25"/>
@@ -18644,10 +18649,10 @@
         <v>585</v>
       </c>
       <c r="O345" s="35" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P345" s="30" t="s">
         <v>1239</v>
-      </c>
-      <c r="P345" s="30" t="s">
-        <v>1240</v>
       </c>
       <c r="Q345" s="25"/>
       <c r="R345" s="23" t="s">
@@ -18656,7 +18661,7 @@
       <c r="S345" s="17"/>
       <c r="T345" s="19"/>
       <c r="U345" s="19" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V345" s="1"/>
       <c r="W345" s="1"/>
@@ -18764,7 +18769,7 @@
       <c r="K348" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="L348" s="78" t="s">
+      <c r="L348" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M348" s="30"/>
@@ -19126,13 +19131,13 @@
       <c r="K357" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="L357" s="78" t="s">
+      <c r="L357" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M357" s="25"/>
       <c r="N357" s="35"/>
       <c r="O357" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="P357" s="25"/>
       <c r="Q357" s="25"/>
@@ -19410,7 +19415,7 @@
       <c r="K364" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="L364" s="78" t="s">
+      <c r="L364" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M364" s="30"/>
@@ -19812,13 +19817,13 @@
       <c r="K374" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="L374" s="78" t="s">
+      <c r="L374" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M374" s="25"/>
       <c r="N374" s="35"/>
       <c r="O374" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="P374" s="25"/>
       <c r="Q374" s="25"/>
@@ -20294,7 +20299,7 @@
       <c r="K386" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="L386" s="78" t="s">
+      <c r="L386" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M386" s="25"/>
@@ -21150,13 +21155,13 @@
       <c r="K408" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="L408" s="78" t="s">
+      <c r="L408" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M408" s="25"/>
       <c r="N408" s="35"/>
       <c r="O408" s="35" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P408" s="25"/>
       <c r="Q408" s="25"/>
@@ -22860,13 +22865,13 @@
       <c r="K452" s="32" t="s">
         <v>707</v>
       </c>
-      <c r="L452" s="78" t="s">
+      <c r="L452" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M452" s="25"/>
       <c r="N452" s="35"/>
       <c r="O452" s="35" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="P452" s="25"/>
       <c r="Q452" s="25"/>
@@ -22874,7 +22879,7 @@
       <c r="S452" s="17"/>
       <c r="T452" s="19"/>
       <c r="U452" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V452" s="1"/>
       <c r="W452" s="1"/>
@@ -22944,13 +22949,13 @@
       <c r="K454" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="L454" s="78" t="s">
+      <c r="L454" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M454" s="25"/>
       <c r="N454" s="35"/>
       <c r="O454" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="P454" s="25"/>
       <c r="Q454" s="25"/>
@@ -22958,7 +22963,7 @@
       <c r="S454" s="17"/>
       <c r="T454" s="19"/>
       <c r="U454" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V454" s="1"/>
       <c r="W454" s="1"/>
@@ -23150,13 +23155,13 @@
       <c r="K459" s="32" t="s">
         <v>717</v>
       </c>
-      <c r="L459" s="78" t="s">
+      <c r="L459" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M459" s="25"/>
       <c r="N459" s="35"/>
       <c r="O459" s="35" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P459" s="25"/>
       <c r="Q459" s="25"/>
@@ -23164,7 +23169,7 @@
       <c r="S459" s="17"/>
       <c r="T459" s="19"/>
       <c r="U459" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="V459" s="1"/>
       <c r="W459" s="1"/>
@@ -23394,13 +23399,13 @@
       <c r="K465" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="L465" s="78" t="s">
+      <c r="L465" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M465" s="25"/>
       <c r="N465" s="35"/>
       <c r="O465" s="35" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P465" s="25"/>
       <c r="Q465" s="25"/>
@@ -23408,7 +23413,7 @@
       <c r="S465" s="17"/>
       <c r="T465" s="19"/>
       <c r="U465" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="V465" s="1"/>
       <c r="W465" s="1"/>
@@ -23828,13 +23833,13 @@
       <c r="K476" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="L476" s="78" t="s">
+      <c r="L476" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M476" s="25"/>
       <c r="N476" s="35"/>
       <c r="O476" s="35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="P476" s="25"/>
       <c r="Q476" s="25"/>
@@ -23842,7 +23847,7 @@
       <c r="S476" s="17"/>
       <c r="T476" s="19"/>
       <c r="U476" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V476" s="1"/>
       <c r="W476" s="1"/>
@@ -24108,7 +24113,7 @@
       <c r="K483" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="L483" s="78" t="s">
+      <c r="L483" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M483" s="25"/>
@@ -24192,7 +24197,7 @@
       <c r="K485" s="32" t="s">
         <v>750</v>
       </c>
-      <c r="L485" s="78" t="s">
+      <c r="L485" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M485" s="25"/>
@@ -24848,13 +24853,13 @@
       <c r="K502" s="32" t="s">
         <v>770</v>
       </c>
-      <c r="L502" s="78" t="s">
+      <c r="L502" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M502" s="25"/>
       <c r="N502" s="35"/>
       <c r="O502" s="35" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="P502" s="25"/>
       <c r="Q502" s="25"/>
@@ -24862,7 +24867,7 @@
       <c r="S502" s="17"/>
       <c r="T502" s="19"/>
       <c r="U502" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V502" s="1"/>
       <c r="W502" s="1"/>
@@ -24894,7 +24899,7 @@
       <c r="K503" s="32" t="s">
         <v>772</v>
       </c>
-      <c r="L503" s="78" t="s">
+      <c r="L503" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M503" s="25"/>
@@ -25208,13 +25213,13 @@
       <c r="K511" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="L511" s="78" t="s">
+      <c r="L511" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M511" s="25"/>
       <c r="N511" s="35"/>
       <c r="O511" s="35" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="P511" s="25"/>
       <c r="Q511" s="25"/>
@@ -25222,7 +25227,7 @@
       <c r="S511" s="17"/>
       <c r="T511" s="19"/>
       <c r="U511" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="V511" s="1"/>
       <c r="W511" s="1"/>
@@ -25376,13 +25381,13 @@
       <c r="K515" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="L515" s="78" t="s">
+      <c r="L515" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M515" s="25"/>
       <c r="N515" s="35"/>
       <c r="O515" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="P515" s="25"/>
       <c r="Q515" s="25"/>
@@ -25390,7 +25395,7 @@
       <c r="S515" s="17"/>
       <c r="T515" s="19"/>
       <c r="U515" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V515" s="1"/>
       <c r="W515" s="1"/>
@@ -25540,13 +25545,13 @@
       <c r="K519" s="32" t="s">
         <v>795</v>
       </c>
-      <c r="L519" s="78" t="s">
+      <c r="L519" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M519" s="25"/>
       <c r="N519" s="35"/>
       <c r="O519" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="P519" s="25"/>
       <c r="Q519" s="25"/>
@@ -25554,7 +25559,7 @@
       <c r="S519" s="17"/>
       <c r="T519" s="19"/>
       <c r="U519" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V519" s="1"/>
       <c r="W519" s="1"/>
@@ -25820,8 +25825,8 @@
       <c r="K526" s="32" t="s">
         <v>804</v>
       </c>
-      <c r="L526" s="78" t="s">
-        <v>1141</v>
+      <c r="L526" s="72" t="s">
+        <v>1307</v>
       </c>
       <c r="M526" s="25"/>
       <c r="N526" s="33"/>
@@ -25866,7 +25871,7 @@
       <c r="K527" s="32" t="s">
         <v>807</v>
       </c>
-      <c r="L527" s="78" t="s">
+      <c r="L527" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M527" s="30" t="s">
@@ -25874,10 +25879,10 @@
       </c>
       <c r="N527" s="35"/>
       <c r="O527" s="35" t="s">
+        <v>1261</v>
+      </c>
+      <c r="P527" s="30" t="s">
         <v>1262</v>
-      </c>
-      <c r="P527" s="30" t="s">
-        <v>1263</v>
       </c>
       <c r="Q527" s="25" t="s">
         <v>809</v>
@@ -25916,7 +25921,7 @@
       <c r="K528" s="32" t="s">
         <v>811</v>
       </c>
-      <c r="L528" s="78" t="s">
+      <c r="L528" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M528" s="30" t="s">
@@ -25924,10 +25929,10 @@
       </c>
       <c r="N528" s="35"/>
       <c r="O528" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="P528" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q528" s="25"/>
       <c r="R528" s="17"/>
@@ -25962,7 +25967,7 @@
       <c r="K529" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="L529" s="78" t="s">
+      <c r="L529" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M529" s="30" t="s">
@@ -25970,10 +25975,10 @@
       </c>
       <c r="N529" s="35"/>
       <c r="O529" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="P529" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q529" s="25"/>
       <c r="R529" s="17"/>
@@ -26008,7 +26013,7 @@
       <c r="K530" s="32" t="s">
         <v>813</v>
       </c>
-      <c r="L530" s="78" t="s">
+      <c r="L530" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M530" s="30" t="s">
@@ -26016,10 +26021,10 @@
       </c>
       <c r="N530" s="35"/>
       <c r="O530" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="P530" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q530" s="25"/>
       <c r="R530" s="17"/>
@@ -26538,7 +26543,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A544" s="25"/>
       <c r="B544" s="25"/>
       <c r="C544" s="25"/>
@@ -26560,16 +26565,16 @@
       <c r="K544" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="L544" s="78" t="s">
+      <c r="L544" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M544" s="25"/>
       <c r="N544" s="35"/>
       <c r="O544" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="P544" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q544" s="25" t="s">
         <v>832</v>
@@ -26580,7 +26585,7 @@
       <c r="S544" s="17"/>
       <c r="T544" s="19"/>
       <c r="U544" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V544" s="1"/>
       <c r="W544" s="1"/>
@@ -26848,16 +26853,16 @@
       <c r="K551" s="32" t="s">
         <v>843</v>
       </c>
-      <c r="L551" s="78" t="s">
+      <c r="L551" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M551" s="25"/>
       <c r="N551" s="35"/>
       <c r="O551" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="P551" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q551" s="25" t="s">
         <v>844</v>
@@ -26868,7 +26873,7 @@
       <c r="S551" s="17"/>
       <c r="T551" s="19"/>
       <c r="U551" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V551" s="1"/>
       <c r="W551" s="1"/>
@@ -27686,8 +27691,8 @@
       <c r="K572" s="32" t="s">
         <v>873</v>
       </c>
-      <c r="L572" s="78" t="s">
-        <v>1141</v>
+      <c r="L572" s="72" t="s">
+        <v>1307</v>
       </c>
       <c r="M572" s="25"/>
       <c r="N572" s="33"/>
@@ -27730,7 +27735,7 @@
       <c r="K573" s="32" t="s">
         <v>876</v>
       </c>
-      <c r="L573" s="78" t="s">
+      <c r="L573" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M573" s="30" t="s">
@@ -27738,10 +27743,10 @@
       </c>
       <c r="N573" s="35"/>
       <c r="O573" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="P573" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q573" s="25" t="s">
         <v>878</v>
@@ -27780,7 +27785,7 @@
       <c r="K574" s="32" t="s">
         <v>811</v>
       </c>
-      <c r="L574" s="78" t="s">
+      <c r="L574" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M574" s="30" t="s">
@@ -27788,10 +27793,10 @@
       </c>
       <c r="N574" s="35"/>
       <c r="O574" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="P574" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q574" s="25"/>
       <c r="R574" s="17"/>
@@ -27804,7 +27809,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A575" s="25"/>
       <c r="B575" s="25"/>
       <c r="C575" s="25"/>
@@ -27826,7 +27831,7 @@
       <c r="K575" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="L575" s="78" t="s">
+      <c r="L575" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M575" s="30" t="s">
@@ -27834,10 +27839,10 @@
       </c>
       <c r="N575" s="35"/>
       <c r="O575" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="P575" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q575" s="25"/>
       <c r="R575" s="17"/>
@@ -27872,7 +27877,7 @@
       <c r="K576" s="32" t="s">
         <v>813</v>
       </c>
-      <c r="L576" s="78" t="s">
+      <c r="L576" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M576" s="30" t="s">
@@ -27880,10 +27885,10 @@
       </c>
       <c r="N576" s="35"/>
       <c r="O576" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="P576" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q576" s="25"/>
       <c r="R576" s="17"/>
@@ -28386,16 +28391,16 @@
       <c r="K589" s="32" t="s">
         <v>893</v>
       </c>
-      <c r="L589" s="78" t="s">
+      <c r="L589" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M589" s="25"/>
       <c r="N589" s="35"/>
       <c r="O589" s="35" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P589" s="30" t="s">
         <v>1275</v>
-      </c>
-      <c r="P589" s="30" t="s">
-        <v>1276</v>
       </c>
       <c r="Q589" s="25" t="s">
         <v>894</v>
@@ -28406,7 +28411,7 @@
       <c r="S589" s="25"/>
       <c r="T589" s="35"/>
       <c r="U589" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="V589" s="1"/>
       <c r="W589" s="1"/>
@@ -28870,7 +28875,7 @@
       <c r="K601" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="L601" s="78" t="s">
+      <c r="L601" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M601" s="25"/>
@@ -29634,13 +29639,13 @@
       <c r="K620" s="32" t="s">
         <v>937</v>
       </c>
-      <c r="L620" s="78" t="s">
+      <c r="L620" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M620" s="25"/>
       <c r="N620" s="35"/>
       <c r="O620" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="P620" s="25"/>
       <c r="Q620" s="25"/>
@@ -30022,13 +30027,13 @@
       <c r="K630" s="32" t="s">
         <v>948</v>
       </c>
-      <c r="L630" s="78" t="s">
+      <c r="L630" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M630" s="25"/>
       <c r="N630" s="35"/>
       <c r="O630" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="P630" s="25"/>
       <c r="Q630" s="25"/>
@@ -30998,7 +31003,7 @@
       <c r="K655" s="32" t="s">
         <v>975</v>
       </c>
-      <c r="L655" s="78" t="s">
+      <c r="L655" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M655" s="30"/>
@@ -31158,13 +31163,13 @@
       <c r="K659" s="32" t="s">
         <v>981</v>
       </c>
-      <c r="L659" s="78" t="s">
+      <c r="L659" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M659" s="25"/>
       <c r="N659" s="35"/>
       <c r="O659" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="P659" s="25"/>
       <c r="Q659" s="25"/>
@@ -31172,7 +31177,7 @@
       <c r="S659" s="17"/>
       <c r="T659" s="19"/>
       <c r="U659" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="V659" s="1"/>
       <c r="W659" s="1"/>
@@ -31526,13 +31531,13 @@
       <c r="K668" s="32" t="s">
         <v>991</v>
       </c>
-      <c r="L668" s="78" t="s">
+      <c r="L668" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M668" s="25"/>
       <c r="N668" s="35"/>
       <c r="O668" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="P668" s="25"/>
       <c r="Q668" s="25"/>
@@ -31610,13 +31615,13 @@
       <c r="K670" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="L670" s="78" t="s">
+      <c r="L670" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M670" s="25"/>
       <c r="N670" s="35"/>
       <c r="O670" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="P670" s="25"/>
       <c r="Q670" s="25"/>
@@ -31804,7 +31809,7 @@
       <c r="K675" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="L675" s="78" t="s">
+      <c r="L675" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M675" s="30"/>
@@ -32766,7 +32771,7 @@
       <c r="K699" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="L699" s="78" t="s">
+      <c r="L699" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M699" s="25"/>
@@ -32808,7 +32813,7 @@
       <c r="K700" s="32" t="s">
         <v>1026</v>
       </c>
-      <c r="L700" s="78" t="s">
+      <c r="L700" s="72" t="s">
         <v>1140</v>
       </c>
       <c r="M700" s="25"/>
@@ -33002,7 +33007,7 @@
       <c r="K705" s="32" t="s">
         <v>1031</v>
       </c>
-      <c r="L705" s="78" t="s">
+      <c r="L705" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M705" s="25"/>
@@ -33234,13 +33239,13 @@
       <c r="K711" s="32" t="s">
         <v>1038</v>
       </c>
-      <c r="L711" s="78" t="s">
+      <c r="L711" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M711" s="25"/>
       <c r="N711" s="35"/>
       <c r="O711" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="P711" s="25"/>
       <c r="Q711" s="25"/>
@@ -33400,13 +33405,13 @@
       <c r="K715" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="L715" s="81" t="s">
+      <c r="L715" s="75" t="s">
         <v>1138</v>
       </c>
       <c r="M715" s="16"/>
       <c r="N715" s="24"/>
       <c r="O715" s="24" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="P715" s="16"/>
       <c r="Q715" s="16"/>
@@ -33556,7 +33561,7 @@
       <c r="K719" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="L719" s="81" t="s">
+      <c r="L719" s="75" t="s">
         <v>1138</v>
       </c>
       <c r="M719" s="16"/>
@@ -33712,7 +33717,7 @@
       <c r="K723" s="18" t="s">
         <v>1054</v>
       </c>
-      <c r="L723" s="81" t="s">
+      <c r="L723" s="75" t="s">
         <v>1138</v>
       </c>
       <c r="M723" s="16"/>
@@ -33952,7 +33957,7 @@
       <c r="K729" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L729" s="77" t="s">
+      <c r="L729" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M729" s="12"/>
@@ -33960,10 +33965,10 @@
         <v>74</v>
       </c>
       <c r="O729" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P729" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q729" s="19" t="s">
         <v>1063</v>
@@ -33972,7 +33977,7 @@
       <c r="S729" s="17"/>
       <c r="T729" s="19"/>
       <c r="U729" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="V729" s="1"/>
       <c r="W729" s="1"/>
@@ -34006,7 +34011,7 @@
       <c r="K730" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L730" s="77" t="s">
+      <c r="L730" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M730" s="12"/>
@@ -34014,10 +34019,10 @@
         <v>79</v>
       </c>
       <c r="O730" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P730" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q730" s="19" t="s">
         <v>1066</v>
@@ -34026,7 +34031,7 @@
       <c r="S730" s="17"/>
       <c r="T730" s="19"/>
       <c r="U730" s="19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="V730" s="1"/>
       <c r="W730" s="1"/>
@@ -34060,7 +34065,7 @@
       <c r="K731" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="L731" s="77" t="s">
+      <c r="L731" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M731" s="12"/>
@@ -34068,10 +34073,10 @@
         <v>84</v>
       </c>
       <c r="O731" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="P731" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q731" s="19" t="s">
         <v>1069</v>
@@ -34080,7 +34085,7 @@
       <c r="S731" s="17"/>
       <c r="T731" s="19"/>
       <c r="U731" s="19" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="V731" s="1"/>
       <c r="W731" s="1"/>
@@ -34114,7 +34119,7 @@
       <c r="K732" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L732" s="77" t="s">
+      <c r="L732" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M732" s="12"/>
@@ -34122,10 +34127,10 @@
         <v>89</v>
       </c>
       <c r="O732" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P732" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q732" s="19" t="s">
         <v>1072</v>
@@ -34134,7 +34139,7 @@
       <c r="S732" s="17"/>
       <c r="T732" s="19"/>
       <c r="U732" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="V732" s="1"/>
       <c r="W732" s="1"/>
@@ -34168,7 +34173,7 @@
       <c r="K733" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L733" s="77" t="s">
+      <c r="L733" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M733" s="12"/>
@@ -34176,10 +34181,10 @@
         <v>94</v>
       </c>
       <c r="O733" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="P733" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q733" s="23" t="s">
         <v>1075</v>
@@ -34188,7 +34193,7 @@
       <c r="S733" s="17"/>
       <c r="T733" s="19"/>
       <c r="U733" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="V733" s="1"/>
       <c r="W733" s="1"/>
@@ -34196,7 +34201,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:26" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A734" s="12"/>
       <c r="B734" s="14"/>
       <c r="C734" s="12" t="s">
@@ -34222,7 +34227,7 @@
       <c r="K734" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L734" s="77" t="s">
+      <c r="L734" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M734" s="12"/>
@@ -34230,10 +34235,10 @@
         <v>99</v>
       </c>
       <c r="O734" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P734" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q734" s="19" t="s">
         <v>1078</v>
@@ -34242,7 +34247,7 @@
       <c r="S734" s="17"/>
       <c r="T734" s="19"/>
       <c r="U734" s="19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="V734" s="1"/>
       <c r="W734" s="1"/>
@@ -34276,7 +34281,7 @@
       <c r="K735" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L735" s="77" t="s">
+      <c r="L735" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M735" s="12"/>
@@ -34284,10 +34289,10 @@
         <v>104</v>
       </c>
       <c r="O735" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P735" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q735" s="19" t="s">
         <v>1081</v>
@@ -34296,7 +34301,7 @@
       <c r="S735" s="17"/>
       <c r="T735" s="19"/>
       <c r="U735" s="19" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V735" s="1"/>
       <c r="W735" s="1"/>
@@ -34330,7 +34335,7 @@
       <c r="K736" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L736" s="77" t="s">
+      <c r="L736" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M736" s="12"/>
@@ -34338,10 +34343,10 @@
         <v>109</v>
       </c>
       <c r="O736" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P736" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q736" s="19" t="s">
         <v>1084</v>
@@ -34350,7 +34355,7 @@
       <c r="S736" s="17"/>
       <c r="T736" s="19"/>
       <c r="U736" s="19" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="V736" s="1"/>
       <c r="W736" s="1"/>
@@ -34384,7 +34389,7 @@
       <c r="K737" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="L737" s="77" t="s">
+      <c r="L737" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M737" s="12"/>
@@ -34392,10 +34397,10 @@
         <v>114</v>
       </c>
       <c r="O737" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="P737" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q737" s="19" t="s">
         <v>1087</v>
@@ -34404,7 +34409,7 @@
       <c r="S737" s="17"/>
       <c r="T737" s="19"/>
       <c r="U737" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V737" s="1"/>
       <c r="W737" s="1"/>
@@ -34438,7 +34443,7 @@
       <c r="K738" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="L738" s="77" t="s">
+      <c r="L738" s="71" t="s">
         <v>1139</v>
       </c>
       <c r="M738" s="12"/>
@@ -34446,10 +34451,10 @@
         <v>119</v>
       </c>
       <c r="O738" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="P738" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q738" s="19" t="s">
         <v>1090</v>
@@ -34458,7 +34463,7 @@
       <c r="S738" s="17"/>
       <c r="T738" s="19"/>
       <c r="U738" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V738" s="1"/>
       <c r="W738" s="1"/>
@@ -34648,13 +34653,13 @@
       <c r="K743" s="32" t="s">
         <v>1098</v>
       </c>
-      <c r="L743" s="78" t="s">
-        <v>1142</v>
+      <c r="L743" s="72" t="s">
+        <v>1141</v>
       </c>
       <c r="M743" s="25"/>
       <c r="N743" s="35"/>
       <c r="O743" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P743" s="25"/>
       <c r="Q743" s="25" t="s">
@@ -34664,7 +34669,7 @@
       <c r="S743" s="25"/>
       <c r="T743" s="35"/>
       <c r="U743" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="V743" s="1"/>
       <c r="W743" s="1"/>
@@ -34698,13 +34703,13 @@
       <c r="K744" s="32" t="s">
         <v>1102</v>
       </c>
-      <c r="L744" s="78" t="s">
-        <v>1142</v>
+      <c r="L744" s="72" t="s">
+        <v>1141</v>
       </c>
       <c r="M744" s="25"/>
       <c r="N744" s="35"/>
       <c r="O744" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P744" s="25"/>
       <c r="Q744" s="25" t="s">
@@ -34714,7 +34719,7 @@
       <c r="S744" s="25"/>
       <c r="T744" s="35"/>
       <c r="U744" s="35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="V744" s="1"/>
       <c r="W744" s="1"/>
@@ -34748,13 +34753,13 @@
       <c r="K745" s="32" t="s">
         <v>1106</v>
       </c>
-      <c r="L745" s="78" t="s">
-        <v>1142</v>
+      <c r="L745" s="72" t="s">
+        <v>1141</v>
       </c>
       <c r="M745" s="25"/>
       <c r="N745" s="35"/>
       <c r="O745" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P745" s="25"/>
       <c r="Q745" s="25" t="s">
@@ -34764,7 +34769,7 @@
       <c r="S745" s="25"/>
       <c r="T745" s="35"/>
       <c r="U745" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V745" s="1"/>
       <c r="W745" s="1"/>
@@ -34798,13 +34803,13 @@
       <c r="K746" s="32" t="s">
         <v>1110</v>
       </c>
-      <c r="L746" s="78" t="s">
-        <v>1142</v>
+      <c r="L746" s="72" t="s">
+        <v>1141</v>
       </c>
       <c r="M746" s="25"/>
       <c r="N746" s="35"/>
       <c r="O746" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P746" s="25"/>
       <c r="Q746" s="25" t="s">
@@ -34814,7 +34819,7 @@
       <c r="S746" s="25"/>
       <c r="T746" s="35"/>
       <c r="U746" s="35" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="V746" s="1"/>
       <c r="W746" s="1"/>
@@ -34848,13 +34853,13 @@
       <c r="K747" s="32" t="s">
         <v>1115</v>
       </c>
-      <c r="L747" s="78" t="s">
+      <c r="L747" s="72" t="s">
         <v>1138</v>
       </c>
       <c r="M747" s="25"/>
       <c r="N747" s="35"/>
       <c r="O747" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="P747" s="25"/>
       <c r="Q747" s="25" t="s">
@@ -34864,7 +34869,7 @@
       <c r="S747" s="25"/>
       <c r="T747" s="35"/>
       <c r="U747" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="V747" s="1"/>
       <c r="W747" s="1"/>
@@ -34898,8 +34903,8 @@
       <c r="K748" s="32" t="s">
         <v>1120</v>
       </c>
-      <c r="L748" s="78" t="s">
-        <v>1143</v>
+      <c r="L748" s="72" t="s">
+        <v>1142</v>
       </c>
       <c r="M748" s="25"/>
       <c r="N748" s="33"/>
@@ -34912,7 +34917,7 @@
       <c r="S748" s="25"/>
       <c r="T748" s="33"/>
       <c r="U748" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="V748" s="1"/>
       <c r="W748" s="1"/>
@@ -34946,13 +34951,13 @@
       <c r="K749" s="32" t="s">
         <v>1124</v>
       </c>
-      <c r="L749" s="78" t="s">
-        <v>1142</v>
+      <c r="L749" s="72" t="s">
+        <v>1141</v>
       </c>
       <c r="M749" s="25"/>
       <c r="N749" s="35"/>
       <c r="O749" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P749" s="25"/>
       <c r="Q749" s="25" t="s">
@@ -34962,7 +34967,7 @@
       <c r="S749" s="25"/>
       <c r="T749" s="35"/>
       <c r="U749" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V749" s="1"/>
       <c r="W749" s="1"/>
@@ -34996,13 +35001,13 @@
       <c r="K750" s="32" t="s">
         <v>1128</v>
       </c>
-      <c r="L750" s="78" t="s">
-        <v>1142</v>
+      <c r="L750" s="72" t="s">
+        <v>1141</v>
       </c>
       <c r="M750" s="25"/>
       <c r="N750" s="35"/>
       <c r="O750" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P750" s="25"/>
       <c r="Q750" s="25" t="s">
@@ -35012,7 +35017,7 @@
       <c r="S750" s="25"/>
       <c r="T750" s="35"/>
       <c r="U750" s="35" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V750" s="1"/>
       <c r="W750" s="1"/>
@@ -35046,8 +35051,8 @@
       <c r="K751" s="32" t="s">
         <v>1132</v>
       </c>
-      <c r="L751" s="78" t="s">
-        <v>1143</v>
+      <c r="L751" s="72" t="s">
+        <v>1142</v>
       </c>
       <c r="M751" s="25"/>
       <c r="N751" s="33"/>

--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9837446-1343-4582-A238-BB1498D42D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421799EF-948B-4C26-8D09-85580761B597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3907,13 +3907,13 @@
     <t>Variable Changes</t>
   </si>
   <si>
-    <t>[ var3, 1 ]</t>
-  </si>
-  <si>
-    <t>[ var2, 1 ]</t>
-  </si>
-  <si>
-    <t>[ var1, 1 ]</t>
+    <t>[ "var1", 1 ]</t>
+  </si>
+  <si>
+    <t>[ "var2", 1 ]</t>
+  </si>
+  <si>
+    <t>[ "var3", 1 ]</t>
   </si>
 </sst>
 </file>
@@ -4557,10 +4557,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R216" sqref="R216"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13255,7 +13255,7 @@
         <v>469</v>
       </c>
       <c r="R213" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S213" s="14"/>
       <c r="T213" s="9"/>
@@ -13509,7 +13509,7 @@
         <v>481</v>
       </c>
       <c r="R219" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S219" s="43"/>
       <c r="T219" s="44"/>
@@ -13763,7 +13763,7 @@
         <v>488</v>
       </c>
       <c r="R225" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S225" s="43"/>
       <c r="T225" s="44"/>
@@ -14017,7 +14017,7 @@
         <v>495</v>
       </c>
       <c r="R231" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S231" s="43"/>
       <c r="T231" s="44"/>
@@ -14271,7 +14271,7 @@
         <v>503</v>
       </c>
       <c r="R237" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S237" s="43"/>
       <c r="T237" s="44"/>
@@ -25831,7 +25831,7 @@
         <v>926</v>
       </c>
       <c r="R527" s="14" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="S527" s="14"/>
       <c r="T527" s="9"/>
@@ -26523,7 +26523,7 @@
         <v>952</v>
       </c>
       <c r="R544" s="14" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="S544" s="14"/>
       <c r="T544" s="9"/>
@@ -26811,7 +26811,7 @@
         <v>965</v>
       </c>
       <c r="R551" s="14" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="S551" s="14"/>
       <c r="T551" s="9"/>
@@ -27695,7 +27695,7 @@
         <v>1000</v>
       </c>
       <c r="R573" s="14" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="S573" s="14"/>
       <c r="T573" s="25"/>
@@ -28349,7 +28349,7 @@
         <v>1020</v>
       </c>
       <c r="R589" s="19" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="S589" s="19"/>
       <c r="T589" s="25"/>

--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421799EF-948B-4C26-8D09-85580761B597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971CA63-9489-4412-8554-32912EDA6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2821,9 +2821,6 @@
     <t>Pelanggan berkali-kali melihat ke arah kasir.|Benda yang dicari pelanggan ada di kasir.|Pelanggan takut bertanya.</t>
   </si>
   <si>
-    <t>if pra2-1 true, go to 141, else go to 142</t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
@@ -3034,9 +3031,6 @@
     <t>Pelanggan lebih memperhatikan kotak-kotak yang berukir.|Pelanggan suka benda-benda yang terlihat indah.|Benda yang dicari pelanggan memiliki harga yang mahal.</t>
   </si>
   <si>
-    <t>if pra2-4 true, go to 152, else go to 153</t>
-  </si>
-  <si>
     <t>152</t>
   </si>
   <si>
@@ -3914,6 +3908,12 @@
   </si>
   <si>
     <t>[ "var3", 1 ]</t>
+  </si>
+  <si>
+    <t>["pra2-1", true, 141]|["pra2-1", false, 142]</t>
+  </si>
+  <si>
+    <t>["pra2-4", true, 152]|["pra2-4", false, 153]</t>
   </si>
 </sst>
 </file>
@@ -4557,10 +4557,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P566" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="T576" sqref="T576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4673,7 +4673,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>22</v>
@@ -13255,7 +13255,7 @@
         <v>469</v>
       </c>
       <c r="R213" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="S213" s="14"/>
       <c r="T213" s="9"/>
@@ -13509,7 +13509,7 @@
         <v>481</v>
       </c>
       <c r="R219" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="S219" s="43"/>
       <c r="T219" s="44"/>
@@ -13763,7 +13763,7 @@
         <v>488</v>
       </c>
       <c r="R225" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="S225" s="43"/>
       <c r="T225" s="44"/>
@@ -14017,7 +14017,7 @@
         <v>495</v>
       </c>
       <c r="R231" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="S231" s="43"/>
       <c r="T231" s="44"/>
@@ -14271,7 +14271,7 @@
         <v>503</v>
       </c>
       <c r="R237" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="S237" s="43"/>
       <c r="T237" s="44"/>
@@ -18599,7 +18599,7 @@
       </c>
       <c r="Q345" s="19"/>
       <c r="R345" s="14" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="S345" s="14"/>
       <c r="T345" s="9"/>
@@ -25831,7 +25831,7 @@
         <v>926</v>
       </c>
       <c r="R527" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S527" s="14"/>
       <c r="T527" s="9"/>
@@ -25972,10 +25972,10 @@
       <c r="Q530" s="19"/>
       <c r="R530" s="14"/>
       <c r="S530" s="14"/>
-      <c r="T530" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="U530" s="9"/>
+      <c r="T530" s="9"/>
+      <c r="U530" s="9" t="s">
+        <v>1296</v>
+      </c>
       <c r="V530" s="1"/>
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
@@ -25986,7 +25986,7 @@
       <c r="A531" s="19"/>
       <c r="B531" s="19"/>
       <c r="C531" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D531" s="19"/>
       <c r="E531" s="22"/>
@@ -26004,7 +26004,7 @@
         <v>34</v>
       </c>
       <c r="K531" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L531" s="19"/>
       <c r="M531" s="19"/>
@@ -26042,7 +26042,7 @@
         <v>34</v>
       </c>
       <c r="K532" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L532" s="19"/>
       <c r="M532" s="19"/>
@@ -26080,7 +26080,7 @@
         <v>39</v>
       </c>
       <c r="K533" s="24" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L533" s="19"/>
       <c r="M533" s="19"/>
@@ -26092,7 +26092,7 @@
       <c r="S533" s="14"/>
       <c r="T533" s="9"/>
       <c r="U533" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V533" s="1"/>
       <c r="W533" s="1"/>
@@ -26104,7 +26104,7 @@
       <c r="A534" s="19"/>
       <c r="B534" s="19"/>
       <c r="C534" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D534" s="19"/>
       <c r="E534" s="22"/>
@@ -26122,7 +26122,7 @@
         <v>41</v>
       </c>
       <c r="K534" s="24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L534" s="19"/>
       <c r="M534" s="19"/>
@@ -26160,7 +26160,7 @@
         <v>41</v>
       </c>
       <c r="K535" s="24" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L535" s="19"/>
       <c r="M535" s="19"/>
@@ -26198,7 +26198,7 @@
         <v>41</v>
       </c>
       <c r="K536" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L536" s="19"/>
       <c r="M536" s="19"/>
@@ -26236,7 +26236,7 @@
         <v>41</v>
       </c>
       <c r="K537" s="24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L537" s="19"/>
       <c r="M537" s="19"/>
@@ -26274,7 +26274,7 @@
         <v>41</v>
       </c>
       <c r="K538" s="24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L538" s="19"/>
       <c r="M538" s="19"/>
@@ -26312,7 +26312,7 @@
         <v>41</v>
       </c>
       <c r="K539" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L539" s="19"/>
       <c r="M539" s="19"/>
@@ -26350,7 +26350,7 @@
         <v>34</v>
       </c>
       <c r="K540" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L540" s="19"/>
       <c r="M540" s="19"/>
@@ -26388,7 +26388,7 @@
         <v>41</v>
       </c>
       <c r="K541" s="24" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L541" s="19"/>
       <c r="M541" s="19"/>
@@ -26400,7 +26400,7 @@
       <c r="S541" s="14"/>
       <c r="T541" s="9"/>
       <c r="U541" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V541" s="1"/>
       <c r="W541" s="1"/>
@@ -26412,7 +26412,7 @@
       <c r="A542" s="19"/>
       <c r="B542" s="19"/>
       <c r="C542" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D542" s="19"/>
       <c r="E542" s="22"/>
@@ -26430,7 +26430,7 @@
         <v>39</v>
       </c>
       <c r="K542" s="24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L542" s="19"/>
       <c r="M542" s="19"/>
@@ -26468,7 +26468,7 @@
         <v>39</v>
       </c>
       <c r="K543" s="24" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L543" s="19"/>
       <c r="M543" s="19"/>
@@ -26506,7 +26506,7 @@
         <v>41</v>
       </c>
       <c r="K544" s="24" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="L544" s="19" t="s">
         <v>60</v>
@@ -26514,21 +26514,21 @@
       <c r="M544" s="19"/>
       <c r="N544" s="25"/>
       <c r="O544" s="25" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P544" s="19" t="s">
         <v>925</v>
       </c>
       <c r="Q544" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R544" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S544" s="14"/>
       <c r="T544" s="9"/>
       <c r="U544" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V544" s="1"/>
       <c r="W544" s="1"/>
@@ -26540,7 +26540,7 @@
       <c r="A545" s="19"/>
       <c r="B545" s="19"/>
       <c r="C545" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D545" s="19"/>
       <c r="E545" s="22"/>
@@ -26558,7 +26558,7 @@
         <v>34</v>
       </c>
       <c r="K545" s="24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L545" s="19"/>
       <c r="M545" s="19"/>
@@ -26596,7 +26596,7 @@
         <v>34</v>
       </c>
       <c r="K546" s="24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L546" s="19"/>
       <c r="M546" s="19"/>
@@ -26608,7 +26608,7 @@
       <c r="S546" s="14"/>
       <c r="T546" s="9"/>
       <c r="U546" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V546" s="1"/>
       <c r="W546" s="1"/>
@@ -26620,7 +26620,7 @@
       <c r="A547" s="19"/>
       <c r="B547" s="19"/>
       <c r="C547" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D547" s="19"/>
       <c r="E547" s="22"/>
@@ -26638,7 +26638,7 @@
         <v>41</v>
       </c>
       <c r="K547" s="24" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L547" s="19"/>
       <c r="M547" s="19"/>
@@ -26676,7 +26676,7 @@
         <v>41</v>
       </c>
       <c r="K548" s="24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L548" s="19"/>
       <c r="M548" s="19"/>
@@ -26714,7 +26714,7 @@
         <v>34</v>
       </c>
       <c r="K549" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L549" s="19"/>
       <c r="M549" s="19"/>
@@ -26752,7 +26752,7 @@
         <v>39</v>
       </c>
       <c r="K550" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L550" s="19"/>
       <c r="M550" s="19"/>
@@ -26764,7 +26764,7 @@
       <c r="S550" s="14"/>
       <c r="T550" s="9"/>
       <c r="U550" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V550" s="1"/>
       <c r="W550" s="1"/>
@@ -26776,7 +26776,7 @@
       <c r="A551" s="19"/>
       <c r="B551" s="19"/>
       <c r="C551" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D551" s="19"/>
       <c r="E551" s="22"/>
@@ -26794,7 +26794,7 @@
         <v>41</v>
       </c>
       <c r="K551" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L551" s="19" t="s">
         <v>60</v>
@@ -26802,21 +26802,21 @@
       <c r="M551" s="19"/>
       <c r="N551" s="25"/>
       <c r="O551" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P551" s="19" t="s">
         <v>925</v>
       </c>
       <c r="Q551" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="R551" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S551" s="14"/>
       <c r="T551" s="9"/>
       <c r="U551" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V551" s="1"/>
       <c r="W551" s="1"/>
@@ -26828,7 +26828,7 @@
       <c r="A552" s="19"/>
       <c r="B552" s="19"/>
       <c r="C552" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D552" s="19"/>
       <c r="E552" s="22"/>
@@ -26846,7 +26846,7 @@
         <v>34</v>
       </c>
       <c r="K552" s="24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L552" s="19"/>
       <c r="M552" s="19"/>
@@ -26884,7 +26884,7 @@
         <v>34</v>
       </c>
       <c r="K553" s="24" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L553" s="19"/>
       <c r="M553" s="19"/>
@@ -26896,7 +26896,7 @@
       <c r="S553" s="14"/>
       <c r="T553" s="9"/>
       <c r="U553" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V553" s="1"/>
       <c r="W553" s="1"/>
@@ -26908,7 +26908,7 @@
       <c r="A554" s="19"/>
       <c r="B554" s="19"/>
       <c r="C554" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D554" s="19"/>
       <c r="E554" s="22"/>
@@ -26926,7 +26926,7 @@
         <v>41</v>
       </c>
       <c r="K554" s="24" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L554" s="19"/>
       <c r="M554" s="19"/>
@@ -26964,7 +26964,7 @@
         <v>41</v>
       </c>
       <c r="K555" s="24" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L555" s="19"/>
       <c r="M555" s="19"/>
@@ -27002,7 +27002,7 @@
         <v>39</v>
       </c>
       <c r="K556" s="24" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L556" s="19"/>
       <c r="M556" s="19"/>
@@ -27040,7 +27040,7 @@
         <v>41</v>
       </c>
       <c r="K557" s="24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L557" s="19"/>
       <c r="M557" s="19"/>
@@ -27078,7 +27078,7 @@
         <v>39</v>
       </c>
       <c r="K558" s="24" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L558" s="19"/>
       <c r="M558" s="19"/>
@@ -27090,7 +27090,7 @@
       <c r="S558" s="14"/>
       <c r="T558" s="25"/>
       <c r="U558" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V558" s="1"/>
       <c r="W558" s="1"/>
@@ -27102,7 +27102,7 @@
       <c r="A559" s="19"/>
       <c r="B559" s="19"/>
       <c r="C559" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D559" s="19"/>
       <c r="E559" s="22"/>
@@ -27120,7 +27120,7 @@
         <v>39</v>
       </c>
       <c r="K559" s="24" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L559" s="19"/>
       <c r="M559" s="19"/>
@@ -27158,7 +27158,7 @@
         <v>39</v>
       </c>
       <c r="K560" s="24" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L560" s="19"/>
       <c r="M560" s="19"/>
@@ -27191,16 +27191,16 @@
         <v>595</v>
       </c>
       <c r="H561" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="I561" s="19" t="s">
         <v>979</v>
-      </c>
-      <c r="I561" s="19" t="s">
-        <v>980</v>
       </c>
       <c r="J561" s="23" t="s">
         <v>54</v>
       </c>
       <c r="K561" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L561" s="19"/>
       <c r="M561" s="19"/>
@@ -27238,7 +27238,7 @@
         <v>39</v>
       </c>
       <c r="K562" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L562" s="19"/>
       <c r="M562" s="19"/>
@@ -27269,16 +27269,16 @@
         <v>595</v>
       </c>
       <c r="H563" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="I563" s="19" t="s">
         <v>979</v>
-      </c>
-      <c r="I563" s="19" t="s">
-        <v>980</v>
       </c>
       <c r="J563" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K563" s="24" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L563" s="19"/>
       <c r="M563" s="19"/>
@@ -27316,7 +27316,7 @@
         <v>34</v>
       </c>
       <c r="K564" s="24" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L564" s="19"/>
       <c r="M564" s="19"/>
@@ -27347,16 +27347,16 @@
         <v>595</v>
       </c>
       <c r="H565" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="I565" s="19" t="s">
         <v>979</v>
-      </c>
-      <c r="I565" s="19" t="s">
-        <v>980</v>
       </c>
       <c r="J565" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K565" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L565" s="19"/>
       <c r="M565" s="19"/>
@@ -27394,7 +27394,7 @@
         <v>34</v>
       </c>
       <c r="K566" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L566" s="19"/>
       <c r="M566" s="19"/>
@@ -27434,7 +27434,7 @@
         <v>34</v>
       </c>
       <c r="K567" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L567" s="19"/>
       <c r="M567" s="19"/>
@@ -27472,7 +27472,7 @@
         <v>34</v>
       </c>
       <c r="K568" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L568" s="19"/>
       <c r="M568" s="19"/>
@@ -27510,7 +27510,7 @@
         <v>39</v>
       </c>
       <c r="K569" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L569" s="19"/>
       <c r="M569" s="19"/>
@@ -27548,7 +27548,7 @@
         <v>39</v>
       </c>
       <c r="K570" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L570" s="19"/>
       <c r="M570" s="19"/>
@@ -27586,7 +27586,7 @@
         <v>34</v>
       </c>
       <c r="K571" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L571" s="19"/>
       <c r="M571" s="19"/>
@@ -27600,7 +27600,7 @@
       </c>
       <c r="T571" s="25"/>
       <c r="U571" s="25" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V571" s="1"/>
       <c r="W571" s="1"/>
@@ -27612,10 +27612,10 @@
       <c r="A572" s="19"/>
       <c r="B572" s="19"/>
       <c r="C572" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="D572" s="19" t="s">
         <v>992</v>
-      </c>
-      <c r="D572" s="19" t="s">
-        <v>993</v>
       </c>
       <c r="E572" s="22"/>
       <c r="F572" s="22" t="s">
@@ -27632,7 +27632,7 @@
         <v>39</v>
       </c>
       <c r="K572" s="24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L572" s="19" t="s">
         <v>919</v>
@@ -27640,7 +27640,7 @@
       <c r="M572" s="19"/>
       <c r="N572" s="25"/>
       <c r="O572" s="25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="P572" s="19"/>
       <c r="Q572" s="19"/>
@@ -27658,7 +27658,7 @@
       <c r="A573" s="19"/>
       <c r="B573" s="19"/>
       <c r="C573" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D573" s="19"/>
       <c r="E573" s="22"/>
@@ -27676,26 +27676,26 @@
         <v>41</v>
       </c>
       <c r="K573" s="24" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L573" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M573" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N573" s="25"/>
       <c r="O573" s="25" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="P573" s="19" t="s">
         <v>925</v>
       </c>
       <c r="Q573" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R573" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S573" s="14"/>
       <c r="T573" s="25"/>
@@ -27732,11 +27732,11 @@
         <v>60</v>
       </c>
       <c r="M574" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N574" s="25"/>
       <c r="O574" s="25" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P574" s="19" t="s">
         <v>925</v>
@@ -27778,11 +27778,11 @@
         <v>60</v>
       </c>
       <c r="M575" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N575" s="25"/>
       <c r="O575" s="25" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="P575" s="19" t="s">
         <v>925</v>
@@ -27824,11 +27824,11 @@
         <v>60</v>
       </c>
       <c r="M576" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N576" s="25"/>
       <c r="O576" s="25" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="P576" s="19" t="s">
         <v>925</v>
@@ -27836,10 +27836,10 @@
       <c r="Q576" s="19"/>
       <c r="R576" s="14"/>
       <c r="S576" s="14"/>
-      <c r="T576" s="25" t="s">
-        <v>1004</v>
-      </c>
-      <c r="U576" s="25"/>
+      <c r="T576" s="25"/>
+      <c r="U576" s="25" t="s">
+        <v>1297</v>
+      </c>
       <c r="V576" s="1"/>
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
@@ -27850,7 +27850,7 @@
       <c r="A577" s="19"/>
       <c r="B577" s="19"/>
       <c r="C577" s="19" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D577" s="19"/>
       <c r="E577" s="22"/>
@@ -27868,7 +27868,7 @@
         <v>34</v>
       </c>
       <c r="K577" s="24" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="L577" s="19"/>
       <c r="M577" s="19"/>
@@ -27906,7 +27906,7 @@
         <v>34</v>
       </c>
       <c r="K578" s="24" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="L578" s="19"/>
       <c r="M578" s="19"/>
@@ -27944,7 +27944,7 @@
         <v>34</v>
       </c>
       <c r="K579" s="24" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L579" s="19"/>
       <c r="M579" s="19"/>
@@ -27956,7 +27956,7 @@
       <c r="S579" s="14"/>
       <c r="T579" s="25"/>
       <c r="U579" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="V579" s="1"/>
       <c r="W579" s="1"/>
@@ -27968,7 +27968,7 @@
       <c r="A580" s="19"/>
       <c r="B580" s="19"/>
       <c r="C580" s="19" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D580" s="19"/>
       <c r="E580" s="22"/>
@@ -27986,7 +27986,7 @@
         <v>41</v>
       </c>
       <c r="K580" s="24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L580" s="19"/>
       <c r="M580" s="19"/>
@@ -28024,7 +28024,7 @@
         <v>41</v>
       </c>
       <c r="K581" s="24" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L581" s="19"/>
       <c r="M581" s="19"/>
@@ -28062,7 +28062,7 @@
         <v>41</v>
       </c>
       <c r="K582" s="24" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="L582" s="19"/>
       <c r="M582" s="19"/>
@@ -28100,7 +28100,7 @@
         <v>41</v>
       </c>
       <c r="K583" s="24" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="L583" s="19"/>
       <c r="M583" s="19"/>
@@ -28138,7 +28138,7 @@
         <v>41</v>
       </c>
       <c r="K584" s="24" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L584" s="19"/>
       <c r="M584" s="19"/>
@@ -28176,7 +28176,7 @@
         <v>41</v>
       </c>
       <c r="K585" s="24" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="L585" s="19"/>
       <c r="M585" s="19"/>
@@ -28214,7 +28214,7 @@
         <v>34</v>
       </c>
       <c r="K586" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L586" s="19"/>
       <c r="M586" s="19"/>
@@ -28252,7 +28252,7 @@
         <v>39</v>
       </c>
       <c r="K587" s="24" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="L587" s="19"/>
       <c r="M587" s="19"/>
@@ -28264,7 +28264,7 @@
       <c r="S587" s="19"/>
       <c r="T587" s="25"/>
       <c r="U587" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="V587" s="1"/>
       <c r="W587" s="1"/>
@@ -28276,7 +28276,7 @@
       <c r="A588" s="19"/>
       <c r="B588" s="19"/>
       <c r="C588" s="19" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D588" s="19"/>
       <c r="E588" s="22"/>
@@ -28294,7 +28294,7 @@
         <v>41</v>
       </c>
       <c r="K588" s="24" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="L588" s="19"/>
       <c r="M588" s="19"/>
@@ -28332,7 +28332,7 @@
         <v>41</v>
       </c>
       <c r="K589" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L589" s="19" t="s">
         <v>60</v>
@@ -28340,21 +28340,21 @@
       <c r="M589" s="19"/>
       <c r="N589" s="25"/>
       <c r="O589" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P589" s="19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q589" s="19" t="s">
         <v>1018</v>
       </c>
-      <c r="P589" s="19" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q589" s="19" t="s">
-        <v>1020</v>
-      </c>
       <c r="R589" s="19" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="S589" s="19"/>
       <c r="T589" s="25"/>
       <c r="U589" s="25" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="V589" s="1"/>
       <c r="W589" s="1"/>
@@ -28366,7 +28366,7 @@
       <c r="A590" s="19"/>
       <c r="B590" s="19"/>
       <c r="C590" s="19" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D590" s="19"/>
       <c r="E590" s="22"/>
@@ -28384,7 +28384,7 @@
         <v>34</v>
       </c>
       <c r="K590" s="24" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="L590" s="19"/>
       <c r="M590" s="19"/>
@@ -28422,7 +28422,7 @@
         <v>34</v>
       </c>
       <c r="K591" s="24" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="L591" s="19"/>
       <c r="M591" s="19"/>
@@ -28434,7 +28434,7 @@
       <c r="S591" s="19"/>
       <c r="T591" s="25"/>
       <c r="U591" s="25" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="V591" s="1"/>
       <c r="W591" s="1"/>
@@ -28446,7 +28446,7 @@
       <c r="A592" s="19"/>
       <c r="B592" s="19"/>
       <c r="C592" s="19" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D592" s="19"/>
       <c r="E592" s="22"/>
@@ -28464,7 +28464,7 @@
         <v>41</v>
       </c>
       <c r="K592" s="24" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="L592" s="19"/>
       <c r="M592" s="19"/>
@@ -28502,7 +28502,7 @@
         <v>41</v>
       </c>
       <c r="K593" s="24" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="L593" s="19"/>
       <c r="M593" s="19"/>
@@ -28540,7 +28540,7 @@
         <v>34</v>
       </c>
       <c r="K594" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L594" s="19"/>
       <c r="M594" s="19"/>
@@ -28578,7 +28578,7 @@
         <v>39</v>
       </c>
       <c r="K595" s="24" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="L595" s="19"/>
       <c r="M595" s="19"/>
@@ -28590,7 +28590,7 @@
       <c r="S595" s="19"/>
       <c r="T595" s="25"/>
       <c r="U595" s="25" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="V595" s="1"/>
       <c r="W595" s="1"/>
@@ -28602,7 +28602,7 @@
       <c r="A596" s="19"/>
       <c r="B596" s="19"/>
       <c r="C596" s="19" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D596" s="19"/>
       <c r="E596" s="22"/>
@@ -28620,7 +28620,7 @@
         <v>39</v>
       </c>
       <c r="K596" s="24" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="L596" s="19"/>
       <c r="M596" s="19"/>
@@ -28658,7 +28658,7 @@
         <v>39</v>
       </c>
       <c r="K597" s="24" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L597" s="19"/>
       <c r="M597" s="19"/>
@@ -28691,16 +28691,16 @@
         <v>595</v>
       </c>
       <c r="H598" s="23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I598" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J598" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K598" s="24" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="L598" s="19"/>
       <c r="M598" s="19"/>
@@ -28738,7 +28738,7 @@
         <v>39</v>
       </c>
       <c r="K599" s="24" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L599" s="19"/>
       <c r="M599" s="19"/>
@@ -28769,16 +28769,16 @@
         <v>595</v>
       </c>
       <c r="H600" s="23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I600" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J600" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K600" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L600" s="19"/>
       <c r="M600" s="19"/>
@@ -28816,14 +28816,14 @@
         <v>39</v>
       </c>
       <c r="K601" s="24" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="L601" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M601" s="19"/>
       <c r="N601" s="25" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="O601" s="25"/>
       <c r="P601" s="19"/>
@@ -28851,16 +28851,16 @@
         <v>595</v>
       </c>
       <c r="H602" s="23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I602" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J602" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K602" s="24" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="L602" s="19"/>
       <c r="M602" s="19"/>
@@ -28898,7 +28898,7 @@
         <v>34</v>
       </c>
       <c r="K603" s="24" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L603" s="19"/>
       <c r="M603" s="19"/>
@@ -28929,16 +28929,16 @@
         <v>595</v>
       </c>
       <c r="H604" s="23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I604" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J604" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K604" s="24" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L604" s="19"/>
       <c r="M604" s="19"/>
@@ -28969,16 +28969,16 @@
         <v>595</v>
       </c>
       <c r="H605" s="23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I605" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J605" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K605" s="24" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="L605" s="19"/>
       <c r="M605" s="19"/>
@@ -29016,7 +29016,7 @@
         <v>34</v>
       </c>
       <c r="K606" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L606" s="19"/>
       <c r="M606" s="19"/>
@@ -29056,7 +29056,7 @@
         <v>34</v>
       </c>
       <c r="K607" s="24" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="L607" s="19"/>
       <c r="M607" s="19"/>
@@ -29094,7 +29094,7 @@
         <v>34</v>
       </c>
       <c r="K608" s="24" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L608" s="19"/>
       <c r="M608" s="19"/>
@@ -29106,7 +29106,7 @@
       <c r="S608" s="19"/>
       <c r="T608" s="25"/>
       <c r="U608" s="25" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="V608" s="1"/>
       <c r="W608" s="1"/>
@@ -29118,7 +29118,7 @@
       <c r="A609" s="19"/>
       <c r="B609" s="19"/>
       <c r="C609" s="19" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D609" s="19"/>
       <c r="E609" s="22"/>
@@ -29136,7 +29136,7 @@
         <v>39</v>
       </c>
       <c r="K609" s="24" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="L609" s="19"/>
       <c r="M609" s="19"/>
@@ -29174,7 +29174,7 @@
         <v>41</v>
       </c>
       <c r="K610" s="24" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="L610" s="19"/>
       <c r="M610" s="19"/>
@@ -29185,7 +29185,7 @@
       <c r="R610" s="19"/>
       <c r="S610" s="19"/>
       <c r="T610" s="9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="U610" s="9"/>
       <c r="V610" s="1"/>
@@ -29198,7 +29198,7 @@
       <c r="A611" s="19"/>
       <c r="B611" s="19"/>
       <c r="C611" s="19" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D611" s="19"/>
       <c r="E611" s="22"/>
@@ -29216,7 +29216,7 @@
         <v>34</v>
       </c>
       <c r="K611" s="24" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L611" s="19"/>
       <c r="M611" s="19"/>
@@ -29254,7 +29254,7 @@
         <v>34</v>
       </c>
       <c r="K612" s="24" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="L612" s="19"/>
       <c r="M612" s="19"/>
@@ -29266,7 +29266,7 @@
       <c r="S612" s="19"/>
       <c r="T612" s="25"/>
       <c r="U612" s="25" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="V612" s="1"/>
       <c r="W612" s="1"/>
@@ -29278,7 +29278,7 @@
       <c r="A613" s="19"/>
       <c r="B613" s="19"/>
       <c r="C613" s="19" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D613" s="19"/>
       <c r="E613" s="22"/>
@@ -29296,7 +29296,7 @@
         <v>39</v>
       </c>
       <c r="K613" s="24" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L613" s="19"/>
       <c r="M613" s="19"/>
@@ -29334,7 +29334,7 @@
         <v>34</v>
       </c>
       <c r="K614" s="24" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="L614" s="19"/>
       <c r="M614" s="19"/>
@@ -29346,7 +29346,7 @@
       <c r="S614" s="19"/>
       <c r="T614" s="25"/>
       <c r="U614" s="25" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="V614" s="1"/>
       <c r="W614" s="1"/>
@@ -29358,7 +29358,7 @@
       <c r="A615" s="19"/>
       <c r="B615" s="19"/>
       <c r="C615" s="19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D615" s="19"/>
       <c r="E615" s="22"/>
@@ -29376,7 +29376,7 @@
         <v>174</v>
       </c>
       <c r="K615" s="24" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="L615" s="19"/>
       <c r="M615" s="19"/>
@@ -29426,7 +29426,7 @@
       <c r="S616" s="19"/>
       <c r="T616" s="25"/>
       <c r="U616" s="25" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="V616" s="1"/>
       <c r="W616" s="1"/>
@@ -29438,7 +29438,7 @@
       <c r="A617" s="19"/>
       <c r="B617" s="19"/>
       <c r="C617" s="19" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D617" s="19"/>
       <c r="E617" s="22"/>
@@ -29456,7 +29456,7 @@
         <v>39</v>
       </c>
       <c r="K617" s="24" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="L617" s="19"/>
       <c r="M617" s="19"/>
@@ -29494,7 +29494,7 @@
         <v>34</v>
       </c>
       <c r="K618" s="24" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L618" s="19"/>
       <c r="M618" s="19"/>
@@ -29506,7 +29506,7 @@
       <c r="S618" s="19"/>
       <c r="T618" s="25"/>
       <c r="U618" s="25" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="V618" s="1"/>
       <c r="W618" s="1"/>
@@ -29518,7 +29518,7 @@
       <c r="A619" s="19"/>
       <c r="B619" s="19"/>
       <c r="C619" s="19" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D619" s="19" t="s">
         <v>185</v>
@@ -29527,7 +29527,7 @@
         <v>186</v>
       </c>
       <c r="F619" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G619" s="19" t="s">
         <v>376</v>
@@ -29536,7 +29536,7 @@
       <c r="I619" s="23"/>
       <c r="J619" s="23"/>
       <c r="K619" s="24" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="L619" s="19"/>
       <c r="M619" s="19"/>
@@ -29548,7 +29548,7 @@
       <c r="S619" s="19"/>
       <c r="T619" s="25"/>
       <c r="U619" s="25" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="V619" s="1"/>
       <c r="W619" s="1"/>
@@ -29560,14 +29560,14 @@
       <c r="A620" s="19"/>
       <c r="B620" s="19"/>
       <c r="C620" s="19" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D620" s="19" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E620" s="22"/>
       <c r="F620" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G620" s="19" t="s">
         <v>376</v>
@@ -29580,7 +29580,7 @@
         <v>39</v>
       </c>
       <c r="K620" s="24" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="L620" s="19" t="s">
         <v>60</v>
@@ -29588,7 +29588,7 @@
       <c r="M620" s="19"/>
       <c r="N620" s="25"/>
       <c r="O620" s="25" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="P620" s="19"/>
       <c r="Q620" s="19"/>
@@ -29609,7 +29609,7 @@
       <c r="D621" s="19"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G621" s="19" t="s">
         <v>376</v>
@@ -29622,7 +29622,7 @@
         <v>34</v>
       </c>
       <c r="K621" s="24" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="L621" s="19"/>
       <c r="M621" s="19"/>
@@ -29647,7 +29647,7 @@
       <c r="D622" s="19"/>
       <c r="E622" s="22"/>
       <c r="F622" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G622" s="19" t="s">
         <v>376</v>
@@ -29660,7 +29660,7 @@
         <v>39</v>
       </c>
       <c r="K622" s="24" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="L622" s="19"/>
       <c r="M622" s="19"/>
@@ -29685,7 +29685,7 @@
       <c r="D623" s="19"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G623" s="19" t="s">
         <v>376</v>
@@ -29698,7 +29698,7 @@
         <v>34</v>
       </c>
       <c r="K623" s="24" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="L623" s="19"/>
       <c r="M623" s="19"/>
@@ -29723,7 +29723,7 @@
       <c r="D624" s="19"/>
       <c r="E624" s="22"/>
       <c r="F624" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G624" s="19" t="s">
         <v>376</v>
@@ -29736,7 +29736,7 @@
         <v>39</v>
       </c>
       <c r="K624" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="L624" s="19"/>
       <c r="M624" s="19"/>
@@ -29761,7 +29761,7 @@
       <c r="D625" s="19"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G625" s="19" t="s">
         <v>376</v>
@@ -29774,7 +29774,7 @@
         <v>54</v>
       </c>
       <c r="K625" s="24" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="L625" s="19"/>
       <c r="M625" s="19"/>
@@ -29799,7 +29799,7 @@
       <c r="D626" s="19"/>
       <c r="E626" s="22"/>
       <c r="F626" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G626" s="19" t="s">
         <v>376</v>
@@ -29812,7 +29812,7 @@
         <v>39</v>
       </c>
       <c r="K626" s="24" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="L626" s="19"/>
       <c r="M626" s="19"/>
@@ -29837,7 +29837,7 @@
       <c r="D627" s="19"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G627" s="19" t="s">
         <v>376</v>
@@ -29850,7 +29850,7 @@
         <v>39</v>
       </c>
       <c r="K627" s="24" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="L627" s="19"/>
       <c r="M627" s="19"/>
@@ -29875,7 +29875,7 @@
       <c r="D628" s="19"/>
       <c r="E628" s="22"/>
       <c r="F628" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G628" s="19" t="s">
         <v>376</v>
@@ -29888,7 +29888,7 @@
         <v>39</v>
       </c>
       <c r="K628" s="24" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="L628" s="19"/>
       <c r="M628" s="19"/>
@@ -29913,7 +29913,7 @@
       <c r="D629" s="19"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G629" s="19" t="s">
         <v>376</v>
@@ -29926,7 +29926,7 @@
         <v>41</v>
       </c>
       <c r="K629" s="24" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="L629" s="19"/>
       <c r="M629" s="19"/>
@@ -29938,7 +29938,7 @@
       <c r="S629" s="14"/>
       <c r="T629" s="9"/>
       <c r="U629" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="V629" s="1"/>
       <c r="W629" s="1"/>
@@ -29950,12 +29950,12 @@
       <c r="A630" s="19"/>
       <c r="B630" s="19"/>
       <c r="C630" s="19" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D630" s="19"/>
       <c r="E630" s="22"/>
       <c r="F630" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G630" s="19" t="s">
         <v>383</v>
@@ -29968,7 +29968,7 @@
         <v>34</v>
       </c>
       <c r="K630" s="24" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="L630" s="19" t="s">
         <v>60</v>
@@ -29976,7 +29976,7 @@
       <c r="M630" s="19"/>
       <c r="N630" s="25"/>
       <c r="O630" s="25" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="P630" s="19"/>
       <c r="Q630" s="19"/>
@@ -29997,7 +29997,7 @@
       <c r="D631" s="19"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G631" s="19" t="s">
         <v>383</v>
@@ -30010,7 +30010,7 @@
         <v>34</v>
       </c>
       <c r="K631" s="24" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="L631" s="19"/>
       <c r="M631" s="19"/>
@@ -30035,7 +30035,7 @@
       <c r="D632" s="19"/>
       <c r="E632" s="22"/>
       <c r="F632" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G632" s="19" t="s">
         <v>383</v>
@@ -30048,7 +30048,7 @@
         <v>39</v>
       </c>
       <c r="K632" s="24" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="L632" s="19"/>
       <c r="M632" s="19"/>
@@ -30073,7 +30073,7 @@
       <c r="D633" s="19"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G633" s="19" t="s">
         <v>383</v>
@@ -30086,7 +30086,7 @@
         <v>41</v>
       </c>
       <c r="K633" s="24" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="L633" s="19"/>
       <c r="M633" s="19"/>
@@ -30111,7 +30111,7 @@
       <c r="D634" s="19"/>
       <c r="E634" s="22"/>
       <c r="F634" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G634" s="19" t="s">
         <v>383</v>
@@ -30124,7 +30124,7 @@
         <v>39</v>
       </c>
       <c r="K634" s="24" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="L634" s="19"/>
       <c r="M634" s="19"/>
@@ -30149,7 +30149,7 @@
       <c r="D635" s="19"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G635" s="19" t="s">
         <v>383</v>
@@ -30162,7 +30162,7 @@
         <v>221</v>
       </c>
       <c r="K635" s="24" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="L635" s="19"/>
       <c r="M635" s="19"/>
@@ -30187,7 +30187,7 @@
       <c r="D636" s="19"/>
       <c r="E636" s="22"/>
       <c r="F636" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G636" s="19" t="s">
         <v>383</v>
@@ -30200,7 +30200,7 @@
         <v>34</v>
       </c>
       <c r="K636" s="24" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="L636" s="19"/>
       <c r="M636" s="19"/>
@@ -30225,7 +30225,7 @@
       <c r="D637" s="19"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G637" s="19" t="s">
         <v>383</v>
@@ -30238,7 +30238,7 @@
         <v>174</v>
       </c>
       <c r="K637" s="24" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L637" s="19"/>
       <c r="M637" s="19"/>
@@ -30263,7 +30263,7 @@
       <c r="D638" s="19"/>
       <c r="E638" s="22"/>
       <c r="F638" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G638" s="19" t="s">
         <v>383</v>
@@ -30276,7 +30276,7 @@
         <v>34</v>
       </c>
       <c r="K638" s="24" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="L638" s="19"/>
       <c r="M638" s="19"/>
@@ -30288,7 +30288,7 @@
       <c r="S638" s="14"/>
       <c r="T638" s="9"/>
       <c r="U638" s="9" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="V638" s="1"/>
       <c r="W638" s="1"/>
@@ -30300,12 +30300,12 @@
       <c r="A639" s="19"/>
       <c r="B639" s="19"/>
       <c r="C639" s="19" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D639" s="19"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G639" s="19" t="s">
         <v>332</v>
@@ -30318,7 +30318,7 @@
         <v>54</v>
       </c>
       <c r="K639" s="24" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="L639" s="19"/>
       <c r="M639" s="19"/>
@@ -30345,7 +30345,7 @@
       <c r="D640" s="19"/>
       <c r="E640" s="22"/>
       <c r="F640" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G640" s="19" t="s">
         <v>332</v>
@@ -30358,7 +30358,7 @@
         <v>39</v>
       </c>
       <c r="K640" s="24" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="L640" s="19"/>
       <c r="M640" s="19"/>
@@ -30383,13 +30383,13 @@
       <c r="D641" s="19"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G641" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H641" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I641" s="19" t="s">
         <v>196</v>
@@ -30398,7 +30398,7 @@
         <v>39</v>
       </c>
       <c r="K641" s="24" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L641" s="19"/>
       <c r="M641" s="19"/>
@@ -30423,7 +30423,7 @@
       <c r="D642" s="19"/>
       <c r="E642" s="22"/>
       <c r="F642" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G642" s="19" t="s">
         <v>332</v>
@@ -30436,7 +30436,7 @@
         <v>54</v>
       </c>
       <c r="K642" s="24" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="L642" s="19"/>
       <c r="M642" s="19"/>
@@ -30461,7 +30461,7 @@
       <c r="D643" s="19"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G643" s="19" t="s">
         <v>332</v>
@@ -30474,7 +30474,7 @@
         <v>41</v>
       </c>
       <c r="K643" s="55" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="L643" s="19"/>
       <c r="M643" s="19"/>
@@ -30499,7 +30499,7 @@
       <c r="D644" s="19"/>
       <c r="E644" s="22"/>
       <c r="F644" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G644" s="19" t="s">
         <v>332</v>
@@ -30512,7 +30512,7 @@
         <v>39</v>
       </c>
       <c r="K644" s="24" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="L644" s="19"/>
       <c r="M644" s="19"/>
@@ -30537,13 +30537,13 @@
       <c r="D645" s="19"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G645" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H645" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I645" s="19" t="s">
         <v>196</v>
@@ -30552,7 +30552,7 @@
         <v>221</v>
       </c>
       <c r="K645" s="24" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="L645" s="19"/>
       <c r="M645" s="19"/>
@@ -30577,13 +30577,13 @@
       <c r="D646" s="19"/>
       <c r="E646" s="22"/>
       <c r="F646" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G646" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H646" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I646" s="19" t="s">
         <v>196</v>
@@ -30592,7 +30592,7 @@
         <v>221</v>
       </c>
       <c r="K646" s="24" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L646" s="19"/>
       <c r="M646" s="19"/>
@@ -30617,7 +30617,7 @@
       <c r="D647" s="19"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G647" s="19" t="s">
         <v>332</v>
@@ -30630,7 +30630,7 @@
         <v>221</v>
       </c>
       <c r="K647" s="24" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L647" s="19"/>
       <c r="M647" s="19"/>
@@ -30655,13 +30655,13 @@
       <c r="D648" s="19"/>
       <c r="E648" s="22"/>
       <c r="F648" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G648" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H648" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I648" s="19" t="s">
         <v>196</v>
@@ -30670,7 +30670,7 @@
         <v>221</v>
       </c>
       <c r="K648" s="24" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="L648" s="19"/>
       <c r="M648" s="19"/>
@@ -30695,13 +30695,13 @@
       <c r="D649" s="19"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G649" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H649" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I649" s="19" t="s">
         <v>196</v>
@@ -30710,7 +30710,7 @@
         <v>221</v>
       </c>
       <c r="K649" s="24" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="L649" s="19"/>
       <c r="M649" s="19"/>
@@ -30735,13 +30735,13 @@
       <c r="D650" s="19"/>
       <c r="E650" s="22"/>
       <c r="F650" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G650" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H650" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I650" s="19" t="s">
         <v>196</v>
@@ -30750,7 +30750,7 @@
         <v>221</v>
       </c>
       <c r="K650" s="24" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="L650" s="19"/>
       <c r="M650" s="19"/>
@@ -30775,13 +30775,13 @@
       <c r="D651" s="19"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G651" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H651" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I651" s="19" t="s">
         <v>196</v>
@@ -30790,7 +30790,7 @@
         <v>221</v>
       </c>
       <c r="K651" s="24" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="L651" s="19"/>
       <c r="M651" s="19"/>
@@ -30815,7 +30815,7 @@
       <c r="D652" s="19"/>
       <c r="E652" s="22"/>
       <c r="F652" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G652" s="19" t="s">
         <v>332</v>
@@ -30828,7 +30828,7 @@
         <v>221</v>
       </c>
       <c r="K652" s="24" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="L652" s="19"/>
       <c r="M652" s="19"/>
@@ -30853,13 +30853,13 @@
       <c r="D653" s="19"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G653" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H653" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I653" s="19" t="s">
         <v>196</v>
@@ -30868,7 +30868,7 @@
         <v>221</v>
       </c>
       <c r="K653" s="24" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="L653" s="19"/>
       <c r="M653" s="19"/>
@@ -30893,7 +30893,7 @@
       <c r="D654" s="19"/>
       <c r="E654" s="22"/>
       <c r="F654" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G654" s="19" t="s">
         <v>332</v>
@@ -30906,7 +30906,7 @@
         <v>34</v>
       </c>
       <c r="K654" s="24" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="L654" s="19"/>
       <c r="M654" s="19"/>
@@ -30931,7 +30931,7 @@
       <c r="D655" s="19"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G655" s="19" t="s">
         <v>332</v>
@@ -30944,14 +30944,14 @@
         <v>34</v>
       </c>
       <c r="K655" s="24" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L655" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M655" s="19"/>
       <c r="N655" s="25" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O655" s="25"/>
       <c r="P655" s="19"/>
@@ -30973,13 +30973,13 @@
       <c r="D656" s="19"/>
       <c r="E656" s="22"/>
       <c r="F656" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G656" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H656" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I656" s="19" t="s">
         <v>196</v>
@@ -30988,7 +30988,7 @@
         <v>703</v>
       </c>
       <c r="K656" s="24" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L656" s="19"/>
       <c r="M656" s="19"/>
@@ -30998,7 +30998,7 @@
       <c r="Q656" s="19"/>
       <c r="R656" s="14"/>
       <c r="S656" s="14" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="T656" s="9"/>
       <c r="U656" s="9"/>
@@ -31015,7 +31015,7 @@
       <c r="D657" s="19"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G657" s="19" t="s">
         <v>332</v>
@@ -31028,7 +31028,7 @@
         <v>39</v>
       </c>
       <c r="K657" s="24" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="L657" s="19"/>
       <c r="M657" s="19"/>
@@ -31053,7 +31053,7 @@
       <c r="D658" s="19"/>
       <c r="E658" s="22"/>
       <c r="F658" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G658" s="19" t="s">
         <v>332</v>
@@ -31066,7 +31066,7 @@
         <v>54</v>
       </c>
       <c r="K658" s="24" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="L658" s="19"/>
       <c r="M658" s="19"/>
@@ -31091,7 +31091,7 @@
       <c r="D659" s="19"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G659" s="19" t="s">
         <v>332</v>
@@ -31104,7 +31104,7 @@
         <v>54</v>
       </c>
       <c r="K659" s="24" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="L659" s="19" t="s">
         <v>60</v>
@@ -31112,7 +31112,7 @@
       <c r="M659" s="19"/>
       <c r="N659" s="25"/>
       <c r="O659" s="25" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="P659" s="19"/>
       <c r="Q659" s="19"/>
@@ -31120,7 +31120,7 @@
       <c r="S659" s="14"/>
       <c r="T659" s="9"/>
       <c r="U659" s="9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="V659" s="1"/>
       <c r="W659" s="1"/>
@@ -31132,12 +31132,12 @@
       <c r="A660" s="19"/>
       <c r="B660" s="19"/>
       <c r="C660" s="19" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D660" s="19"/>
       <c r="E660" s="22"/>
       <c r="F660" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G660" s="19" t="s">
         <v>332</v>
@@ -31152,7 +31152,7 @@
         <v>34</v>
       </c>
       <c r="K660" s="24" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="L660" s="19"/>
       <c r="M660" s="19"/>
@@ -31179,7 +31179,7 @@
       <c r="D661" s="19"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G661" s="19" t="s">
         <v>332</v>
@@ -31194,7 +31194,7 @@
         <v>39</v>
       </c>
       <c r="K661" s="24" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="L661" s="19"/>
       <c r="M661" s="19"/>
@@ -31219,7 +31219,7 @@
       <c r="D662" s="19"/>
       <c r="E662" s="22"/>
       <c r="F662" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G662" s="19" t="s">
         <v>332</v>
@@ -31234,7 +31234,7 @@
         <v>34</v>
       </c>
       <c r="K662" s="24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="L662" s="19"/>
       <c r="M662" s="19"/>
@@ -31259,7 +31259,7 @@
       <c r="D663" s="19"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G663" s="19" t="s">
         <v>332</v>
@@ -31274,7 +31274,7 @@
         <v>54</v>
       </c>
       <c r="K663" s="24" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="L663" s="19"/>
       <c r="M663" s="19"/>
@@ -31299,7 +31299,7 @@
       <c r="D664" s="19"/>
       <c r="E664" s="22"/>
       <c r="F664" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G664" s="19" t="s">
         <v>332</v>
@@ -31314,7 +31314,7 @@
         <v>39</v>
       </c>
       <c r="K664" s="24" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="L664" s="19"/>
       <c r="M664" s="19"/>
@@ -31339,7 +31339,7 @@
       <c r="D665" s="19"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G665" s="19" t="s">
         <v>332</v>
@@ -31354,7 +31354,7 @@
         <v>34</v>
       </c>
       <c r="K665" s="24" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="L665" s="19"/>
       <c r="M665" s="19"/>
@@ -31379,7 +31379,7 @@
       <c r="D666" s="19"/>
       <c r="E666" s="22"/>
       <c r="F666" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G666" s="19" t="s">
         <v>332</v>
@@ -31392,7 +31392,7 @@
         <v>54</v>
       </c>
       <c r="K666" s="24" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="L666" s="19"/>
       <c r="M666" s="19"/>
@@ -31417,7 +31417,7 @@
       <c r="D667" s="19"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G667" s="19" t="s">
         <v>332</v>
@@ -31432,7 +31432,7 @@
         <v>747</v>
       </c>
       <c r="K667" s="24" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="L667" s="19"/>
       <c r="M667" s="19"/>
@@ -31457,7 +31457,7 @@
       <c r="D668" s="19"/>
       <c r="E668" s="22"/>
       <c r="F668" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G668" s="19" t="s">
         <v>332</v>
@@ -31472,7 +31472,7 @@
         <v>39</v>
       </c>
       <c r="K668" s="24" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L668" s="19" t="s">
         <v>60</v>
@@ -31480,7 +31480,7 @@
       <c r="M668" s="19"/>
       <c r="N668" s="25"/>
       <c r="O668" s="25" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="P668" s="19"/>
       <c r="Q668" s="19"/>
@@ -31501,7 +31501,7 @@
       <c r="D669" s="19"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G669" s="19" t="s">
         <v>332</v>
@@ -31516,7 +31516,7 @@
         <v>39</v>
       </c>
       <c r="K669" s="24" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L669" s="19"/>
       <c r="M669" s="19"/>
@@ -31541,7 +31541,7 @@
       <c r="D670" s="19"/>
       <c r="E670" s="22"/>
       <c r="F670" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G670" s="19" t="s">
         <v>332</v>
@@ -31556,7 +31556,7 @@
         <v>34</v>
       </c>
       <c r="K670" s="24" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L670" s="19" t="s">
         <v>60</v>
@@ -31564,7 +31564,7 @@
       <c r="M670" s="19"/>
       <c r="N670" s="25"/>
       <c r="O670" s="25" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="P670" s="19"/>
       <c r="Q670" s="19"/>
@@ -31585,7 +31585,7 @@
       <c r="D671" s="19"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G671" s="19" t="s">
         <v>332</v>
@@ -31598,7 +31598,7 @@
         <v>39</v>
       </c>
       <c r="K671" s="24" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="L671" s="19"/>
       <c r="M671" s="19"/>
@@ -31623,7 +31623,7 @@
       <c r="D672" s="19"/>
       <c r="E672" s="22"/>
       <c r="F672" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G672" s="19" t="s">
         <v>332</v>
@@ -31636,7 +31636,7 @@
         <v>221</v>
       </c>
       <c r="K672" s="24" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="L672" s="19"/>
       <c r="M672" s="19"/>
@@ -31661,7 +31661,7 @@
       <c r="D673" s="19"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G673" s="19" t="s">
         <v>332</v>
@@ -31674,7 +31674,7 @@
         <v>221</v>
       </c>
       <c r="K673" s="24" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="L673" s="19"/>
       <c r="M673" s="19"/>
@@ -31699,7 +31699,7 @@
       <c r="D674" s="19"/>
       <c r="E674" s="22"/>
       <c r="F674" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G674" s="19" t="s">
         <v>332</v>
@@ -31712,7 +31712,7 @@
         <v>221</v>
       </c>
       <c r="K674" s="24" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="L674" s="19"/>
       <c r="M674" s="19"/>
@@ -31737,7 +31737,7 @@
       <c r="D675" s="19"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G675" s="19" t="s">
         <v>332</v>
@@ -31750,21 +31750,21 @@
         <v>174</v>
       </c>
       <c r="K675" s="24" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="L675" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M675" s="19"/>
       <c r="N675" s="25" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O675" s="25"/>
       <c r="P675" s="19"/>
       <c r="Q675" s="19"/>
       <c r="R675" s="14"/>
       <c r="S675" s="14" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="T675" s="9"/>
       <c r="U675" s="9"/>
@@ -31781,7 +31781,7 @@
       <c r="D676" s="19"/>
       <c r="E676" s="22"/>
       <c r="F676" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G676" s="19" t="s">
         <v>332</v>
@@ -31796,7 +31796,7 @@
         <v>747</v>
       </c>
       <c r="K676" s="24" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="L676" s="19"/>
       <c r="M676" s="19"/>
@@ -31821,7 +31821,7 @@
       <c r="D677" s="19"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G677" s="19" t="s">
         <v>332</v>
@@ -31836,7 +31836,7 @@
         <v>747</v>
       </c>
       <c r="K677" s="24" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="L677" s="19"/>
       <c r="M677" s="19"/>
@@ -31861,7 +31861,7 @@
       <c r="D678" s="19"/>
       <c r="E678" s="22"/>
       <c r="F678" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G678" s="19" t="s">
         <v>332</v>
@@ -31876,7 +31876,7 @@
         <v>39</v>
       </c>
       <c r="K678" s="24" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="L678" s="19"/>
       <c r="M678" s="19"/>
@@ -31901,7 +31901,7 @@
       <c r="D679" s="19"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G679" s="19" t="s">
         <v>332</v>
@@ -31916,7 +31916,7 @@
         <v>34</v>
       </c>
       <c r="K679" s="24" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L679" s="19"/>
       <c r="M679" s="19"/>
@@ -31941,7 +31941,7 @@
       <c r="D680" s="19"/>
       <c r="E680" s="22"/>
       <c r="F680" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G680" s="19" t="s">
         <v>332</v>
@@ -31956,7 +31956,7 @@
         <v>34</v>
       </c>
       <c r="K680" s="24" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="L680" s="19"/>
       <c r="M680" s="19"/>
@@ -31981,7 +31981,7 @@
       <c r="D681" s="19"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G681" s="19" t="s">
         <v>332</v>
@@ -31996,7 +31996,7 @@
         <v>708</v>
       </c>
       <c r="K681" s="24" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="L681" s="19"/>
       <c r="M681" s="19"/>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="T681" s="9"/>
       <c r="U681" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="V681" s="1"/>
       <c r="W681" s="1"/>
@@ -32022,15 +32022,15 @@
       <c r="A682" s="19"/>
       <c r="B682" s="19"/>
       <c r="C682" s="19" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D682" s="19"/>
       <c r="E682" s="22"/>
       <c r="F682" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G682" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H682" s="23" t="s">
         <v>220</v>
@@ -32040,7 +32040,7 @@
         <v>54</v>
       </c>
       <c r="K682" s="24" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="L682" s="19"/>
       <c r="M682" s="19"/>
@@ -32065,13 +32065,13 @@
       <c r="D683" s="19"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G683" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H683" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H683" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I683" s="19" t="s">
         <v>196</v>
@@ -32080,7 +32080,7 @@
         <v>174</v>
       </c>
       <c r="K683" s="24" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="L683" s="19"/>
       <c r="M683" s="19"/>
@@ -32105,10 +32105,10 @@
       <c r="D684" s="19"/>
       <c r="E684" s="22"/>
       <c r="F684" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G684" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H684" s="23" t="s">
         <v>220</v>
@@ -32118,7 +32118,7 @@
         <v>54</v>
       </c>
       <c r="K684" s="24" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="L684" s="19"/>
       <c r="M684" s="19"/>
@@ -32143,13 +32143,13 @@
       <c r="D685" s="19"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G685" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H685" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H685" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I685" s="19" t="s">
         <v>196</v>
@@ -32158,7 +32158,7 @@
         <v>174</v>
       </c>
       <c r="K685" s="24" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="L685" s="19"/>
       <c r="M685" s="19"/>
@@ -32183,13 +32183,13 @@
       <c r="D686" s="19"/>
       <c r="E686" s="22"/>
       <c r="F686" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G686" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H686" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H686" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I686" s="19" t="s">
         <v>196</v>
@@ -32198,7 +32198,7 @@
         <v>54</v>
       </c>
       <c r="K686" s="24" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="L686" s="19"/>
       <c r="M686" s="19"/>
@@ -32223,10 +32223,10 @@
       <c r="D687" s="19"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G687" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H687" s="23" t="s">
         <v>236</v>
@@ -32236,7 +32236,7 @@
         <v>39</v>
       </c>
       <c r="K687" s="24" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="L687" s="19"/>
       <c r="M687" s="19"/>
@@ -32261,13 +32261,13 @@
       <c r="D688" s="19"/>
       <c r="E688" s="22"/>
       <c r="F688" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G688" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H688" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H688" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I688" s="19" t="s">
         <v>196</v>
@@ -32276,7 +32276,7 @@
         <v>39</v>
       </c>
       <c r="K688" s="24" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="L688" s="19"/>
       <c r="M688" s="19"/>
@@ -32301,13 +32301,13 @@
       <c r="D689" s="19"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G689" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H689" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H689" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I689" s="19" t="s">
         <v>196</v>
@@ -32316,7 +32316,7 @@
         <v>39</v>
       </c>
       <c r="K689" s="24" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="L689" s="19"/>
       <c r="M689" s="19"/>
@@ -32341,13 +32341,13 @@
       <c r="D690" s="19"/>
       <c r="E690" s="22"/>
       <c r="F690" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G690" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H690" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H690" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I690" s="19" t="s">
         <v>196</v>
@@ -32356,7 +32356,7 @@
         <v>174</v>
       </c>
       <c r="K690" s="24" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="L690" s="19"/>
       <c r="M690" s="19"/>
@@ -32381,13 +32381,13 @@
       <c r="D691" s="19"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G691" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H691" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H691" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I691" s="19" t="s">
         <v>196</v>
@@ -32396,7 +32396,7 @@
         <v>54</v>
       </c>
       <c r="K691" s="24" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="L691" s="19"/>
       <c r="M691" s="19"/>
@@ -32421,13 +32421,13 @@
       <c r="D692" s="19"/>
       <c r="E692" s="22"/>
       <c r="F692" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G692" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H692" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H692" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I692" s="19" t="s">
         <v>196</v>
@@ -32436,7 +32436,7 @@
         <v>174</v>
       </c>
       <c r="K692" s="24" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="L692" s="19"/>
       <c r="M692" s="19"/>
@@ -32461,13 +32461,13 @@
       <c r="D693" s="19"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G693" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H693" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H693" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I693" s="19" t="s">
         <v>196</v>
@@ -32476,7 +32476,7 @@
         <v>174</v>
       </c>
       <c r="K693" s="24" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="L693" s="19"/>
       <c r="M693" s="19"/>
@@ -32501,13 +32501,13 @@
       <c r="D694" s="19"/>
       <c r="E694" s="22"/>
       <c r="F694" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G694" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H694" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H694" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I694" s="19" t="s">
         <v>196</v>
@@ -32516,7 +32516,7 @@
         <v>174</v>
       </c>
       <c r="K694" s="24" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="L694" s="19"/>
       <c r="M694" s="19"/>
@@ -32541,13 +32541,13 @@
       <c r="D695" s="19"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G695" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H695" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H695" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I695" s="19" t="s">
         <v>196</v>
@@ -32556,7 +32556,7 @@
         <v>174</v>
       </c>
       <c r="K695" s="24" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="L695" s="19"/>
       <c r="M695" s="19"/>
@@ -32581,13 +32581,13 @@
       <c r="D696" s="19"/>
       <c r="E696" s="22"/>
       <c r="F696" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G696" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H696" s="23" t="s">
         <v>1138</v>
-      </c>
-      <c r="H696" s="23" t="s">
-        <v>1140</v>
       </c>
       <c r="I696" s="19" t="s">
         <v>196</v>
@@ -32596,7 +32596,7 @@
         <v>41</v>
       </c>
       <c r="K696" s="24" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="L696" s="19"/>
       <c r="M696" s="19"/>
@@ -32621,10 +32621,10 @@
       <c r="D697" s="19"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G697" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H697" s="23" t="s">
         <v>236</v>
@@ -32634,7 +32634,7 @@
         <v>39</v>
       </c>
       <c r="K697" s="24" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="L697" s="19"/>
       <c r="M697" s="19"/>
@@ -32659,10 +32659,10 @@
       <c r="D698" s="19"/>
       <c r="E698" s="22"/>
       <c r="F698" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G698" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H698" s="23" t="s">
         <v>220</v>
@@ -32672,7 +32672,7 @@
         <v>34</v>
       </c>
       <c r="K698" s="24" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="L698" s="19"/>
       <c r="M698" s="19"/>
@@ -32699,10 +32699,10 @@
       <c r="D699" s="19"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G699" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H699" s="23" t="s">
         <v>236</v>
@@ -32720,7 +32720,7 @@
       <c r="M699" s="19"/>
       <c r="N699" s="25"/>
       <c r="O699" s="25" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="P699" s="19"/>
       <c r="Q699" s="19"/>
@@ -32741,10 +32741,10 @@
       <c r="D700" s="19"/>
       <c r="E700" s="22"/>
       <c r="F700" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G700" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H700" s="23" t="s">
         <v>236</v>
@@ -32754,14 +32754,14 @@
         <v>39</v>
       </c>
       <c r="K700" s="24" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="L700" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M700" s="19"/>
       <c r="N700" s="25" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O700" s="25"/>
       <c r="P700" s="19"/>
@@ -32783,10 +32783,10 @@
       <c r="D701" s="19"/>
       <c r="E701" s="22"/>
       <c r="F701" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G701" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H701" s="23" t="s">
         <v>236</v>
@@ -32796,7 +32796,7 @@
         <v>174</v>
       </c>
       <c r="K701" s="24" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L701" s="19"/>
       <c r="M701" s="19"/>
@@ -32821,10 +32821,10 @@
       <c r="D702" s="19"/>
       <c r="E702" s="22"/>
       <c r="F702" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G702" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H702" s="23" t="s">
         <v>236</v>
@@ -32834,7 +32834,7 @@
         <v>54</v>
       </c>
       <c r="K702" s="24" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="L702" s="19"/>
       <c r="M702" s="19"/>
@@ -32859,10 +32859,10 @@
       <c r="D703" s="19"/>
       <c r="E703" s="22"/>
       <c r="F703" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G703" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H703" s="23" t="s">
         <v>236</v>
@@ -32872,7 +32872,7 @@
         <v>54</v>
       </c>
       <c r="K703" s="24" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="L703" s="19"/>
       <c r="M703" s="19"/>
@@ -32897,10 +32897,10 @@
       <c r="D704" s="19"/>
       <c r="E704" s="22"/>
       <c r="F704" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G704" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H704" s="23" t="s">
         <v>236</v>
@@ -32910,7 +32910,7 @@
         <v>174</v>
       </c>
       <c r="K704" s="24" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="L704" s="19"/>
       <c r="M704" s="19"/>
@@ -32935,10 +32935,10 @@
       <c r="D705" s="19"/>
       <c r="E705" s="22"/>
       <c r="F705" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G705" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H705" s="23" t="s">
         <v>236</v>
@@ -32948,7 +32948,7 @@
         <v>174</v>
       </c>
       <c r="K705" s="24" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="L705" s="19" t="s">
         <v>60</v>
@@ -32956,7 +32956,7 @@
       <c r="M705" s="19"/>
       <c r="N705" s="25"/>
       <c r="O705" s="25" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="P705" s="19"/>
       <c r="Q705" s="19"/>
@@ -32977,10 +32977,10 @@
       <c r="D706" s="19"/>
       <c r="E706" s="22"/>
       <c r="F706" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G706" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H706" s="23" t="s">
         <v>236</v>
@@ -32990,7 +32990,7 @@
         <v>41</v>
       </c>
       <c r="K706" s="24" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="L706" s="19"/>
       <c r="M706" s="19"/>
@@ -33015,10 +33015,10 @@
       <c r="D707" s="19"/>
       <c r="E707" s="22"/>
       <c r="F707" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G707" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H707" s="23" t="s">
         <v>236</v>
@@ -33028,7 +33028,7 @@
         <v>41</v>
       </c>
       <c r="K707" s="24" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="L707" s="19"/>
       <c r="M707" s="19"/>
@@ -33053,10 +33053,10 @@
       <c r="D708" s="19"/>
       <c r="E708" s="22"/>
       <c r="F708" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G708" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H708" s="23" t="s">
         <v>236</v>
@@ -33066,7 +33066,7 @@
         <v>221</v>
       </c>
       <c r="K708" s="24" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="L708" s="19"/>
       <c r="M708" s="19"/>
@@ -33091,10 +33091,10 @@
       <c r="D709" s="19"/>
       <c r="E709" s="22"/>
       <c r="F709" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G709" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H709" s="23" t="s">
         <v>220</v>
@@ -33104,7 +33104,7 @@
         <v>174</v>
       </c>
       <c r="K709" s="24" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="L709" s="19"/>
       <c r="M709" s="19"/>
@@ -33129,10 +33129,10 @@
       <c r="D710" s="19"/>
       <c r="E710" s="22"/>
       <c r="F710" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G710" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H710" s="23" t="s">
         <v>236</v>
@@ -33142,7 +33142,7 @@
         <v>174</v>
       </c>
       <c r="K710" s="24" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="L710" s="19"/>
       <c r="M710" s="19"/>
@@ -33167,10 +33167,10 @@
       <c r="D711" s="19"/>
       <c r="E711" s="22"/>
       <c r="F711" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G711" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H711" s="23" t="s">
         <v>236</v>
@@ -33180,7 +33180,7 @@
         <v>39</v>
       </c>
       <c r="K711" s="24" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="L711" s="19" t="s">
         <v>60</v>
@@ -33188,7 +33188,7 @@
       <c r="M711" s="19"/>
       <c r="N711" s="25"/>
       <c r="O711" s="25" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="P711" s="19"/>
       <c r="Q711" s="19"/>
@@ -33209,10 +33209,10 @@
       <c r="D712" s="19"/>
       <c r="E712" s="22"/>
       <c r="F712" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G712" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H712" s="23" t="s">
         <v>236</v>
@@ -33222,7 +33222,7 @@
         <v>39</v>
       </c>
       <c r="K712" s="24" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="L712" s="19"/>
       <c r="M712" s="19"/>
@@ -33247,10 +33247,10 @@
       <c r="D713" s="19"/>
       <c r="E713" s="22"/>
       <c r="F713" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G713" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H713" s="23" t="s">
         <v>236</v>
@@ -33260,7 +33260,7 @@
         <v>39</v>
       </c>
       <c r="K713" s="24" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="L713" s="19"/>
       <c r="M713" s="19"/>
@@ -33272,7 +33272,7 @@
       <c r="S713" s="14"/>
       <c r="T713" s="25"/>
       <c r="U713" s="25" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="V713" s="1"/>
       <c r="W713" s="1"/>
@@ -33284,7 +33284,7 @@
       <c r="A714" s="19"/>
       <c r="B714" s="19"/>
       <c r="C714" s="19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D714" s="19" t="s">
         <v>185</v>
@@ -33293,16 +33293,16 @@
         <v>186</v>
       </c>
       <c r="F714" s="22" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G714" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H714" s="23"/>
       <c r="I714" s="23"/>
       <c r="J714" s="23"/>
       <c r="K714" s="24" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="L714" s="19"/>
       <c r="M714" s="19"/>
@@ -33314,7 +33314,7 @@
       <c r="S714" s="19"/>
       <c r="T714" s="25"/>
       <c r="U714" s="25" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="V714" s="1"/>
       <c r="W714" s="1"/>
@@ -33326,10 +33326,10 @@
       <c r="A715" s="19"/>
       <c r="B715" s="19"/>
       <c r="C715" s="19" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D715" s="56" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E715" s="57"/>
       <c r="F715" s="9" t="s">
@@ -33346,7 +33346,7 @@
         <v>54</v>
       </c>
       <c r="K715" s="15" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="L715" s="13" t="s">
         <v>60</v>
@@ -33354,7 +33354,7 @@
       <c r="M715" s="13"/>
       <c r="N715" s="11"/>
       <c r="O715" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="P715" s="13"/>
       <c r="Q715" s="13"/>
@@ -33388,7 +33388,7 @@
         <v>221</v>
       </c>
       <c r="K716" s="15" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="L716" s="13"/>
       <c r="M716" s="13"/>
@@ -33426,7 +33426,7 @@
         <v>34</v>
       </c>
       <c r="K717" s="15" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="L717" s="13"/>
       <c r="M717" s="13"/>
@@ -33464,7 +33464,7 @@
         <v>34</v>
       </c>
       <c r="K718" s="15" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="L718" s="13"/>
       <c r="M718" s="13"/>
@@ -33502,7 +33502,7 @@
         <v>34</v>
       </c>
       <c r="K719" s="15" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="L719" s="13" t="s">
         <v>60</v>
@@ -33510,7 +33510,7 @@
       <c r="M719" s="13"/>
       <c r="N719" s="11"/>
       <c r="O719" s="11" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="P719" s="13"/>
       <c r="Q719" s="13"/>
@@ -33544,7 +33544,7 @@
         <v>34</v>
       </c>
       <c r="K720" s="15" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="L720" s="13"/>
       <c r="M720" s="13"/>
@@ -33582,7 +33582,7 @@
         <v>174</v>
       </c>
       <c r="K721" s="15" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L721" s="13"/>
       <c r="M721" s="13"/>
@@ -33620,7 +33620,7 @@
         <v>174</v>
       </c>
       <c r="K722" s="15" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="L722" s="13"/>
       <c r="M722" s="13"/>
@@ -33658,7 +33658,7 @@
         <v>34</v>
       </c>
       <c r="K723" s="15" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="L723" s="13" t="s">
         <v>60</v>
@@ -33666,7 +33666,7 @@
       <c r="M723" s="13"/>
       <c r="N723" s="11"/>
       <c r="O723" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="P723" s="13"/>
       <c r="Q723" s="13"/>
@@ -33700,7 +33700,7 @@
         <v>34</v>
       </c>
       <c r="K724" s="15" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L724" s="13"/>
       <c r="M724" s="13"/>
@@ -33738,7 +33738,7 @@
         <v>34</v>
       </c>
       <c r="K725" s="15" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="L725" s="13"/>
       <c r="M725" s="13"/>
@@ -33776,7 +33776,7 @@
         <v>39</v>
       </c>
       <c r="K726" s="15" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="L726" s="13"/>
       <c r="M726" s="13"/>
@@ -33814,7 +33814,7 @@
         <v>34</v>
       </c>
       <c r="K727" s="15" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="L727" s="13"/>
       <c r="M727" s="13"/>
@@ -33826,7 +33826,7 @@
       <c r="S727" s="19"/>
       <c r="T727" s="25"/>
       <c r="U727" s="25" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="V727" s="1"/>
       <c r="W727" s="1"/>
@@ -33837,13 +33837,13 @@
     <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="9"/>
       <c r="B728" s="11" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C728" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D728" s="17" t="s">
         <v>1194</v>
-      </c>
-      <c r="D728" s="17" t="s">
-        <v>1196</v>
       </c>
       <c r="E728" s="9"/>
       <c r="F728" s="9" t="s">
@@ -33908,19 +33908,19 @@
         <v>77</v>
       </c>
       <c r="O729" s="9" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="P729" s="9" t="s">
         <v>79</v>
       </c>
       <c r="Q729" s="9" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="R729" s="13"/>
       <c r="S729" s="14"/>
       <c r="T729" s="9"/>
       <c r="U729" s="9" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="V729" s="1"/>
       <c r="W729" s="1"/>
@@ -33932,10 +33932,10 @@
       <c r="A730" s="9"/>
       <c r="B730" s="11"/>
       <c r="C730" s="9" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D730" s="9" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E730" s="9"/>
       <c r="F730" s="9" t="s">
@@ -33968,13 +33968,13 @@
         <v>79</v>
       </c>
       <c r="Q730" s="9" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="R730" s="13"/>
       <c r="S730" s="14"/>
       <c r="T730" s="9"/>
       <c r="U730" s="9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="V730" s="1"/>
       <c r="W730" s="1"/>
@@ -33986,10 +33986,10 @@
       <c r="A731" s="9"/>
       <c r="B731" s="11"/>
       <c r="C731" s="9" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D731" s="9" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E731" s="9"/>
       <c r="F731" s="9" t="s">
@@ -34022,13 +34022,13 @@
         <v>79</v>
       </c>
       <c r="Q731" s="9" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="R731" s="13"/>
       <c r="S731" s="14"/>
       <c r="T731" s="9"/>
       <c r="U731" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="V731" s="1"/>
       <c r="W731" s="1"/>
@@ -34040,10 +34040,10 @@
       <c r="A732" s="9"/>
       <c r="B732" s="11"/>
       <c r="C732" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D732" s="9" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E732" s="9"/>
       <c r="F732" s="9" t="s">
@@ -34076,13 +34076,13 @@
         <v>79</v>
       </c>
       <c r="Q732" s="9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="R732" s="13"/>
       <c r="S732" s="14"/>
       <c r="T732" s="9"/>
       <c r="U732" s="9" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="V732" s="1"/>
       <c r="W732" s="1"/>
@@ -34094,10 +34094,10 @@
       <c r="A733" s="9"/>
       <c r="B733" s="11"/>
       <c r="C733" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D733" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E733" s="9"/>
       <c r="F733" s="9" t="s">
@@ -34130,13 +34130,13 @@
         <v>79</v>
       </c>
       <c r="Q733" s="14" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="R733" s="13"/>
       <c r="S733" s="14"/>
       <c r="T733" s="9"/>
       <c r="U733" s="9" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="V733" s="1"/>
       <c r="W733" s="1"/>
@@ -34148,10 +34148,10 @@
       <c r="A734" s="9"/>
       <c r="B734" s="11"/>
       <c r="C734" s="9" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D734" s="9" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E734" s="9"/>
       <c r="F734" s="9" t="s">
@@ -34184,13 +34184,13 @@
         <v>79</v>
       </c>
       <c r="Q734" s="9" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="R734" s="13"/>
       <c r="S734" s="14"/>
       <c r="T734" s="9"/>
       <c r="U734" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="V734" s="1"/>
       <c r="W734" s="1"/>
@@ -34202,10 +34202,10 @@
       <c r="A735" s="9"/>
       <c r="B735" s="11"/>
       <c r="C735" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D735" s="10" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E735" s="9"/>
       <c r="F735" s="9" t="s">
@@ -34238,13 +34238,13 @@
         <v>79</v>
       </c>
       <c r="Q735" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="R735" s="13"/>
       <c r="S735" s="14"/>
       <c r="T735" s="9"/>
       <c r="U735" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="V735" s="1"/>
       <c r="W735" s="1"/>
@@ -34256,10 +34256,10 @@
       <c r="A736" s="9"/>
       <c r="B736" s="11"/>
       <c r="C736" s="9" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D736" s="10" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E736" s="9"/>
       <c r="F736" s="9" t="s">
@@ -34292,13 +34292,13 @@
         <v>79</v>
       </c>
       <c r="Q736" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="R736" s="13"/>
       <c r="S736" s="14"/>
       <c r="T736" s="9"/>
       <c r="U736" s="9" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="V736" s="1"/>
       <c r="W736" s="1"/>
@@ -34310,10 +34310,10 @@
       <c r="A737" s="9"/>
       <c r="B737" s="11"/>
       <c r="C737" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D737" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E737" s="9"/>
       <c r="F737" s="9" t="s">
@@ -34346,13 +34346,13 @@
         <v>79</v>
       </c>
       <c r="Q737" s="9" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="R737" s="13"/>
       <c r="S737" s="14"/>
       <c r="T737" s="9"/>
       <c r="U737" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="V737" s="1"/>
       <c r="W737" s="1"/>
@@ -34364,10 +34364,10 @@
       <c r="A738" s="9"/>
       <c r="B738" s="11"/>
       <c r="C738" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D738" s="10" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E738" s="9"/>
       <c r="F738" s="9" t="s">
@@ -34400,13 +34400,13 @@
         <v>79</v>
       </c>
       <c r="Q738" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="R738" s="13"/>
       <c r="S738" s="14"/>
       <c r="T738" s="9"/>
       <c r="U738" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="V738" s="1"/>
       <c r="W738" s="1"/>
@@ -34418,7 +34418,7 @@
       <c r="A739" s="19"/>
       <c r="B739" s="19"/>
       <c r="C739" s="19" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D739" s="19"/>
       <c r="E739" s="9"/>
@@ -34436,7 +34436,7 @@
         <v>34</v>
       </c>
       <c r="K739" s="24" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="L739" s="19"/>
       <c r="M739" s="19"/>
@@ -34474,7 +34474,7 @@
         <v>39</v>
       </c>
       <c r="K740" s="24" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="L740" s="19"/>
       <c r="M740" s="19"/>
@@ -34512,7 +34512,7 @@
         <v>34</v>
       </c>
       <c r="K741" s="24" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="L741" s="19"/>
       <c r="M741" s="19"/>
@@ -34550,7 +34550,7 @@
         <v>39</v>
       </c>
       <c r="K742" s="24" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="L742" s="19"/>
       <c r="M742" s="19"/>
@@ -34562,7 +34562,7 @@
       <c r="S742" s="19"/>
       <c r="T742" s="25"/>
       <c r="U742" s="25" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="V742" s="1"/>
       <c r="W742" s="1"/>
@@ -34574,10 +34574,10 @@
       <c r="A743" s="19"/>
       <c r="B743" s="19"/>
       <c r="C743" s="19" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D743" s="19" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E743" s="9"/>
       <c r="F743" s="9" t="s">
@@ -34594,25 +34594,25 @@
         <v>39</v>
       </c>
       <c r="K743" s="24" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="L743" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M743" s="19"/>
       <c r="N743" s="25"/>
       <c r="O743" s="25" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="P743" s="19"/>
       <c r="Q743" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="R743" s="19"/>
       <c r="S743" s="19"/>
       <c r="T743" s="25"/>
       <c r="U743" s="25" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="V743" s="1"/>
       <c r="W743" s="1"/>
@@ -34624,10 +34624,10 @@
       <c r="A744" s="19"/>
       <c r="B744" s="19"/>
       <c r="C744" s="19" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D744" s="19" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E744" s="9"/>
       <c r="F744" s="9" t="s">
@@ -34644,25 +34644,25 @@
         <v>39</v>
       </c>
       <c r="K744" s="24" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="L744" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M744" s="19"/>
       <c r="N744" s="25"/>
       <c r="O744" s="25" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="P744" s="19"/>
       <c r="Q744" s="19" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="R744" s="19"/>
       <c r="S744" s="19"/>
       <c r="T744" s="25"/>
       <c r="U744" s="25" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="V744" s="1"/>
       <c r="W744" s="1"/>
@@ -34674,10 +34674,10 @@
       <c r="A745" s="19"/>
       <c r="B745" s="19"/>
       <c r="C745" s="19" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D745" s="19" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E745" s="9"/>
       <c r="F745" s="9" t="s">
@@ -34694,25 +34694,25 @@
         <v>39</v>
       </c>
       <c r="K745" s="24" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="L745" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M745" s="19"/>
       <c r="N745" s="25"/>
       <c r="O745" s="25" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="P745" s="19"/>
       <c r="Q745" s="19" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="R745" s="19"/>
       <c r="S745" s="19"/>
       <c r="T745" s="25"/>
       <c r="U745" s="25" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="V745" s="1"/>
       <c r="W745" s="1"/>
@@ -34724,10 +34724,10 @@
       <c r="A746" s="19"/>
       <c r="B746" s="19"/>
       <c r="C746" s="19" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D746" s="19" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E746" s="9"/>
       <c r="F746" s="9" t="s">
@@ -34744,25 +34744,25 @@
         <v>39</v>
       </c>
       <c r="K746" s="24" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="L746" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M746" s="19"/>
       <c r="N746" s="25"/>
       <c r="O746" s="25" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="P746" s="19"/>
       <c r="Q746" s="19" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="R746" s="19"/>
       <c r="S746" s="19"/>
       <c r="T746" s="25"/>
       <c r="U746" s="25" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="V746" s="1"/>
       <c r="W746" s="1"/>
@@ -34774,10 +34774,10 @@
       <c r="A747" s="19"/>
       <c r="B747" s="19"/>
       <c r="C747" s="19" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D747" s="19" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E747" s="9"/>
       <c r="F747" s="9" t="s">
@@ -34787,14 +34787,14 @@
         <v>216</v>
       </c>
       <c r="H747" s="23" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I747" s="23"/>
       <c r="J747" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K747" s="24" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="L747" s="19" t="s">
         <v>60</v>
@@ -34802,17 +34802,17 @@
       <c r="M747" s="19"/>
       <c r="N747" s="25"/>
       <c r="O747" s="25" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="P747" s="19"/>
       <c r="Q747" s="19" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="R747" s="19"/>
       <c r="S747" s="19"/>
       <c r="T747" s="25"/>
       <c r="U747" s="58" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="V747" s="1"/>
       <c r="W747" s="1"/>
@@ -34824,10 +34824,10 @@
       <c r="A748" s="19"/>
       <c r="B748" s="19"/>
       <c r="C748" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D748" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E748" s="9"/>
       <c r="F748" s="9" t="s">
@@ -34837,30 +34837,30 @@
         <v>216</v>
       </c>
       <c r="H748" s="23" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I748" s="23"/>
       <c r="J748" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K748" s="24" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="L748" s="19" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="M748" s="19"/>
       <c r="N748" s="25"/>
       <c r="O748" s="25"/>
       <c r="P748" s="19"/>
       <c r="Q748" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="R748" s="19"/>
       <c r="S748" s="19"/>
       <c r="T748" s="25"/>
       <c r="U748" s="58" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="V748" s="1"/>
       <c r="W748" s="1"/>
@@ -34872,10 +34872,10 @@
       <c r="A749" s="19"/>
       <c r="B749" s="19"/>
       <c r="C749" s="19" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D749" s="19" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E749" s="9"/>
       <c r="F749" s="9" t="s">
@@ -34885,32 +34885,32 @@
         <v>216</v>
       </c>
       <c r="H749" s="23" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I749" s="23"/>
       <c r="J749" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K749" s="24" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="L749" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M749" s="19"/>
       <c r="N749" s="25"/>
       <c r="O749" s="25" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="P749" s="19"/>
       <c r="Q749" s="19" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="R749" s="19"/>
       <c r="S749" s="19"/>
       <c r="T749" s="25"/>
       <c r="U749" s="25" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="V749" s="1"/>
       <c r="W749" s="1"/>
@@ -34922,10 +34922,10 @@
       <c r="A750" s="19"/>
       <c r="B750" s="19"/>
       <c r="C750" s="19" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D750" s="19" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E750" s="9"/>
       <c r="F750" s="9" t="s">
@@ -34935,32 +34935,32 @@
         <v>216</v>
       </c>
       <c r="H750" s="23" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I750" s="23"/>
       <c r="J750" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K750" s="24" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="L750" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M750" s="19"/>
       <c r="N750" s="25"/>
       <c r="O750" s="25" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="P750" s="19"/>
       <c r="Q750" s="19" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="R750" s="19"/>
       <c r="S750" s="19"/>
       <c r="T750" s="25"/>
       <c r="U750" s="25" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="V750" s="1"/>
       <c r="W750" s="1"/>
@@ -34972,10 +34972,10 @@
       <c r="A751" s="19"/>
       <c r="B751" s="19"/>
       <c r="C751" s="19" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D751" s="19" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E751" s="9"/>
       <c r="F751" s="9" t="s">
@@ -34985,24 +34985,24 @@
         <v>216</v>
       </c>
       <c r="H751" s="23" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I751" s="23"/>
       <c r="J751" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K751" s="24" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L751" s="19" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="M751" s="19"/>
       <c r="N751" s="25"/>
       <c r="O751" s="25"/>
       <c r="P751" s="19"/>
       <c r="Q751" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="R751" s="19"/>
       <c r="S751" s="19"/>
@@ -35027,14 +35027,14 @@
         <v>251</v>
       </c>
       <c r="H752" s="23" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I752" s="23"/>
       <c r="J752" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K752" s="24" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L752" s="19"/>
       <c r="M752" s="19"/>
@@ -35065,14 +35065,14 @@
         <v>251</v>
       </c>
       <c r="H753" s="23" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I753" s="23"/>
       <c r="J753" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K753" s="24" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="L753" s="19"/>
       <c r="M753" s="19"/>
@@ -35103,14 +35103,14 @@
         <v>251</v>
       </c>
       <c r="H754" s="23" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I754" s="23"/>
       <c r="J754" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K754" s="24" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="L754" s="19"/>
       <c r="M754" s="19"/>
@@ -35122,7 +35122,7 @@
       <c r="S754" s="19"/>
       <c r="T754" s="25"/>
       <c r="U754" s="25" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="V754" s="1"/>
       <c r="W754" s="1"/>

--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971CA63-9489-4412-8554-32912EDA6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11BC5C-47EC-4173-BDE1-1B9F54B2320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2356,9 +2356,6 @@
     <t>Tidak apa-apa, Nona Anette. Untungnya $[name] datang lalu Bubul dan $[name] mencari makan ke pasar.</t>
   </si>
   <si>
-    <t>if $[var2]=1 go to 112, else go to 113</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
@@ -3914,6 +3911,9 @@
   </si>
   <si>
     <t>["pra2-4", true, 152]|["pra2-4", false, 153]</t>
+  </si>
+  <si>
+    <t>["var2", true, 112]|["var2", false, 113]</t>
   </si>
 </sst>
 </file>
@@ -4557,10 +4557,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P566" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O663" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T576" sqref="T576"/>
+      <selection pane="bottomRight" activeCell="R433" sqref="R433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4673,7 +4673,7 @@
         <v>21</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>22</v>
@@ -13255,7 +13255,7 @@
         <v>469</v>
       </c>
       <c r="R213" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S213" s="14"/>
       <c r="T213" s="9"/>
@@ -13509,7 +13509,7 @@
         <v>481</v>
       </c>
       <c r="R219" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S219" s="43"/>
       <c r="T219" s="44"/>
@@ -13763,7 +13763,7 @@
         <v>488</v>
       </c>
       <c r="R225" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S225" s="43"/>
       <c r="T225" s="44"/>
@@ -14017,7 +14017,7 @@
         <v>495</v>
       </c>
       <c r="R231" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S231" s="43"/>
       <c r="T231" s="44"/>
@@ -14271,7 +14271,7 @@
         <v>503</v>
       </c>
       <c r="R237" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S237" s="43"/>
       <c r="T237" s="44"/>
@@ -18599,7 +18599,7 @@
       </c>
       <c r="Q345" s="19"/>
       <c r="R345" s="14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="S345" s="14"/>
       <c r="T345" s="9"/>
@@ -22036,10 +22036,10 @@
       <c r="Q432" s="19"/>
       <c r="R432" s="14"/>
       <c r="S432" s="14"/>
-      <c r="T432" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="U432" s="9"/>
+      <c r="T432" s="9"/>
+      <c r="U432" s="9" t="s">
+        <v>1297</v>
+      </c>
       <c r="V432" s="1"/>
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
@@ -22050,7 +22050,7 @@
       <c r="A433" s="19"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D433" s="19"/>
       <c r="E433" s="22"/>
@@ -22068,7 +22068,7 @@
         <v>34</v>
       </c>
       <c r="K433" s="32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L433" s="19"/>
       <c r="M433" s="19"/>
@@ -22106,7 +22106,7 @@
         <v>34</v>
       </c>
       <c r="K434" s="47" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L434" s="19"/>
       <c r="M434" s="19"/>
@@ -22118,7 +22118,7 @@
       <c r="S434" s="14"/>
       <c r="T434" s="9"/>
       <c r="U434" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V434" s="1"/>
       <c r="W434" s="1"/>
@@ -22130,7 +22130,7 @@
       <c r="A435" s="19"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D435" s="19"/>
       <c r="E435" s="22"/>
@@ -22148,7 +22148,7 @@
         <v>174</v>
       </c>
       <c r="K435" s="24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L435" s="19"/>
       <c r="M435" s="19"/>
@@ -22186,7 +22186,7 @@
         <v>174</v>
       </c>
       <c r="K436" s="47" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L436" s="19"/>
       <c r="M436" s="19"/>
@@ -22224,7 +22224,7 @@
         <v>34</v>
       </c>
       <c r="K437" s="24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L437" s="19"/>
       <c r="M437" s="19"/>
@@ -22236,7 +22236,7 @@
       <c r="S437" s="14"/>
       <c r="T437" s="9"/>
       <c r="U437" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V437" s="1"/>
       <c r="W437" s="1"/>
@@ -22248,7 +22248,7 @@
       <c r="A438" s="19"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D438" s="19"/>
       <c r="E438" s="22"/>
@@ -22266,7 +22266,7 @@
         <v>34</v>
       </c>
       <c r="K438" s="24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L438" s="19"/>
       <c r="M438" s="19"/>
@@ -22304,7 +22304,7 @@
         <v>39</v>
       </c>
       <c r="K439" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L439" s="19"/>
       <c r="M439" s="19"/>
@@ -22342,7 +22342,7 @@
         <v>34</v>
       </c>
       <c r="K440" s="24" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L440" s="19"/>
       <c r="M440" s="19"/>
@@ -22380,7 +22380,7 @@
         <v>221</v>
       </c>
       <c r="K441" s="24" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L441" s="19"/>
       <c r="M441" s="19"/>
@@ -22418,7 +22418,7 @@
         <v>39</v>
       </c>
       <c r="K442" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L442" s="19"/>
       <c r="M442" s="19"/>
@@ -22428,11 +22428,11 @@
       <c r="Q442" s="19"/>
       <c r="R442" s="14"/>
       <c r="S442" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="T442" s="9"/>
       <c r="U442" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="V442" s="1"/>
       <c r="W442" s="1"/>
@@ -22444,7 +22444,7 @@
       <c r="A443" s="19"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D443" s="19"/>
       <c r="E443" s="22"/>
@@ -22462,7 +22462,7 @@
         <v>34</v>
       </c>
       <c r="K443" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L443" s="19"/>
       <c r="M443" s="19"/>
@@ -22500,7 +22500,7 @@
         <v>34</v>
       </c>
       <c r="K444" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L444" s="19"/>
       <c r="M444" s="19"/>
@@ -22538,7 +22538,7 @@
         <v>39</v>
       </c>
       <c r="K445" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L445" s="19"/>
       <c r="M445" s="19"/>
@@ -22576,7 +22576,7 @@
         <v>39</v>
       </c>
       <c r="K446" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L446" s="19"/>
       <c r="M446" s="19"/>
@@ -22614,7 +22614,7 @@
         <v>54</v>
       </c>
       <c r="K447" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L447" s="19"/>
       <c r="M447" s="19"/>
@@ -22652,7 +22652,7 @@
         <v>41</v>
       </c>
       <c r="K448" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L448" s="19"/>
       <c r="M448" s="19"/>
@@ -22690,7 +22690,7 @@
         <v>39</v>
       </c>
       <c r="K449" s="24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L449" s="19"/>
       <c r="M449" s="19"/>
@@ -22728,7 +22728,7 @@
         <v>54</v>
       </c>
       <c r="K450" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L450" s="19"/>
       <c r="M450" s="19"/>
@@ -22768,7 +22768,7 @@
         <v>39</v>
       </c>
       <c r="K451" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L451" s="19"/>
       <c r="M451" s="19"/>
@@ -22806,7 +22806,7 @@
         <v>41</v>
       </c>
       <c r="K452" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L452" s="19" t="s">
         <v>60</v>
@@ -22814,7 +22814,7 @@
       <c r="M452" s="19"/>
       <c r="N452" s="25"/>
       <c r="O452" s="25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P452" s="19"/>
       <c r="Q452" s="19"/>
@@ -22822,7 +22822,7 @@
       <c r="S452" s="14"/>
       <c r="T452" s="9"/>
       <c r="U452" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V452" s="1"/>
       <c r="W452" s="1"/>
@@ -22834,7 +22834,7 @@
       <c r="A453" s="19"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D453" s="19"/>
       <c r="E453" s="22"/>
@@ -22852,7 +22852,7 @@
         <v>39</v>
       </c>
       <c r="K453" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L453" s="19"/>
       <c r="M453" s="19"/>
@@ -22890,7 +22890,7 @@
         <v>41</v>
       </c>
       <c r="K454" s="24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L454" s="19" t="s">
         <v>60</v>
@@ -22898,7 +22898,7 @@
       <c r="M454" s="19"/>
       <c r="N454" s="25"/>
       <c r="O454" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P454" s="19"/>
       <c r="Q454" s="19"/>
@@ -22906,7 +22906,7 @@
       <c r="S454" s="14"/>
       <c r="T454" s="9"/>
       <c r="U454" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V454" s="1"/>
       <c r="W454" s="1"/>
@@ -22918,7 +22918,7 @@
       <c r="A455" s="19"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D455" s="19"/>
       <c r="E455" s="22"/>
@@ -22936,7 +22936,7 @@
         <v>34</v>
       </c>
       <c r="K455" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L455" s="19"/>
       <c r="M455" s="19"/>
@@ -22974,7 +22974,7 @@
         <v>39</v>
       </c>
       <c r="K456" s="32" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L456" s="19"/>
       <c r="M456" s="19"/>
@@ -22986,7 +22986,7 @@
       <c r="S456" s="14"/>
       <c r="T456" s="9"/>
       <c r="U456" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V456" s="1"/>
       <c r="W456" s="1"/>
@@ -22998,7 +22998,7 @@
       <c r="A457" s="19"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D457" s="19"/>
       <c r="E457" s="22"/>
@@ -23016,7 +23016,7 @@
         <v>39</v>
       </c>
       <c r="K457" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L457" s="19"/>
       <c r="M457" s="19"/>
@@ -23054,7 +23054,7 @@
         <v>39</v>
       </c>
       <c r="K458" s="32" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L458" s="19"/>
       <c r="M458" s="19"/>
@@ -23066,7 +23066,7 @@
       <c r="S458" s="14"/>
       <c r="T458" s="9"/>
       <c r="U458" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V458" s="1"/>
       <c r="W458" s="1"/>
@@ -23078,7 +23078,7 @@
       <c r="A459" s="19"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D459" s="19"/>
       <c r="E459" s="22"/>
@@ -23096,7 +23096,7 @@
         <v>41</v>
       </c>
       <c r="K459" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L459" s="19" t="s">
         <v>60</v>
@@ -23104,7 +23104,7 @@
       <c r="M459" s="19"/>
       <c r="N459" s="25"/>
       <c r="O459" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P459" s="19"/>
       <c r="Q459" s="19"/>
@@ -23112,7 +23112,7 @@
       <c r="S459" s="14"/>
       <c r="T459" s="9"/>
       <c r="U459" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V459" s="1"/>
       <c r="W459" s="1"/>
@@ -23124,7 +23124,7 @@
       <c r="A460" s="19"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D460" s="19"/>
       <c r="E460" s="22"/>
@@ -23142,7 +23142,7 @@
         <v>34</v>
       </c>
       <c r="K460" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L460" s="19"/>
       <c r="M460" s="19"/>
@@ -23180,7 +23180,7 @@
         <v>39</v>
       </c>
       <c r="K461" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L461" s="19"/>
       <c r="M461" s="19"/>
@@ -23192,7 +23192,7 @@
       <c r="S461" s="14"/>
       <c r="T461" s="9"/>
       <c r="U461" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V461" s="1"/>
       <c r="W461" s="1"/>
@@ -23204,7 +23204,7 @@
       <c r="A462" s="19"/>
       <c r="B462" s="19"/>
       <c r="C462" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D462" s="19"/>
       <c r="E462" s="22"/>
@@ -23222,7 +23222,7 @@
         <v>39</v>
       </c>
       <c r="K462" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L462" s="19"/>
       <c r="M462" s="19"/>
@@ -23260,7 +23260,7 @@
         <v>41</v>
       </c>
       <c r="K463" s="24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L463" s="19"/>
       <c r="M463" s="19"/>
@@ -23298,7 +23298,7 @@
         <v>39</v>
       </c>
       <c r="K464" s="24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L464" s="19"/>
       <c r="M464" s="19"/>
@@ -23310,7 +23310,7 @@
       <c r="S464" s="14"/>
       <c r="T464" s="9"/>
       <c r="U464" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V464" s="1"/>
       <c r="W464" s="1"/>
@@ -23322,7 +23322,7 @@
       <c r="A465" s="19"/>
       <c r="B465" s="19"/>
       <c r="C465" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D465" s="19"/>
       <c r="E465" s="22"/>
@@ -23340,7 +23340,7 @@
         <v>41</v>
       </c>
       <c r="K465" s="24" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L465" s="19" t="s">
         <v>60</v>
@@ -23348,7 +23348,7 @@
       <c r="M465" s="19"/>
       <c r="N465" s="25"/>
       <c r="O465" s="25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P465" s="19"/>
       <c r="Q465" s="19"/>
@@ -23356,7 +23356,7 @@
       <c r="S465" s="14"/>
       <c r="T465" s="9"/>
       <c r="U465" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V465" s="1"/>
       <c r="W465" s="1"/>
@@ -23368,7 +23368,7 @@
       <c r="A466" s="19"/>
       <c r="B466" s="19"/>
       <c r="C466" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D466" s="19"/>
       <c r="E466" s="22"/>
@@ -23386,7 +23386,7 @@
         <v>34</v>
       </c>
       <c r="K466" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L466" s="19"/>
       <c r="M466" s="19"/>
@@ -23424,7 +23424,7 @@
         <v>39</v>
       </c>
       <c r="K467" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L467" s="19"/>
       <c r="M467" s="19"/>
@@ -23436,7 +23436,7 @@
       <c r="S467" s="14"/>
       <c r="T467" s="9"/>
       <c r="U467" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V467" s="1"/>
       <c r="W467" s="1"/>
@@ -23448,7 +23448,7 @@
       <c r="A468" s="19"/>
       <c r="B468" s="19"/>
       <c r="C468" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D468" s="19"/>
       <c r="E468" s="22"/>
@@ -23466,7 +23466,7 @@
         <v>39</v>
       </c>
       <c r="K468" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L468" s="19"/>
       <c r="M468" s="19"/>
@@ -23504,7 +23504,7 @@
         <v>39</v>
       </c>
       <c r="K469" s="32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L469" s="19"/>
       <c r="M469" s="19"/>
@@ -23542,7 +23542,7 @@
         <v>41</v>
       </c>
       <c r="K470" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L470" s="19"/>
       <c r="M470" s="19"/>
@@ -23554,7 +23554,7 @@
       <c r="S470" s="14"/>
       <c r="T470" s="9"/>
       <c r="U470" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V470" s="1"/>
       <c r="W470" s="1"/>
@@ -23566,7 +23566,7 @@
       <c r="A471" s="19"/>
       <c r="B471" s="19"/>
       <c r="C471" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D471" s="19"/>
       <c r="E471" s="22"/>
@@ -23584,7 +23584,7 @@
         <v>39</v>
       </c>
       <c r="K471" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L471" s="19"/>
       <c r="M471" s="19"/>
@@ -23622,7 +23622,7 @@
         <v>39</v>
       </c>
       <c r="K472" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L472" s="19"/>
       <c r="M472" s="19"/>
@@ -23660,7 +23660,7 @@
         <v>34</v>
       </c>
       <c r="K473" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L473" s="19"/>
       <c r="M473" s="19"/>
@@ -23698,7 +23698,7 @@
         <v>39</v>
       </c>
       <c r="K474" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L474" s="19"/>
       <c r="M474" s="19"/>
@@ -23736,7 +23736,7 @@
         <v>34</v>
       </c>
       <c r="K475" s="24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L475" s="19"/>
       <c r="M475" s="19"/>
@@ -23774,7 +23774,7 @@
         <v>34</v>
       </c>
       <c r="K476" s="24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L476" s="19" t="s">
         <v>60</v>
@@ -23782,7 +23782,7 @@
       <c r="M476" s="19"/>
       <c r="N476" s="25"/>
       <c r="O476" s="25" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P476" s="19"/>
       <c r="Q476" s="19"/>
@@ -23790,7 +23790,7 @@
       <c r="S476" s="14"/>
       <c r="T476" s="9"/>
       <c r="U476" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V476" s="1"/>
       <c r="W476" s="1"/>
@@ -23801,10 +23801,10 @@
     <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="19"/>
       <c r="B477" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="C477" s="19" t="s">
         <v>842</v>
-      </c>
-      <c r="C477" s="19" t="s">
-        <v>843</v>
       </c>
       <c r="D477" s="19"/>
       <c r="E477" s="22"/>
@@ -23812,7 +23812,7 @@
         <v>392</v>
       </c>
       <c r="G477" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H477" s="23" t="s">
         <v>236</v>
@@ -23822,7 +23822,7 @@
         <v>39</v>
       </c>
       <c r="K477" s="24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L477" s="19"/>
       <c r="M477" s="19"/>
@@ -23850,7 +23850,7 @@
         <v>392</v>
       </c>
       <c r="G478" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H478" s="23" t="s">
         <v>236</v>
@@ -23860,7 +23860,7 @@
         <v>39</v>
       </c>
       <c r="K478" s="24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L478" s="19"/>
       <c r="M478" s="19"/>
@@ -23888,7 +23888,7 @@
         <v>392</v>
       </c>
       <c r="G479" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H479" s="23" t="s">
         <v>236</v>
@@ -23898,7 +23898,7 @@
         <v>39</v>
       </c>
       <c r="K479" s="24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L479" s="48"/>
       <c r="M479" s="48"/>
@@ -23910,7 +23910,7 @@
       <c r="S479" s="14"/>
       <c r="T479" s="9"/>
       <c r="U479" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="V479" s="1"/>
       <c r="W479" s="1"/>
@@ -23922,7 +23922,7 @@
       <c r="A480" s="19"/>
       <c r="B480" s="19"/>
       <c r="C480" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D480" s="19"/>
       <c r="E480" s="22"/>
@@ -23930,7 +23930,7 @@
         <v>392</v>
       </c>
       <c r="G480" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H480" s="23" t="s">
         <v>236</v>
@@ -23940,7 +23940,7 @@
         <v>41</v>
       </c>
       <c r="K480" s="50" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L480" s="51"/>
       <c r="M480" s="51"/>
@@ -23968,7 +23968,7 @@
         <v>392</v>
       </c>
       <c r="G481" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H481" s="23" t="s">
         <v>220</v>
@@ -23978,7 +23978,7 @@
         <v>34</v>
       </c>
       <c r="K481" s="24" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L481" s="53"/>
       <c r="M481" s="53"/>
@@ -24006,7 +24006,7 @@
         <v>392</v>
       </c>
       <c r="G482" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H482" s="23" t="s">
         <v>236</v>
@@ -24016,7 +24016,7 @@
         <v>39</v>
       </c>
       <c r="K482" s="24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L482" s="19"/>
       <c r="M482" s="19"/>
@@ -24044,7 +24044,7 @@
         <v>392</v>
       </c>
       <c r="G483" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H483" s="23" t="s">
         <v>220</v>
@@ -24054,14 +24054,14 @@
         <v>39</v>
       </c>
       <c r="K483" s="24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L483" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M483" s="19"/>
       <c r="N483" s="25" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O483" s="25"/>
       <c r="P483" s="19"/>
@@ -24086,7 +24086,7 @@
         <v>392</v>
       </c>
       <c r="G484" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H484" s="23" t="s">
         <v>236</v>
@@ -24096,7 +24096,7 @@
         <v>34</v>
       </c>
       <c r="K484" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L484" s="19"/>
       <c r="M484" s="19"/>
@@ -24108,7 +24108,7 @@
       <c r="S484" s="14"/>
       <c r="T484" s="9"/>
       <c r="U484" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="V484" s="1"/>
       <c r="W484" s="1"/>
@@ -24120,7 +24120,7 @@
       <c r="A485" s="19"/>
       <c r="B485" s="19"/>
       <c r="C485" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D485" s="19"/>
       <c r="E485" s="22"/>
@@ -24128,7 +24128,7 @@
         <v>392</v>
       </c>
       <c r="G485" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H485" s="23" t="s">
         <v>236</v>
@@ -24138,14 +24138,14 @@
         <v>39</v>
       </c>
       <c r="K485" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L485" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M485" s="19"/>
       <c r="N485" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O485" s="25"/>
       <c r="P485" s="19"/>
@@ -24170,7 +24170,7 @@
         <v>392</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H486" s="23" t="s">
         <v>236</v>
@@ -24180,7 +24180,7 @@
         <v>39</v>
       </c>
       <c r="K486" s="32" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L486" s="19"/>
       <c r="M486" s="19"/>
@@ -24208,7 +24208,7 @@
         <v>392</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H487" s="23" t="s">
         <v>236</v>
@@ -24218,7 +24218,7 @@
         <v>41</v>
       </c>
       <c r="K487" s="24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L487" s="19"/>
       <c r="M487" s="19"/>
@@ -24246,7 +24246,7 @@
         <v>392</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H488" s="23" t="s">
         <v>236</v>
@@ -24256,7 +24256,7 @@
         <v>39</v>
       </c>
       <c r="K488" s="24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L488" s="19"/>
       <c r="M488" s="19"/>
@@ -24284,7 +24284,7 @@
         <v>392</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H489" s="23" t="s">
         <v>236</v>
@@ -24294,7 +24294,7 @@
         <v>41</v>
       </c>
       <c r="K489" s="24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L489" s="19"/>
       <c r="M489" s="19"/>
@@ -24322,7 +24322,7 @@
         <v>392</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H490" s="23" t="s">
         <v>236</v>
@@ -24332,7 +24332,7 @@
         <v>41</v>
       </c>
       <c r="K490" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L490" s="19"/>
       <c r="M490" s="19"/>
@@ -24360,7 +24360,7 @@
         <v>392</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H491" s="23" t="s">
         <v>236</v>
@@ -24370,7 +24370,7 @@
         <v>39</v>
       </c>
       <c r="K491" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L491" s="19"/>
       <c r="M491" s="19"/>
@@ -24398,7 +24398,7 @@
         <v>392</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H492" s="23" t="s">
         <v>236</v>
@@ -24408,7 +24408,7 @@
         <v>39</v>
       </c>
       <c r="K492" s="24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L492" s="19"/>
       <c r="M492" s="19"/>
@@ -24436,7 +24436,7 @@
         <v>392</v>
       </c>
       <c r="G493" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H493" s="23" t="s">
         <v>236</v>
@@ -24446,7 +24446,7 @@
         <v>41</v>
       </c>
       <c r="K493" s="24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L493" s="19"/>
       <c r="M493" s="19"/>
@@ -24474,7 +24474,7 @@
         <v>392</v>
       </c>
       <c r="G494" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H494" s="23" t="s">
         <v>236</v>
@@ -24484,7 +24484,7 @@
         <v>34</v>
       </c>
       <c r="K494" s="24" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L494" s="19"/>
       <c r="M494" s="19"/>
@@ -24512,7 +24512,7 @@
         <v>392</v>
       </c>
       <c r="G495" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H495" s="23" t="s">
         <v>236</v>
@@ -24522,7 +24522,7 @@
         <v>39</v>
       </c>
       <c r="K495" s="24" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L495" s="19"/>
       <c r="M495" s="19"/>
@@ -24534,7 +24534,7 @@
       <c r="S495" s="14"/>
       <c r="T495" s="9"/>
       <c r="U495" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V495" s="1"/>
       <c r="W495" s="1"/>
@@ -24546,7 +24546,7 @@
       <c r="A496" s="19"/>
       <c r="B496" s="19"/>
       <c r="C496" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D496" s="19"/>
       <c r="E496" s="22"/>
@@ -24554,7 +24554,7 @@
         <v>392</v>
       </c>
       <c r="G496" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H496" s="23" t="s">
         <v>220</v>
@@ -24564,7 +24564,7 @@
         <v>54</v>
       </c>
       <c r="K496" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L496" s="19"/>
       <c r="M496" s="19"/>
@@ -24592,7 +24592,7 @@
         <v>392</v>
       </c>
       <c r="G497" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H497" s="23" t="s">
         <v>220</v>
@@ -24602,7 +24602,7 @@
         <v>39</v>
       </c>
       <c r="K497" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L497" s="19"/>
       <c r="M497" s="19"/>
@@ -24630,7 +24630,7 @@
         <v>392</v>
       </c>
       <c r="G498" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H498" s="23" t="s">
         <v>220</v>
@@ -24640,7 +24640,7 @@
         <v>41</v>
       </c>
       <c r="K498" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L498" s="19"/>
       <c r="M498" s="19"/>
@@ -24668,7 +24668,7 @@
         <v>392</v>
       </c>
       <c r="G499" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H499" s="23" t="s">
         <v>236</v>
@@ -24678,7 +24678,7 @@
         <v>39</v>
       </c>
       <c r="K499" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L499" s="19"/>
       <c r="M499" s="19"/>
@@ -24706,7 +24706,7 @@
         <v>392</v>
       </c>
       <c r="G500" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H500" s="23" t="s">
         <v>236</v>
@@ -24716,7 +24716,7 @@
         <v>34</v>
       </c>
       <c r="K500" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L500" s="19"/>
       <c r="M500" s="19"/>
@@ -24744,7 +24744,7 @@
         <v>392</v>
       </c>
       <c r="G501" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H501" s="23" t="s">
         <v>220</v>
@@ -24754,7 +24754,7 @@
         <v>34</v>
       </c>
       <c r="K501" s="24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L501" s="19"/>
       <c r="M501" s="19"/>
@@ -24776,7 +24776,7 @@
       <c r="A502" s="19"/>
       <c r="B502" s="19"/>
       <c r="C502" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D502" s="19"/>
       <c r="E502" s="22"/>
@@ -24784,7 +24784,7 @@
         <v>392</v>
       </c>
       <c r="G502" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H502" s="23" t="s">
         <v>236</v>
@@ -24794,7 +24794,7 @@
         <v>39</v>
       </c>
       <c r="K502" s="24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L502" s="19" t="s">
         <v>60</v>
@@ -24802,7 +24802,7 @@
       <c r="M502" s="19"/>
       <c r="N502" s="25"/>
       <c r="O502" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P502" s="19"/>
       <c r="Q502" s="19"/>
@@ -24810,7 +24810,7 @@
       <c r="S502" s="14"/>
       <c r="T502" s="9"/>
       <c r="U502" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="V502" s="1"/>
       <c r="W502" s="1"/>
@@ -24822,7 +24822,7 @@
       <c r="A503" s="19"/>
       <c r="B503" s="19"/>
       <c r="C503" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D503" s="19"/>
       <c r="E503" s="22"/>
@@ -24830,7 +24830,7 @@
         <v>392</v>
       </c>
       <c r="G503" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H503" s="23" t="s">
         <v>236</v>
@@ -24840,14 +24840,14 @@
         <v>39</v>
       </c>
       <c r="K503" s="24" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L503" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M503" s="19"/>
       <c r="N503" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O503" s="25"/>
       <c r="P503" s="19"/>
@@ -24872,7 +24872,7 @@
         <v>392</v>
       </c>
       <c r="G504" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H504" s="23" t="s">
         <v>236</v>
@@ -24882,7 +24882,7 @@
         <v>41</v>
       </c>
       <c r="K504" s="24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L504" s="19"/>
       <c r="M504" s="19"/>
@@ -24910,7 +24910,7 @@
         <v>392</v>
       </c>
       <c r="G505" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H505" s="23" t="s">
         <v>236</v>
@@ -24920,7 +24920,7 @@
         <v>39</v>
       </c>
       <c r="K505" s="24" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L505" s="19"/>
       <c r="M505" s="19"/>
@@ -24948,7 +24948,7 @@
         <v>392</v>
       </c>
       <c r="G506" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H506" s="23" t="s">
         <v>236</v>
@@ -24958,7 +24958,7 @@
         <v>41</v>
       </c>
       <c r="K506" s="24" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L506" s="19"/>
       <c r="M506" s="19"/>
@@ -24986,7 +24986,7 @@
         <v>392</v>
       </c>
       <c r="G507" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H507" s="23" t="s">
         <v>236</v>
@@ -24996,7 +24996,7 @@
         <v>39</v>
       </c>
       <c r="K507" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L507" s="19"/>
       <c r="M507" s="19"/>
@@ -25024,7 +25024,7 @@
         <v>392</v>
       </c>
       <c r="G508" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H508" s="23" t="s">
         <v>236</v>
@@ -25034,7 +25034,7 @@
         <v>41</v>
       </c>
       <c r="K508" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L508" s="19"/>
       <c r="M508" s="19"/>
@@ -25046,7 +25046,7 @@
       <c r="S508" s="14"/>
       <c r="T508" s="9"/>
       <c r="U508" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V508" s="1"/>
       <c r="W508" s="1"/>
@@ -25057,10 +25057,10 @@
     <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="19"/>
       <c r="B509" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C509" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D509" s="19"/>
       <c r="E509" s="22"/>
@@ -25078,7 +25078,7 @@
         <v>34</v>
       </c>
       <c r="K509" s="24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L509" s="19"/>
       <c r="M509" s="19"/>
@@ -25116,7 +25116,7 @@
         <v>39</v>
       </c>
       <c r="K510" s="24" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L510" s="19"/>
       <c r="M510" s="19"/>
@@ -25154,7 +25154,7 @@
         <v>39</v>
       </c>
       <c r="K511" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L511" s="19" t="s">
         <v>60</v>
@@ -25162,7 +25162,7 @@
       <c r="M511" s="19"/>
       <c r="N511" s="25"/>
       <c r="O511" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P511" s="19"/>
       <c r="Q511" s="19"/>
@@ -25170,7 +25170,7 @@
       <c r="S511" s="14"/>
       <c r="T511" s="9"/>
       <c r="U511" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V511" s="1"/>
       <c r="W511" s="1"/>
@@ -25182,7 +25182,7 @@
       <c r="A512" s="19"/>
       <c r="B512" s="19"/>
       <c r="C512" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D512" s="19"/>
       <c r="E512" s="22"/>
@@ -25200,7 +25200,7 @@
         <v>34</v>
       </c>
       <c r="K512" s="24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L512" s="19"/>
       <c r="M512" s="19"/>
@@ -25212,7 +25212,7 @@
       <c r="S512" s="14"/>
       <c r="T512" s="9"/>
       <c r="U512" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="V512" s="1"/>
       <c r="W512" s="1"/>
@@ -25224,7 +25224,7 @@
       <c r="A513" s="19"/>
       <c r="B513" s="19"/>
       <c r="C513" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D513" s="19"/>
       <c r="E513" s="22"/>
@@ -25242,7 +25242,7 @@
         <v>39</v>
       </c>
       <c r="K513" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L513" s="19"/>
       <c r="M513" s="19"/>
@@ -25254,7 +25254,7 @@
       <c r="S513" s="14"/>
       <c r="T513" s="9"/>
       <c r="U513" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="V513" s="1"/>
       <c r="W513" s="1"/>
@@ -25266,7 +25266,7 @@
       <c r="A514" s="19"/>
       <c r="B514" s="19"/>
       <c r="C514" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D514" s="19"/>
       <c r="E514" s="22"/>
@@ -25284,7 +25284,7 @@
         <v>39</v>
       </c>
       <c r="K514" s="24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L514" s="19"/>
       <c r="M514" s="19"/>
@@ -25322,7 +25322,7 @@
         <v>34</v>
       </c>
       <c r="K515" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L515" s="19" t="s">
         <v>60</v>
@@ -25330,7 +25330,7 @@
       <c r="M515" s="19"/>
       <c r="N515" s="25"/>
       <c r="O515" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="P515" s="19"/>
       <c r="Q515" s="19"/>
@@ -25338,7 +25338,7 @@
       <c r="S515" s="14"/>
       <c r="T515" s="9"/>
       <c r="U515" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V515" s="1"/>
       <c r="W515" s="1"/>
@@ -25350,7 +25350,7 @@
       <c r="A516" s="19"/>
       <c r="B516" s="19"/>
       <c r="C516" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D516" s="19"/>
       <c r="E516" s="22"/>
@@ -25368,7 +25368,7 @@
         <v>39</v>
       </c>
       <c r="K516" s="24" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L516" s="19"/>
       <c r="M516" s="19"/>
@@ -25406,7 +25406,7 @@
         <v>39</v>
       </c>
       <c r="K517" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L517" s="19"/>
       <c r="M517" s="19"/>
@@ -25444,7 +25444,7 @@
         <v>41</v>
       </c>
       <c r="K518" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L518" s="19"/>
       <c r="M518" s="19"/>
@@ -25456,7 +25456,7 @@
       <c r="S518" s="14"/>
       <c r="T518" s="9"/>
       <c r="U518" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="V518" s="1"/>
       <c r="W518" s="1"/>
@@ -25468,7 +25468,7 @@
       <c r="A519" s="19"/>
       <c r="B519" s="19"/>
       <c r="C519" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D519" s="19"/>
       <c r="E519" s="22"/>
@@ -25486,7 +25486,7 @@
         <v>39</v>
       </c>
       <c r="K519" s="24" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L519" s="19" t="s">
         <v>60</v>
@@ -25494,7 +25494,7 @@
       <c r="M519" s="19"/>
       <c r="N519" s="25"/>
       <c r="O519" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P519" s="19"/>
       <c r="Q519" s="19"/>
@@ -25502,7 +25502,7 @@
       <c r="S519" s="14"/>
       <c r="T519" s="9"/>
       <c r="U519" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="V519" s="1"/>
       <c r="W519" s="1"/>
@@ -25514,7 +25514,7 @@
       <c r="A520" s="19"/>
       <c r="B520" s="19"/>
       <c r="C520" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D520" s="19"/>
       <c r="E520" s="22"/>
@@ -25532,7 +25532,7 @@
         <v>34</v>
       </c>
       <c r="K520" s="24" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L520" s="19"/>
       <c r="M520" s="19"/>
@@ -25570,7 +25570,7 @@
         <v>39</v>
       </c>
       <c r="K521" s="24" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L521" s="19"/>
       <c r="M521" s="19"/>
@@ -25608,7 +25608,7 @@
         <v>34</v>
       </c>
       <c r="K522" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L522" s="19"/>
       <c r="M522" s="19"/>
@@ -25620,7 +25620,7 @@
       <c r="S522" s="14"/>
       <c r="T522" s="9"/>
       <c r="U522" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V522" s="1"/>
       <c r="W522" s="1"/>
@@ -25632,7 +25632,7 @@
       <c r="A523" s="19"/>
       <c r="B523" s="19"/>
       <c r="C523" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D523" s="19"/>
       <c r="E523" s="22"/>
@@ -25650,7 +25650,7 @@
         <v>34</v>
       </c>
       <c r="K523" s="24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L523" s="19"/>
       <c r="M523" s="19"/>
@@ -25690,7 +25690,7 @@
         <v>39</v>
       </c>
       <c r="K524" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L524" s="19"/>
       <c r="M524" s="19"/>
@@ -25728,7 +25728,7 @@
         <v>39</v>
       </c>
       <c r="K525" s="24" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L525" s="19"/>
       <c r="M525" s="19"/>
@@ -25766,15 +25766,15 @@
         <v>39</v>
       </c>
       <c r="K526" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="L526" s="19" t="s">
         <v>918</v>
-      </c>
-      <c r="L526" s="19" t="s">
-        <v>919</v>
       </c>
       <c r="M526" s="19"/>
       <c r="N526" s="25"/>
       <c r="O526" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P526" s="19"/>
       <c r="Q526" s="19"/>
@@ -25782,7 +25782,7 @@
       <c r="S526" s="14"/>
       <c r="T526" s="9"/>
       <c r="U526" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="V526" s="1"/>
       <c r="W526" s="1"/>
@@ -25794,7 +25794,7 @@
       <c r="A527" s="19"/>
       <c r="B527" s="19"/>
       <c r="C527" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D527" s="19"/>
       <c r="E527" s="22"/>
@@ -25812,26 +25812,26 @@
         <v>41</v>
       </c>
       <c r="K527" s="24" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L527" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M527" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N527" s="25"/>
       <c r="O527" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="P527" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="P527" s="19" t="s">
+      <c r="Q527" s="19" t="s">
         <v>925</v>
       </c>
-      <c r="Q527" s="19" t="s">
-        <v>926</v>
-      </c>
       <c r="R527" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S527" s="14"/>
       <c r="T527" s="9"/>
@@ -25862,20 +25862,20 @@
         <v>39</v>
       </c>
       <c r="K528" s="24" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L528" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M528" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N528" s="25"/>
       <c r="O528" s="25" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P528" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q528" s="19"/>
       <c r="R528" s="14"/>
@@ -25908,20 +25908,20 @@
         <v>41</v>
       </c>
       <c r="K529" s="24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L529" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M529" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N529" s="25"/>
       <c r="O529" s="25" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="P529" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q529" s="19"/>
       <c r="R529" s="14"/>
@@ -25954,27 +25954,27 @@
         <v>39</v>
       </c>
       <c r="K530" s="24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L530" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M530" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N530" s="25"/>
       <c r="O530" s="25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P530" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q530" s="19"/>
       <c r="R530" s="14"/>
       <c r="S530" s="14"/>
       <c r="T530" s="9"/>
       <c r="U530" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V530" s="1"/>
       <c r="W530" s="1"/>
@@ -25986,7 +25986,7 @@
       <c r="A531" s="19"/>
       <c r="B531" s="19"/>
       <c r="C531" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D531" s="19"/>
       <c r="E531" s="22"/>
@@ -26004,7 +26004,7 @@
         <v>34</v>
       </c>
       <c r="K531" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L531" s="19"/>
       <c r="M531" s="19"/>
@@ -26042,7 +26042,7 @@
         <v>34</v>
       </c>
       <c r="K532" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L532" s="19"/>
       <c r="M532" s="19"/>
@@ -26080,7 +26080,7 @@
         <v>39</v>
       </c>
       <c r="K533" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L533" s="19"/>
       <c r="M533" s="19"/>
@@ -26092,7 +26092,7 @@
       <c r="S533" s="14"/>
       <c r="T533" s="9"/>
       <c r="U533" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V533" s="1"/>
       <c r="W533" s="1"/>
@@ -26104,7 +26104,7 @@
       <c r="A534" s="19"/>
       <c r="B534" s="19"/>
       <c r="C534" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D534" s="19"/>
       <c r="E534" s="22"/>
@@ -26122,7 +26122,7 @@
         <v>41</v>
       </c>
       <c r="K534" s="24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L534" s="19"/>
       <c r="M534" s="19"/>
@@ -26160,7 +26160,7 @@
         <v>41</v>
       </c>
       <c r="K535" s="24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L535" s="19"/>
       <c r="M535" s="19"/>
@@ -26198,7 +26198,7 @@
         <v>41</v>
       </c>
       <c r="K536" s="24" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L536" s="19"/>
       <c r="M536" s="19"/>
@@ -26236,7 +26236,7 @@
         <v>41</v>
       </c>
       <c r="K537" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L537" s="19"/>
       <c r="M537" s="19"/>
@@ -26274,7 +26274,7 @@
         <v>41</v>
       </c>
       <c r="K538" s="24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L538" s="19"/>
       <c r="M538" s="19"/>
@@ -26312,7 +26312,7 @@
         <v>41</v>
       </c>
       <c r="K539" s="24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L539" s="19"/>
       <c r="M539" s="19"/>
@@ -26350,7 +26350,7 @@
         <v>34</v>
       </c>
       <c r="K540" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L540" s="19"/>
       <c r="M540" s="19"/>
@@ -26388,7 +26388,7 @@
         <v>41</v>
       </c>
       <c r="K541" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L541" s="19"/>
       <c r="M541" s="19"/>
@@ -26400,7 +26400,7 @@
       <c r="S541" s="14"/>
       <c r="T541" s="9"/>
       <c r="U541" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V541" s="1"/>
       <c r="W541" s="1"/>
@@ -26412,7 +26412,7 @@
       <c r="A542" s="19"/>
       <c r="B542" s="19"/>
       <c r="C542" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D542" s="19"/>
       <c r="E542" s="22"/>
@@ -26430,7 +26430,7 @@
         <v>39</v>
       </c>
       <c r="K542" s="24" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L542" s="19"/>
       <c r="M542" s="19"/>
@@ -26468,7 +26468,7 @@
         <v>39</v>
       </c>
       <c r="K543" s="24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L543" s="19"/>
       <c r="M543" s="19"/>
@@ -26506,7 +26506,7 @@
         <v>41</v>
       </c>
       <c r="K544" s="24" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L544" s="19" t="s">
         <v>60</v>
@@ -26514,21 +26514,21 @@
       <c r="M544" s="19"/>
       <c r="N544" s="25"/>
       <c r="O544" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="P544" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q544" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="P544" s="19" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q544" s="19" t="s">
-        <v>951</v>
-      </c>
       <c r="R544" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S544" s="14"/>
       <c r="T544" s="9"/>
       <c r="U544" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V544" s="1"/>
       <c r="W544" s="1"/>
@@ -26540,7 +26540,7 @@
       <c r="A545" s="19"/>
       <c r="B545" s="19"/>
       <c r="C545" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D545" s="19"/>
       <c r="E545" s="22"/>
@@ -26558,7 +26558,7 @@
         <v>34</v>
       </c>
       <c r="K545" s="24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L545" s="19"/>
       <c r="M545" s="19"/>
@@ -26596,7 +26596,7 @@
         <v>34</v>
       </c>
       <c r="K546" s="24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L546" s="19"/>
       <c r="M546" s="19"/>
@@ -26608,7 +26608,7 @@
       <c r="S546" s="14"/>
       <c r="T546" s="9"/>
       <c r="U546" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V546" s="1"/>
       <c r="W546" s="1"/>
@@ -26620,7 +26620,7 @@
       <c r="A547" s="19"/>
       <c r="B547" s="19"/>
       <c r="C547" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D547" s="19"/>
       <c r="E547" s="22"/>
@@ -26638,7 +26638,7 @@
         <v>41</v>
       </c>
       <c r="K547" s="24" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L547" s="19"/>
       <c r="M547" s="19"/>
@@ -26676,7 +26676,7 @@
         <v>41</v>
       </c>
       <c r="K548" s="24" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L548" s="19"/>
       <c r="M548" s="19"/>
@@ -26714,7 +26714,7 @@
         <v>34</v>
       </c>
       <c r="K549" s="24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L549" s="19"/>
       <c r="M549" s="19"/>
@@ -26752,7 +26752,7 @@
         <v>39</v>
       </c>
       <c r="K550" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L550" s="19"/>
       <c r="M550" s="19"/>
@@ -26764,7 +26764,7 @@
       <c r="S550" s="14"/>
       <c r="T550" s="9"/>
       <c r="U550" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V550" s="1"/>
       <c r="W550" s="1"/>
@@ -26776,7 +26776,7 @@
       <c r="A551" s="19"/>
       <c r="B551" s="19"/>
       <c r="C551" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D551" s="19"/>
       <c r="E551" s="22"/>
@@ -26794,7 +26794,7 @@
         <v>41</v>
       </c>
       <c r="K551" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L551" s="19" t="s">
         <v>60</v>
@@ -26802,21 +26802,21 @@
       <c r="M551" s="19"/>
       <c r="N551" s="25"/>
       <c r="O551" s="25" t="s">
+        <v>962</v>
+      </c>
+      <c r="P551" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q551" s="19" t="s">
         <v>963</v>
       </c>
-      <c r="P551" s="19" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q551" s="19" t="s">
-        <v>964</v>
-      </c>
       <c r="R551" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S551" s="14"/>
       <c r="T551" s="9"/>
       <c r="U551" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V551" s="1"/>
       <c r="W551" s="1"/>
@@ -26828,7 +26828,7 @@
       <c r="A552" s="19"/>
       <c r="B552" s="19"/>
       <c r="C552" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D552" s="19"/>
       <c r="E552" s="22"/>
@@ -26846,7 +26846,7 @@
         <v>34</v>
       </c>
       <c r="K552" s="24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="L552" s="19"/>
       <c r="M552" s="19"/>
@@ -26884,7 +26884,7 @@
         <v>34</v>
       </c>
       <c r="K553" s="24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L553" s="19"/>
       <c r="M553" s="19"/>
@@ -26896,7 +26896,7 @@
       <c r="S553" s="14"/>
       <c r="T553" s="9"/>
       <c r="U553" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V553" s="1"/>
       <c r="W553" s="1"/>
@@ -26908,7 +26908,7 @@
       <c r="A554" s="19"/>
       <c r="B554" s="19"/>
       <c r="C554" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D554" s="19"/>
       <c r="E554" s="22"/>
@@ -26926,7 +26926,7 @@
         <v>41</v>
       </c>
       <c r="K554" s="24" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L554" s="19"/>
       <c r="M554" s="19"/>
@@ -26964,7 +26964,7 @@
         <v>41</v>
       </c>
       <c r="K555" s="24" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L555" s="19"/>
       <c r="M555" s="19"/>
@@ -27002,7 +27002,7 @@
         <v>39</v>
       </c>
       <c r="K556" s="24" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L556" s="19"/>
       <c r="M556" s="19"/>
@@ -27040,7 +27040,7 @@
         <v>41</v>
       </c>
       <c r="K557" s="24" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L557" s="19"/>
       <c r="M557" s="19"/>
@@ -27078,7 +27078,7 @@
         <v>39</v>
       </c>
       <c r="K558" s="24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L558" s="19"/>
       <c r="M558" s="19"/>
@@ -27090,7 +27090,7 @@
       <c r="S558" s="14"/>
       <c r="T558" s="25"/>
       <c r="U558" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V558" s="1"/>
       <c r="W558" s="1"/>
@@ -27102,7 +27102,7 @@
       <c r="A559" s="19"/>
       <c r="B559" s="19"/>
       <c r="C559" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D559" s="19"/>
       <c r="E559" s="22"/>
@@ -27120,7 +27120,7 @@
         <v>39</v>
       </c>
       <c r="K559" s="24" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L559" s="19"/>
       <c r="M559" s="19"/>
@@ -27158,7 +27158,7 @@
         <v>39</v>
       </c>
       <c r="K560" s="24" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L560" s="19"/>
       <c r="M560" s="19"/>
@@ -27191,16 +27191,16 @@
         <v>595</v>
       </c>
       <c r="H561" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="I561" s="19" t="s">
         <v>978</v>
-      </c>
-      <c r="I561" s="19" t="s">
-        <v>979</v>
       </c>
       <c r="J561" s="23" t="s">
         <v>54</v>
       </c>
       <c r="K561" s="24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L561" s="19"/>
       <c r="M561" s="19"/>
@@ -27238,7 +27238,7 @@
         <v>39</v>
       </c>
       <c r="K562" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L562" s="19"/>
       <c r="M562" s="19"/>
@@ -27269,16 +27269,16 @@
         <v>595</v>
       </c>
       <c r="H563" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="I563" s="19" t="s">
         <v>978</v>
-      </c>
-      <c r="I563" s="19" t="s">
-        <v>979</v>
       </c>
       <c r="J563" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K563" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L563" s="19"/>
       <c r="M563" s="19"/>
@@ -27316,7 +27316,7 @@
         <v>34</v>
       </c>
       <c r="K564" s="24" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L564" s="19"/>
       <c r="M564" s="19"/>
@@ -27347,16 +27347,16 @@
         <v>595</v>
       </c>
       <c r="H565" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="I565" s="19" t="s">
         <v>978</v>
-      </c>
-      <c r="I565" s="19" t="s">
-        <v>979</v>
       </c>
       <c r="J565" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K565" s="24" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L565" s="19"/>
       <c r="M565" s="19"/>
@@ -27394,7 +27394,7 @@
         <v>34</v>
       </c>
       <c r="K566" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L566" s="19"/>
       <c r="M566" s="19"/>
@@ -27434,7 +27434,7 @@
         <v>34</v>
       </c>
       <c r="K567" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L567" s="19"/>
       <c r="M567" s="19"/>
@@ -27472,7 +27472,7 @@
         <v>34</v>
       </c>
       <c r="K568" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L568" s="19"/>
       <c r="M568" s="19"/>
@@ -27510,7 +27510,7 @@
         <v>39</v>
       </c>
       <c r="K569" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L569" s="19"/>
       <c r="M569" s="19"/>
@@ -27548,7 +27548,7 @@
         <v>39</v>
       </c>
       <c r="K570" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L570" s="19"/>
       <c r="M570" s="19"/>
@@ -27586,7 +27586,7 @@
         <v>34</v>
       </c>
       <c r="K571" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L571" s="19"/>
       <c r="M571" s="19"/>
@@ -27600,7 +27600,7 @@
       </c>
       <c r="T571" s="25"/>
       <c r="U571" s="25" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V571" s="1"/>
       <c r="W571" s="1"/>
@@ -27612,10 +27612,10 @@
       <c r="A572" s="19"/>
       <c r="B572" s="19"/>
       <c r="C572" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="D572" s="19" t="s">
         <v>991</v>
-      </c>
-      <c r="D572" s="19" t="s">
-        <v>992</v>
       </c>
       <c r="E572" s="22"/>
       <c r="F572" s="22" t="s">
@@ -27632,15 +27632,15 @@
         <v>39</v>
       </c>
       <c r="K572" s="24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L572" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M572" s="19"/>
       <c r="N572" s="25"/>
       <c r="O572" s="25" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="P572" s="19"/>
       <c r="Q572" s="19"/>
@@ -27658,7 +27658,7 @@
       <c r="A573" s="19"/>
       <c r="B573" s="19"/>
       <c r="C573" s="19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D573" s="19"/>
       <c r="E573" s="22"/>
@@ -27676,26 +27676,26 @@
         <v>41</v>
       </c>
       <c r="K573" s="24" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L573" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M573" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="N573" s="25"/>
       <c r="O573" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="P573" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q573" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="P573" s="19" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q573" s="19" t="s">
-        <v>999</v>
-      </c>
       <c r="R573" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S573" s="14"/>
       <c r="T573" s="25"/>
@@ -27726,20 +27726,20 @@
         <v>39</v>
       </c>
       <c r="K574" s="24" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L574" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M574" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="N574" s="25"/>
       <c r="O574" s="25" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P574" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q574" s="19"/>
       <c r="R574" s="14"/>
@@ -27772,20 +27772,20 @@
         <v>41</v>
       </c>
       <c r="K575" s="24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L575" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M575" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="N575" s="25"/>
       <c r="O575" s="25" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P575" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q575" s="19"/>
       <c r="R575" s="14"/>
@@ -27818,27 +27818,27 @@
         <v>39</v>
       </c>
       <c r="K576" s="24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L576" s="19" t="s">
         <v>60</v>
       </c>
       <c r="M576" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="N576" s="25"/>
       <c r="O576" s="25" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="P576" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q576" s="19"/>
       <c r="R576" s="14"/>
       <c r="S576" s="14"/>
       <c r="T576" s="25"/>
       <c r="U576" s="25" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V576" s="1"/>
       <c r="W576" s="1"/>
@@ -27850,7 +27850,7 @@
       <c r="A577" s="19"/>
       <c r="B577" s="19"/>
       <c r="C577" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D577" s="19"/>
       <c r="E577" s="22"/>
@@ -27868,7 +27868,7 @@
         <v>34</v>
       </c>
       <c r="K577" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L577" s="19"/>
       <c r="M577" s="19"/>
@@ -27906,7 +27906,7 @@
         <v>34</v>
       </c>
       <c r="K578" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L578" s="19"/>
       <c r="M578" s="19"/>
@@ -27944,7 +27944,7 @@
         <v>34</v>
       </c>
       <c r="K579" s="24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L579" s="19"/>
       <c r="M579" s="19"/>
@@ -27956,7 +27956,7 @@
       <c r="S579" s="14"/>
       <c r="T579" s="25"/>
       <c r="U579" s="25" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V579" s="1"/>
       <c r="W579" s="1"/>
@@ -27968,7 +27968,7 @@
       <c r="A580" s="19"/>
       <c r="B580" s="19"/>
       <c r="C580" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D580" s="19"/>
       <c r="E580" s="22"/>
@@ -27986,7 +27986,7 @@
         <v>41</v>
       </c>
       <c r="K580" s="24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L580" s="19"/>
       <c r="M580" s="19"/>
@@ -28024,7 +28024,7 @@
         <v>41</v>
       </c>
       <c r="K581" s="24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L581" s="19"/>
       <c r="M581" s="19"/>
@@ -28062,7 +28062,7 @@
         <v>41</v>
       </c>
       <c r="K582" s="24" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L582" s="19"/>
       <c r="M582" s="19"/>
@@ -28100,7 +28100,7 @@
         <v>41</v>
       </c>
       <c r="K583" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L583" s="19"/>
       <c r="M583" s="19"/>
@@ -28138,7 +28138,7 @@
         <v>41</v>
       </c>
       <c r="K584" s="24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L584" s="19"/>
       <c r="M584" s="19"/>
@@ -28176,7 +28176,7 @@
         <v>41</v>
       </c>
       <c r="K585" s="24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L585" s="19"/>
       <c r="M585" s="19"/>
@@ -28214,7 +28214,7 @@
         <v>34</v>
       </c>
       <c r="K586" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L586" s="19"/>
       <c r="M586" s="19"/>
@@ -28252,7 +28252,7 @@
         <v>39</v>
       </c>
       <c r="K587" s="24" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L587" s="19"/>
       <c r="M587" s="19"/>
@@ -28264,7 +28264,7 @@
       <c r="S587" s="19"/>
       <c r="T587" s="25"/>
       <c r="U587" s="25" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V587" s="1"/>
       <c r="W587" s="1"/>
@@ -28276,7 +28276,7 @@
       <c r="A588" s="19"/>
       <c r="B588" s="19"/>
       <c r="C588" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D588" s="19"/>
       <c r="E588" s="22"/>
@@ -28294,7 +28294,7 @@
         <v>41</v>
       </c>
       <c r="K588" s="24" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L588" s="19"/>
       <c r="M588" s="19"/>
@@ -28332,7 +28332,7 @@
         <v>41</v>
       </c>
       <c r="K589" s="24" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L589" s="19" t="s">
         <v>60</v>
@@ -28340,21 +28340,21 @@
       <c r="M589" s="19"/>
       <c r="N589" s="25"/>
       <c r="O589" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P589" s="19" t="s">
         <v>1016</v>
       </c>
-      <c r="P589" s="19" t="s">
+      <c r="Q589" s="19" t="s">
         <v>1017</v>
       </c>
-      <c r="Q589" s="19" t="s">
-        <v>1018</v>
-      </c>
       <c r="R589" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="S589" s="19"/>
       <c r="T589" s="25"/>
       <c r="U589" s="25" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V589" s="1"/>
       <c r="W589" s="1"/>
@@ -28366,7 +28366,7 @@
       <c r="A590" s="19"/>
       <c r="B590" s="19"/>
       <c r="C590" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D590" s="19"/>
       <c r="E590" s="22"/>
@@ -28384,7 +28384,7 @@
         <v>34</v>
       </c>
       <c r="K590" s="24" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L590" s="19"/>
       <c r="M590" s="19"/>
@@ -28422,7 +28422,7 @@
         <v>34</v>
       </c>
       <c r="K591" s="24" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L591" s="19"/>
       <c r="M591" s="19"/>
@@ -28434,7 +28434,7 @@
       <c r="S591" s="19"/>
       <c r="T591" s="25"/>
       <c r="U591" s="25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="V591" s="1"/>
       <c r="W591" s="1"/>
@@ -28446,7 +28446,7 @@
       <c r="A592" s="19"/>
       <c r="B592" s="19"/>
       <c r="C592" s="19" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D592" s="19"/>
       <c r="E592" s="22"/>
@@ -28464,7 +28464,7 @@
         <v>41</v>
       </c>
       <c r="K592" s="24" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L592" s="19"/>
       <c r="M592" s="19"/>
@@ -28502,7 +28502,7 @@
         <v>41</v>
       </c>
       <c r="K593" s="24" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="L593" s="19"/>
       <c r="M593" s="19"/>
@@ -28540,7 +28540,7 @@
         <v>34</v>
       </c>
       <c r="K594" s="24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L594" s="19"/>
       <c r="M594" s="19"/>
@@ -28578,7 +28578,7 @@
         <v>39</v>
       </c>
       <c r="K595" s="24" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L595" s="19"/>
       <c r="M595" s="19"/>
@@ -28590,7 +28590,7 @@
       <c r="S595" s="19"/>
       <c r="T595" s="25"/>
       <c r="U595" s="25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="V595" s="1"/>
       <c r="W595" s="1"/>
@@ -28602,7 +28602,7 @@
       <c r="A596" s="19"/>
       <c r="B596" s="19"/>
       <c r="C596" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D596" s="19"/>
       <c r="E596" s="22"/>
@@ -28620,7 +28620,7 @@
         <v>39</v>
       </c>
       <c r="K596" s="24" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L596" s="19"/>
       <c r="M596" s="19"/>
@@ -28658,7 +28658,7 @@
         <v>39</v>
       </c>
       <c r="K597" s="24" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L597" s="19"/>
       <c r="M597" s="19"/>
@@ -28691,16 +28691,16 @@
         <v>595</v>
       </c>
       <c r="H598" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I598" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J598" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K598" s="24" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L598" s="19"/>
       <c r="M598" s="19"/>
@@ -28738,7 +28738,7 @@
         <v>39</v>
       </c>
       <c r="K599" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L599" s="19"/>
       <c r="M599" s="19"/>
@@ -28769,16 +28769,16 @@
         <v>595</v>
       </c>
       <c r="H600" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I600" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J600" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K600" s="24" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L600" s="19"/>
       <c r="M600" s="19"/>
@@ -28816,14 +28816,14 @@
         <v>39</v>
       </c>
       <c r="K601" s="24" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L601" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M601" s="19"/>
       <c r="N601" s="25" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O601" s="25"/>
       <c r="P601" s="19"/>
@@ -28851,16 +28851,16 @@
         <v>595</v>
       </c>
       <c r="H602" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I602" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J602" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K602" s="24" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L602" s="19"/>
       <c r="M602" s="19"/>
@@ -28898,7 +28898,7 @@
         <v>34</v>
       </c>
       <c r="K603" s="24" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L603" s="19"/>
       <c r="M603" s="19"/>
@@ -28929,16 +28929,16 @@
         <v>595</v>
       </c>
       <c r="H604" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I604" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J604" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K604" s="24" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L604" s="19"/>
       <c r="M604" s="19"/>
@@ -28969,16 +28969,16 @@
         <v>595</v>
       </c>
       <c r="H605" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I605" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J605" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K605" s="24" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L605" s="19"/>
       <c r="M605" s="19"/>
@@ -29016,7 +29016,7 @@
         <v>34</v>
       </c>
       <c r="K606" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L606" s="19"/>
       <c r="M606" s="19"/>
@@ -29056,7 +29056,7 @@
         <v>34</v>
       </c>
       <c r="K607" s="24" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L607" s="19"/>
       <c r="M607" s="19"/>
@@ -29094,7 +29094,7 @@
         <v>34</v>
       </c>
       <c r="K608" s="24" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L608" s="19"/>
       <c r="M608" s="19"/>
@@ -29106,7 +29106,7 @@
       <c r="S608" s="19"/>
       <c r="T608" s="25"/>
       <c r="U608" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V608" s="1"/>
       <c r="W608" s="1"/>
@@ -29118,7 +29118,7 @@
       <c r="A609" s="19"/>
       <c r="B609" s="19"/>
       <c r="C609" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D609" s="19"/>
       <c r="E609" s="22"/>
@@ -29136,7 +29136,7 @@
         <v>39</v>
       </c>
       <c r="K609" s="24" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L609" s="19"/>
       <c r="M609" s="19"/>
@@ -29174,7 +29174,7 @@
         <v>41</v>
       </c>
       <c r="K610" s="24" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L610" s="19"/>
       <c r="M610" s="19"/>
@@ -29185,7 +29185,7 @@
       <c r="R610" s="19"/>
       <c r="S610" s="19"/>
       <c r="T610" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="U610" s="9"/>
       <c r="V610" s="1"/>
@@ -29198,7 +29198,7 @@
       <c r="A611" s="19"/>
       <c r="B611" s="19"/>
       <c r="C611" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D611" s="19"/>
       <c r="E611" s="22"/>
@@ -29216,7 +29216,7 @@
         <v>34</v>
       </c>
       <c r="K611" s="24" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L611" s="19"/>
       <c r="M611" s="19"/>
@@ -29254,7 +29254,7 @@
         <v>34</v>
       </c>
       <c r="K612" s="24" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L612" s="19"/>
       <c r="M612" s="19"/>
@@ -29266,7 +29266,7 @@
       <c r="S612" s="19"/>
       <c r="T612" s="25"/>
       <c r="U612" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V612" s="1"/>
       <c r="W612" s="1"/>
@@ -29278,7 +29278,7 @@
       <c r="A613" s="19"/>
       <c r="B613" s="19"/>
       <c r="C613" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D613" s="19"/>
       <c r="E613" s="22"/>
@@ -29296,7 +29296,7 @@
         <v>39</v>
       </c>
       <c r="K613" s="24" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L613" s="19"/>
       <c r="M613" s="19"/>
@@ -29334,7 +29334,7 @@
         <v>34</v>
       </c>
       <c r="K614" s="24" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L614" s="19"/>
       <c r="M614" s="19"/>
@@ -29346,7 +29346,7 @@
       <c r="S614" s="19"/>
       <c r="T614" s="25"/>
       <c r="U614" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V614" s="1"/>
       <c r="W614" s="1"/>
@@ -29358,7 +29358,7 @@
       <c r="A615" s="19"/>
       <c r="B615" s="19"/>
       <c r="C615" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D615" s="19"/>
       <c r="E615" s="22"/>
@@ -29376,7 +29376,7 @@
         <v>174</v>
       </c>
       <c r="K615" s="24" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L615" s="19"/>
       <c r="M615" s="19"/>
@@ -29426,7 +29426,7 @@
       <c r="S616" s="19"/>
       <c r="T616" s="25"/>
       <c r="U616" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V616" s="1"/>
       <c r="W616" s="1"/>
@@ -29438,7 +29438,7 @@
       <c r="A617" s="19"/>
       <c r="B617" s="19"/>
       <c r="C617" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D617" s="19"/>
       <c r="E617" s="22"/>
@@ -29456,7 +29456,7 @@
         <v>39</v>
       </c>
       <c r="K617" s="24" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L617" s="19"/>
       <c r="M617" s="19"/>
@@ -29494,7 +29494,7 @@
         <v>34</v>
       </c>
       <c r="K618" s="24" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L618" s="19"/>
       <c r="M618" s="19"/>
@@ -29506,7 +29506,7 @@
       <c r="S618" s="19"/>
       <c r="T618" s="25"/>
       <c r="U618" s="25" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V618" s="1"/>
       <c r="W618" s="1"/>
@@ -29518,7 +29518,7 @@
       <c r="A619" s="19"/>
       <c r="B619" s="19"/>
       <c r="C619" s="19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D619" s="19" t="s">
         <v>185</v>
@@ -29527,7 +29527,7 @@
         <v>186</v>
       </c>
       <c r="F619" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G619" s="19" t="s">
         <v>376</v>
@@ -29536,7 +29536,7 @@
       <c r="I619" s="23"/>
       <c r="J619" s="23"/>
       <c r="K619" s="24" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L619" s="19"/>
       <c r="M619" s="19"/>
@@ -29548,7 +29548,7 @@
       <c r="S619" s="19"/>
       <c r="T619" s="25"/>
       <c r="U619" s="25" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V619" s="1"/>
       <c r="W619" s="1"/>
@@ -29560,14 +29560,14 @@
       <c r="A620" s="19"/>
       <c r="B620" s="19"/>
       <c r="C620" s="19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D620" s="19" t="s">
         <v>1059</v>
-      </c>
-      <c r="D620" s="19" t="s">
-        <v>1060</v>
       </c>
       <c r="E620" s="22"/>
       <c r="F620" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G620" s="19" t="s">
         <v>376</v>
@@ -29580,7 +29580,7 @@
         <v>39</v>
       </c>
       <c r="K620" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="L620" s="19" t="s">
         <v>60</v>
@@ -29588,7 +29588,7 @@
       <c r="M620" s="19"/>
       <c r="N620" s="25"/>
       <c r="O620" s="25" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="P620" s="19"/>
       <c r="Q620" s="19"/>
@@ -29609,7 +29609,7 @@
       <c r="D621" s="19"/>
       <c r="E621" s="22"/>
       <c r="F621" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G621" s="19" t="s">
         <v>376</v>
@@ -29622,7 +29622,7 @@
         <v>34</v>
       </c>
       <c r="K621" s="24" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="L621" s="19"/>
       <c r="M621" s="19"/>
@@ -29647,7 +29647,7 @@
       <c r="D622" s="19"/>
       <c r="E622" s="22"/>
       <c r="F622" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G622" s="19" t="s">
         <v>376</v>
@@ -29660,7 +29660,7 @@
         <v>39</v>
       </c>
       <c r="K622" s="24" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="L622" s="19"/>
       <c r="M622" s="19"/>
@@ -29685,7 +29685,7 @@
       <c r="D623" s="19"/>
       <c r="E623" s="22"/>
       <c r="F623" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G623" s="19" t="s">
         <v>376</v>
@@ -29698,7 +29698,7 @@
         <v>34</v>
       </c>
       <c r="K623" s="24" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="L623" s="19"/>
       <c r="M623" s="19"/>
@@ -29723,7 +29723,7 @@
       <c r="D624" s="19"/>
       <c r="E624" s="22"/>
       <c r="F624" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G624" s="19" t="s">
         <v>376</v>
@@ -29736,7 +29736,7 @@
         <v>39</v>
       </c>
       <c r="K624" s="24" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="L624" s="19"/>
       <c r="M624" s="19"/>
@@ -29761,7 +29761,7 @@
       <c r="D625" s="19"/>
       <c r="E625" s="22"/>
       <c r="F625" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G625" s="19" t="s">
         <v>376</v>
@@ -29774,7 +29774,7 @@
         <v>54</v>
       </c>
       <c r="K625" s="24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L625" s="19"/>
       <c r="M625" s="19"/>
@@ -29799,7 +29799,7 @@
       <c r="D626" s="19"/>
       <c r="E626" s="22"/>
       <c r="F626" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G626" s="19" t="s">
         <v>376</v>
@@ -29812,7 +29812,7 @@
         <v>39</v>
       </c>
       <c r="K626" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="L626" s="19"/>
       <c r="M626" s="19"/>
@@ -29837,7 +29837,7 @@
       <c r="D627" s="19"/>
       <c r="E627" s="22"/>
       <c r="F627" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G627" s="19" t="s">
         <v>376</v>
@@ -29850,7 +29850,7 @@
         <v>39</v>
       </c>
       <c r="K627" s="24" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="L627" s="19"/>
       <c r="M627" s="19"/>
@@ -29875,7 +29875,7 @@
       <c r="D628" s="19"/>
       <c r="E628" s="22"/>
       <c r="F628" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G628" s="19" t="s">
         <v>376</v>
@@ -29888,7 +29888,7 @@
         <v>39</v>
       </c>
       <c r="K628" s="24" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L628" s="19"/>
       <c r="M628" s="19"/>
@@ -29913,7 +29913,7 @@
       <c r="D629" s="19"/>
       <c r="E629" s="22"/>
       <c r="F629" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G629" s="19" t="s">
         <v>376</v>
@@ -29926,7 +29926,7 @@
         <v>41</v>
       </c>
       <c r="K629" s="24" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L629" s="19"/>
       <c r="M629" s="19"/>
@@ -29938,7 +29938,7 @@
       <c r="S629" s="14"/>
       <c r="T629" s="9"/>
       <c r="U629" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V629" s="1"/>
       <c r="W629" s="1"/>
@@ -29950,12 +29950,12 @@
       <c r="A630" s="19"/>
       <c r="B630" s="19"/>
       <c r="C630" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D630" s="19"/>
       <c r="E630" s="22"/>
       <c r="F630" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G630" s="19" t="s">
         <v>383</v>
@@ -29968,7 +29968,7 @@
         <v>34</v>
       </c>
       <c r="K630" s="24" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="L630" s="19" t="s">
         <v>60</v>
@@ -29976,7 +29976,7 @@
       <c r="M630" s="19"/>
       <c r="N630" s="25"/>
       <c r="O630" s="25" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="P630" s="19"/>
       <c r="Q630" s="19"/>
@@ -29997,7 +29997,7 @@
       <c r="D631" s="19"/>
       <c r="E631" s="22"/>
       <c r="F631" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G631" s="19" t="s">
         <v>383</v>
@@ -30010,7 +30010,7 @@
         <v>34</v>
       </c>
       <c r="K631" s="24" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="L631" s="19"/>
       <c r="M631" s="19"/>
@@ -30035,7 +30035,7 @@
       <c r="D632" s="19"/>
       <c r="E632" s="22"/>
       <c r="F632" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G632" s="19" t="s">
         <v>383</v>
@@ -30048,7 +30048,7 @@
         <v>39</v>
       </c>
       <c r="K632" s="24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="L632" s="19"/>
       <c r="M632" s="19"/>
@@ -30073,7 +30073,7 @@
       <c r="D633" s="19"/>
       <c r="E633" s="22"/>
       <c r="F633" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G633" s="19" t="s">
         <v>383</v>
@@ -30086,7 +30086,7 @@
         <v>41</v>
       </c>
       <c r="K633" s="24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="L633" s="19"/>
       <c r="M633" s="19"/>
@@ -30111,7 +30111,7 @@
       <c r="D634" s="19"/>
       <c r="E634" s="22"/>
       <c r="F634" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G634" s="19" t="s">
         <v>383</v>
@@ -30124,7 +30124,7 @@
         <v>39</v>
       </c>
       <c r="K634" s="24" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="L634" s="19"/>
       <c r="M634" s="19"/>
@@ -30149,7 +30149,7 @@
       <c r="D635" s="19"/>
       <c r="E635" s="22"/>
       <c r="F635" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G635" s="19" t="s">
         <v>383</v>
@@ -30162,7 +30162,7 @@
         <v>221</v>
       </c>
       <c r="K635" s="24" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L635" s="19"/>
       <c r="M635" s="19"/>
@@ -30187,7 +30187,7 @@
       <c r="D636" s="19"/>
       <c r="E636" s="22"/>
       <c r="F636" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G636" s="19" t="s">
         <v>383</v>
@@ -30200,7 +30200,7 @@
         <v>34</v>
       </c>
       <c r="K636" s="24" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="L636" s="19"/>
       <c r="M636" s="19"/>
@@ -30225,7 +30225,7 @@
       <c r="D637" s="19"/>
       <c r="E637" s="22"/>
       <c r="F637" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G637" s="19" t="s">
         <v>383</v>
@@ -30238,7 +30238,7 @@
         <v>174</v>
       </c>
       <c r="K637" s="24" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L637" s="19"/>
       <c r="M637" s="19"/>
@@ -30263,7 +30263,7 @@
       <c r="D638" s="19"/>
       <c r="E638" s="22"/>
       <c r="F638" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G638" s="19" t="s">
         <v>383</v>
@@ -30276,7 +30276,7 @@
         <v>34</v>
       </c>
       <c r="K638" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="L638" s="19"/>
       <c r="M638" s="19"/>
@@ -30288,7 +30288,7 @@
       <c r="S638" s="14"/>
       <c r="T638" s="9"/>
       <c r="U638" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="V638" s="1"/>
       <c r="W638" s="1"/>
@@ -30300,12 +30300,12 @@
       <c r="A639" s="19"/>
       <c r="B639" s="19"/>
       <c r="C639" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D639" s="19"/>
       <c r="E639" s="22"/>
       <c r="F639" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G639" s="19" t="s">
         <v>332</v>
@@ -30318,7 +30318,7 @@
         <v>54</v>
       </c>
       <c r="K639" s="24" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L639" s="19"/>
       <c r="M639" s="19"/>
@@ -30345,7 +30345,7 @@
       <c r="D640" s="19"/>
       <c r="E640" s="22"/>
       <c r="F640" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G640" s="19" t="s">
         <v>332</v>
@@ -30358,7 +30358,7 @@
         <v>39</v>
       </c>
       <c r="K640" s="24" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="L640" s="19"/>
       <c r="M640" s="19"/>
@@ -30383,13 +30383,13 @@
       <c r="D641" s="19"/>
       <c r="E641" s="22"/>
       <c r="F641" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G641" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H641" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I641" s="19" t="s">
         <v>196</v>
@@ -30398,7 +30398,7 @@
         <v>39</v>
       </c>
       <c r="K641" s="24" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="L641" s="19"/>
       <c r="M641" s="19"/>
@@ -30423,7 +30423,7 @@
       <c r="D642" s="19"/>
       <c r="E642" s="22"/>
       <c r="F642" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G642" s="19" t="s">
         <v>332</v>
@@ -30436,7 +30436,7 @@
         <v>54</v>
       </c>
       <c r="K642" s="24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="L642" s="19"/>
       <c r="M642" s="19"/>
@@ -30461,7 +30461,7 @@
       <c r="D643" s="19"/>
       <c r="E643" s="22"/>
       <c r="F643" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G643" s="19" t="s">
         <v>332</v>
@@ -30474,7 +30474,7 @@
         <v>41</v>
       </c>
       <c r="K643" s="55" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="L643" s="19"/>
       <c r="M643" s="19"/>
@@ -30499,7 +30499,7 @@
       <c r="D644" s="19"/>
       <c r="E644" s="22"/>
       <c r="F644" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G644" s="19" t="s">
         <v>332</v>
@@ -30512,7 +30512,7 @@
         <v>39</v>
       </c>
       <c r="K644" s="24" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="L644" s="19"/>
       <c r="M644" s="19"/>
@@ -30537,13 +30537,13 @@
       <c r="D645" s="19"/>
       <c r="E645" s="22"/>
       <c r="F645" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G645" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H645" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I645" s="19" t="s">
         <v>196</v>
@@ -30552,7 +30552,7 @@
         <v>221</v>
       </c>
       <c r="K645" s="24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L645" s="19"/>
       <c r="M645" s="19"/>
@@ -30577,13 +30577,13 @@
       <c r="D646" s="19"/>
       <c r="E646" s="22"/>
       <c r="F646" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G646" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H646" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I646" s="19" t="s">
         <v>196</v>
@@ -30592,7 +30592,7 @@
         <v>221</v>
       </c>
       <c r="K646" s="24" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="L646" s="19"/>
       <c r="M646" s="19"/>
@@ -30617,7 +30617,7 @@
       <c r="D647" s="19"/>
       <c r="E647" s="22"/>
       <c r="F647" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G647" s="19" t="s">
         <v>332</v>
@@ -30630,7 +30630,7 @@
         <v>221</v>
       </c>
       <c r="K647" s="24" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="L647" s="19"/>
       <c r="M647" s="19"/>
@@ -30655,13 +30655,13 @@
       <c r="D648" s="19"/>
       <c r="E648" s="22"/>
       <c r="F648" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G648" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H648" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I648" s="19" t="s">
         <v>196</v>
@@ -30670,7 +30670,7 @@
         <v>221</v>
       </c>
       <c r="K648" s="24" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L648" s="19"/>
       <c r="M648" s="19"/>
@@ -30695,13 +30695,13 @@
       <c r="D649" s="19"/>
       <c r="E649" s="22"/>
       <c r="F649" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G649" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H649" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I649" s="19" t="s">
         <v>196</v>
@@ -30710,7 +30710,7 @@
         <v>221</v>
       </c>
       <c r="K649" s="24" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="L649" s="19"/>
       <c r="M649" s="19"/>
@@ -30735,13 +30735,13 @@
       <c r="D650" s="19"/>
       <c r="E650" s="22"/>
       <c r="F650" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G650" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H650" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I650" s="19" t="s">
         <v>196</v>
@@ -30750,7 +30750,7 @@
         <v>221</v>
       </c>
       <c r="K650" s="24" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L650" s="19"/>
       <c r="M650" s="19"/>
@@ -30775,13 +30775,13 @@
       <c r="D651" s="19"/>
       <c r="E651" s="22"/>
       <c r="F651" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G651" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H651" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I651" s="19" t="s">
         <v>196</v>
@@ -30790,7 +30790,7 @@
         <v>221</v>
       </c>
       <c r="K651" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L651" s="19"/>
       <c r="M651" s="19"/>
@@ -30815,7 +30815,7 @@
       <c r="D652" s="19"/>
       <c r="E652" s="22"/>
       <c r="F652" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G652" s="19" t="s">
         <v>332</v>
@@ -30828,7 +30828,7 @@
         <v>221</v>
       </c>
       <c r="K652" s="24" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L652" s="19"/>
       <c r="M652" s="19"/>
@@ -30853,13 +30853,13 @@
       <c r="D653" s="19"/>
       <c r="E653" s="22"/>
       <c r="F653" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G653" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H653" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I653" s="19" t="s">
         <v>196</v>
@@ -30868,7 +30868,7 @@
         <v>221</v>
       </c>
       <c r="K653" s="24" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L653" s="19"/>
       <c r="M653" s="19"/>
@@ -30893,7 +30893,7 @@
       <c r="D654" s="19"/>
       <c r="E654" s="22"/>
       <c r="F654" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G654" s="19" t="s">
         <v>332</v>
@@ -30906,7 +30906,7 @@
         <v>34</v>
       </c>
       <c r="K654" s="24" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="L654" s="19"/>
       <c r="M654" s="19"/>
@@ -30931,7 +30931,7 @@
       <c r="D655" s="19"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G655" s="19" t="s">
         <v>332</v>
@@ -30944,14 +30944,14 @@
         <v>34</v>
       </c>
       <c r="K655" s="24" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L655" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M655" s="19"/>
       <c r="N655" s="25" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O655" s="25"/>
       <c r="P655" s="19"/>
@@ -30973,13 +30973,13 @@
       <c r="D656" s="19"/>
       <c r="E656" s="22"/>
       <c r="F656" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G656" s="19" t="s">
         <v>332</v>
       </c>
       <c r="H656" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I656" s="19" t="s">
         <v>196</v>
@@ -30988,7 +30988,7 @@
         <v>703</v>
       </c>
       <c r="K656" s="24" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L656" s="19"/>
       <c r="M656" s="19"/>
@@ -30998,7 +30998,7 @@
       <c r="Q656" s="19"/>
       <c r="R656" s="14"/>
       <c r="S656" s="14" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="T656" s="9"/>
       <c r="U656" s="9"/>
@@ -31015,7 +31015,7 @@
       <c r="D657" s="19"/>
       <c r="E657" s="22"/>
       <c r="F657" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G657" s="19" t="s">
         <v>332</v>
@@ -31028,7 +31028,7 @@
         <v>39</v>
       </c>
       <c r="K657" s="24" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="L657" s="19"/>
       <c r="M657" s="19"/>
@@ -31053,7 +31053,7 @@
       <c r="D658" s="19"/>
       <c r="E658" s="22"/>
       <c r="F658" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G658" s="19" t="s">
         <v>332</v>
@@ -31066,7 +31066,7 @@
         <v>54</v>
       </c>
       <c r="K658" s="24" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="L658" s="19"/>
       <c r="M658" s="19"/>
@@ -31091,7 +31091,7 @@
       <c r="D659" s="19"/>
       <c r="E659" s="22"/>
       <c r="F659" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G659" s="19" t="s">
         <v>332</v>
@@ -31104,7 +31104,7 @@
         <v>54</v>
       </c>
       <c r="K659" s="24" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="L659" s="19" t="s">
         <v>60</v>
@@ -31112,7 +31112,7 @@
       <c r="M659" s="19"/>
       <c r="N659" s="25"/>
       <c r="O659" s="25" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="P659" s="19"/>
       <c r="Q659" s="19"/>
@@ -31120,7 +31120,7 @@
       <c r="S659" s="14"/>
       <c r="T659" s="9"/>
       <c r="U659" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V659" s="1"/>
       <c r="W659" s="1"/>
@@ -31132,12 +31132,12 @@
       <c r="A660" s="19"/>
       <c r="B660" s="19"/>
       <c r="C660" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D660" s="19"/>
       <c r="E660" s="22"/>
       <c r="F660" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G660" s="19" t="s">
         <v>332</v>
@@ -31152,7 +31152,7 @@
         <v>34</v>
       </c>
       <c r="K660" s="24" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="L660" s="19"/>
       <c r="M660" s="19"/>
@@ -31179,7 +31179,7 @@
       <c r="D661" s="19"/>
       <c r="E661" s="22"/>
       <c r="F661" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G661" s="19" t="s">
         <v>332</v>
@@ -31194,7 +31194,7 @@
         <v>39</v>
       </c>
       <c r="K661" s="24" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L661" s="19"/>
       <c r="M661" s="19"/>
@@ -31219,7 +31219,7 @@
       <c r="D662" s="19"/>
       <c r="E662" s="22"/>
       <c r="F662" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G662" s="19" t="s">
         <v>332</v>
@@ -31234,7 +31234,7 @@
         <v>34</v>
       </c>
       <c r="K662" s="24" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L662" s="19"/>
       <c r="M662" s="19"/>
@@ -31259,7 +31259,7 @@
       <c r="D663" s="19"/>
       <c r="E663" s="22"/>
       <c r="F663" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G663" s="19" t="s">
         <v>332</v>
@@ -31274,7 +31274,7 @@
         <v>54</v>
       </c>
       <c r="K663" s="24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="L663" s="19"/>
       <c r="M663" s="19"/>
@@ -31299,7 +31299,7 @@
       <c r="D664" s="19"/>
       <c r="E664" s="22"/>
       <c r="F664" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G664" s="19" t="s">
         <v>332</v>
@@ -31314,7 +31314,7 @@
         <v>39</v>
       </c>
       <c r="K664" s="24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="L664" s="19"/>
       <c r="M664" s="19"/>
@@ -31339,7 +31339,7 @@
       <c r="D665" s="19"/>
       <c r="E665" s="22"/>
       <c r="F665" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G665" s="19" t="s">
         <v>332</v>
@@ -31354,7 +31354,7 @@
         <v>34</v>
       </c>
       <c r="K665" s="24" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="L665" s="19"/>
       <c r="M665" s="19"/>
@@ -31379,7 +31379,7 @@
       <c r="D666" s="19"/>
       <c r="E666" s="22"/>
       <c r="F666" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G666" s="19" t="s">
         <v>332</v>
@@ -31392,7 +31392,7 @@
         <v>54</v>
       </c>
       <c r="K666" s="24" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="L666" s="19"/>
       <c r="M666" s="19"/>
@@ -31417,7 +31417,7 @@
       <c r="D667" s="19"/>
       <c r="E667" s="22"/>
       <c r="F667" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G667" s="19" t="s">
         <v>332</v>
@@ -31432,7 +31432,7 @@
         <v>747</v>
       </c>
       <c r="K667" s="24" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="L667" s="19"/>
       <c r="M667" s="19"/>
@@ -31457,7 +31457,7 @@
       <c r="D668" s="19"/>
       <c r="E668" s="22"/>
       <c r="F668" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G668" s="19" t="s">
         <v>332</v>
@@ -31472,7 +31472,7 @@
         <v>39</v>
       </c>
       <c r="K668" s="24" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="L668" s="19" t="s">
         <v>60</v>
@@ -31480,7 +31480,7 @@
       <c r="M668" s="19"/>
       <c r="N668" s="25"/>
       <c r="O668" s="25" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="P668" s="19"/>
       <c r="Q668" s="19"/>
@@ -31501,7 +31501,7 @@
       <c r="D669" s="19"/>
       <c r="E669" s="22"/>
       <c r="F669" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G669" s="19" t="s">
         <v>332</v>
@@ -31516,7 +31516,7 @@
         <v>39</v>
       </c>
       <c r="K669" s="24" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="L669" s="19"/>
       <c r="M669" s="19"/>
@@ -31541,7 +31541,7 @@
       <c r="D670" s="19"/>
       <c r="E670" s="22"/>
       <c r="F670" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G670" s="19" t="s">
         <v>332</v>
@@ -31556,7 +31556,7 @@
         <v>34</v>
       </c>
       <c r="K670" s="24" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L670" s="19" t="s">
         <v>60</v>
@@ -31564,7 +31564,7 @@
       <c r="M670" s="19"/>
       <c r="N670" s="25"/>
       <c r="O670" s="25" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="P670" s="19"/>
       <c r="Q670" s="19"/>
@@ -31585,7 +31585,7 @@
       <c r="D671" s="19"/>
       <c r="E671" s="22"/>
       <c r="F671" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G671" s="19" t="s">
         <v>332</v>
@@ -31598,7 +31598,7 @@
         <v>39</v>
       </c>
       <c r="K671" s="24" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="L671" s="19"/>
       <c r="M671" s="19"/>
@@ -31623,7 +31623,7 @@
       <c r="D672" s="19"/>
       <c r="E672" s="22"/>
       <c r="F672" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G672" s="19" t="s">
         <v>332</v>
@@ -31636,7 +31636,7 @@
         <v>221</v>
       </c>
       <c r="K672" s="24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L672" s="19"/>
       <c r="M672" s="19"/>
@@ -31661,7 +31661,7 @@
       <c r="D673" s="19"/>
       <c r="E673" s="22"/>
       <c r="F673" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G673" s="19" t="s">
         <v>332</v>
@@ -31674,7 +31674,7 @@
         <v>221</v>
       </c>
       <c r="K673" s="24" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="L673" s="19"/>
       <c r="M673" s="19"/>
@@ -31699,7 +31699,7 @@
       <c r="D674" s="19"/>
       <c r="E674" s="22"/>
       <c r="F674" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G674" s="19" t="s">
         <v>332</v>
@@ -31712,7 +31712,7 @@
         <v>221</v>
       </c>
       <c r="K674" s="24" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="L674" s="19"/>
       <c r="M674" s="19"/>
@@ -31737,7 +31737,7 @@
       <c r="D675" s="19"/>
       <c r="E675" s="22"/>
       <c r="F675" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G675" s="19" t="s">
         <v>332</v>
@@ -31750,21 +31750,21 @@
         <v>174</v>
       </c>
       <c r="K675" s="24" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="L675" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M675" s="19"/>
       <c r="N675" s="25" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O675" s="25"/>
       <c r="P675" s="19"/>
       <c r="Q675" s="19"/>
       <c r="R675" s="14"/>
       <c r="S675" s="14" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="T675" s="9"/>
       <c r="U675" s="9"/>
@@ -31781,7 +31781,7 @@
       <c r="D676" s="19"/>
       <c r="E676" s="22"/>
       <c r="F676" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G676" s="19" t="s">
         <v>332</v>
@@ -31796,7 +31796,7 @@
         <v>747</v>
       </c>
       <c r="K676" s="24" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="L676" s="19"/>
       <c r="M676" s="19"/>
@@ -31821,7 +31821,7 @@
       <c r="D677" s="19"/>
       <c r="E677" s="22"/>
       <c r="F677" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G677" s="19" t="s">
         <v>332</v>
@@ -31836,7 +31836,7 @@
         <v>747</v>
       </c>
       <c r="K677" s="24" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L677" s="19"/>
       <c r="M677" s="19"/>
@@ -31861,7 +31861,7 @@
       <c r="D678" s="19"/>
       <c r="E678" s="22"/>
       <c r="F678" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G678" s="19" t="s">
         <v>332</v>
@@ -31876,7 +31876,7 @@
         <v>39</v>
       </c>
       <c r="K678" s="24" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L678" s="19"/>
       <c r="M678" s="19"/>
@@ -31901,7 +31901,7 @@
       <c r="D679" s="19"/>
       <c r="E679" s="22"/>
       <c r="F679" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G679" s="19" t="s">
         <v>332</v>
@@ -31916,7 +31916,7 @@
         <v>34</v>
       </c>
       <c r="K679" s="24" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L679" s="19"/>
       <c r="M679" s="19"/>
@@ -31941,7 +31941,7 @@
       <c r="D680" s="19"/>
       <c r="E680" s="22"/>
       <c r="F680" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G680" s="19" t="s">
         <v>332</v>
@@ -31956,7 +31956,7 @@
         <v>34</v>
       </c>
       <c r="K680" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L680" s="19"/>
       <c r="M680" s="19"/>
@@ -31981,7 +31981,7 @@
       <c r="D681" s="19"/>
       <c r="E681" s="22"/>
       <c r="F681" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G681" s="19" t="s">
         <v>332</v>
@@ -31996,7 +31996,7 @@
         <v>708</v>
       </c>
       <c r="K681" s="24" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L681" s="19"/>
       <c r="M681" s="19"/>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="T681" s="9"/>
       <c r="U681" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="V681" s="1"/>
       <c r="W681" s="1"/>
@@ -32022,15 +32022,15 @@
       <c r="A682" s="19"/>
       <c r="B682" s="19"/>
       <c r="C682" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D682" s="19"/>
       <c r="E682" s="22"/>
       <c r="F682" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G682" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H682" s="23" t="s">
         <v>220</v>
@@ -32040,7 +32040,7 @@
         <v>54</v>
       </c>
       <c r="K682" s="24" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="L682" s="19"/>
       <c r="M682" s="19"/>
@@ -32065,13 +32065,13 @@
       <c r="D683" s="19"/>
       <c r="E683" s="22"/>
       <c r="F683" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G683" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H683" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I683" s="19" t="s">
         <v>196</v>
@@ -32080,7 +32080,7 @@
         <v>174</v>
       </c>
       <c r="K683" s="24" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="L683" s="19"/>
       <c r="M683" s="19"/>
@@ -32105,10 +32105,10 @@
       <c r="D684" s="19"/>
       <c r="E684" s="22"/>
       <c r="F684" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G684" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H684" s="23" t="s">
         <v>220</v>
@@ -32118,7 +32118,7 @@
         <v>54</v>
       </c>
       <c r="K684" s="24" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="L684" s="19"/>
       <c r="M684" s="19"/>
@@ -32143,13 +32143,13 @@
       <c r="D685" s="19"/>
       <c r="E685" s="22"/>
       <c r="F685" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G685" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H685" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I685" s="19" t="s">
         <v>196</v>
@@ -32158,7 +32158,7 @@
         <v>174</v>
       </c>
       <c r="K685" s="24" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L685" s="19"/>
       <c r="M685" s="19"/>
@@ -32183,13 +32183,13 @@
       <c r="D686" s="19"/>
       <c r="E686" s="22"/>
       <c r="F686" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G686" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H686" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I686" s="19" t="s">
         <v>196</v>
@@ -32198,7 +32198,7 @@
         <v>54</v>
       </c>
       <c r="K686" s="24" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="L686" s="19"/>
       <c r="M686" s="19"/>
@@ -32223,10 +32223,10 @@
       <c r="D687" s="19"/>
       <c r="E687" s="22"/>
       <c r="F687" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G687" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H687" s="23" t="s">
         <v>236</v>
@@ -32236,7 +32236,7 @@
         <v>39</v>
       </c>
       <c r="K687" s="24" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="L687" s="19"/>
       <c r="M687" s="19"/>
@@ -32261,13 +32261,13 @@
       <c r="D688" s="19"/>
       <c r="E688" s="22"/>
       <c r="F688" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G688" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H688" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I688" s="19" t="s">
         <v>196</v>
@@ -32276,7 +32276,7 @@
         <v>39</v>
       </c>
       <c r="K688" s="24" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="L688" s="19"/>
       <c r="M688" s="19"/>
@@ -32301,13 +32301,13 @@
       <c r="D689" s="19"/>
       <c r="E689" s="22"/>
       <c r="F689" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G689" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H689" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I689" s="19" t="s">
         <v>196</v>
@@ -32316,7 +32316,7 @@
         <v>39</v>
       </c>
       <c r="K689" s="24" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="L689" s="19"/>
       <c r="M689" s="19"/>
@@ -32341,13 +32341,13 @@
       <c r="D690" s="19"/>
       <c r="E690" s="22"/>
       <c r="F690" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G690" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H690" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I690" s="19" t="s">
         <v>196</v>
@@ -32356,7 +32356,7 @@
         <v>174</v>
       </c>
       <c r="K690" s="24" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="L690" s="19"/>
       <c r="M690" s="19"/>
@@ -32381,13 +32381,13 @@
       <c r="D691" s="19"/>
       <c r="E691" s="22"/>
       <c r="F691" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G691" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H691" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I691" s="19" t="s">
         <v>196</v>
@@ -32396,7 +32396,7 @@
         <v>54</v>
       </c>
       <c r="K691" s="24" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="L691" s="19"/>
       <c r="M691" s="19"/>
@@ -32421,13 +32421,13 @@
       <c r="D692" s="19"/>
       <c r="E692" s="22"/>
       <c r="F692" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G692" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H692" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I692" s="19" t="s">
         <v>196</v>
@@ -32436,7 +32436,7 @@
         <v>174</v>
       </c>
       <c r="K692" s="24" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L692" s="19"/>
       <c r="M692" s="19"/>
@@ -32461,13 +32461,13 @@
       <c r="D693" s="19"/>
       <c r="E693" s="22"/>
       <c r="F693" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G693" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H693" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I693" s="19" t="s">
         <v>196</v>
@@ -32476,7 +32476,7 @@
         <v>174</v>
       </c>
       <c r="K693" s="24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="L693" s="19"/>
       <c r="M693" s="19"/>
@@ -32501,13 +32501,13 @@
       <c r="D694" s="19"/>
       <c r="E694" s="22"/>
       <c r="F694" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G694" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H694" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I694" s="19" t="s">
         <v>196</v>
@@ -32516,7 +32516,7 @@
         <v>174</v>
       </c>
       <c r="K694" s="24" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="L694" s="19"/>
       <c r="M694" s="19"/>
@@ -32541,13 +32541,13 @@
       <c r="D695" s="19"/>
       <c r="E695" s="22"/>
       <c r="F695" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G695" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H695" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I695" s="19" t="s">
         <v>196</v>
@@ -32556,7 +32556,7 @@
         <v>174</v>
       </c>
       <c r="K695" s="24" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="L695" s="19"/>
       <c r="M695" s="19"/>
@@ -32581,13 +32581,13 @@
       <c r="D696" s="19"/>
       <c r="E696" s="22"/>
       <c r="F696" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G696" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H696" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I696" s="19" t="s">
         <v>196</v>
@@ -32596,7 +32596,7 @@
         <v>41</v>
       </c>
       <c r="K696" s="24" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L696" s="19"/>
       <c r="M696" s="19"/>
@@ -32621,10 +32621,10 @@
       <c r="D697" s="19"/>
       <c r="E697" s="22"/>
       <c r="F697" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G697" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H697" s="23" t="s">
         <v>236</v>
@@ -32634,7 +32634,7 @@
         <v>39</v>
       </c>
       <c r="K697" s="24" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="L697" s="19"/>
       <c r="M697" s="19"/>
@@ -32659,10 +32659,10 @@
       <c r="D698" s="19"/>
       <c r="E698" s="22"/>
       <c r="F698" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G698" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H698" s="23" t="s">
         <v>220</v>
@@ -32672,7 +32672,7 @@
         <v>34</v>
       </c>
       <c r="K698" s="24" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L698" s="19"/>
       <c r="M698" s="19"/>
@@ -32699,10 +32699,10 @@
       <c r="D699" s="19"/>
       <c r="E699" s="22"/>
       <c r="F699" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G699" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H699" s="23" t="s">
         <v>236</v>
@@ -32720,7 +32720,7 @@
       <c r="M699" s="19"/>
       <c r="N699" s="25"/>
       <c r="O699" s="25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="P699" s="19"/>
       <c r="Q699" s="19"/>
@@ -32741,10 +32741,10 @@
       <c r="D700" s="19"/>
       <c r="E700" s="22"/>
       <c r="F700" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G700" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H700" s="23" t="s">
         <v>236</v>
@@ -32754,14 +32754,14 @@
         <v>39</v>
       </c>
       <c r="K700" s="24" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L700" s="19" t="s">
         <v>149</v>
       </c>
       <c r="M700" s="19"/>
       <c r="N700" s="25" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O700" s="25"/>
       <c r="P700" s="19"/>
@@ -32783,10 +32783,10 @@
       <c r="D701" s="19"/>
       <c r="E701" s="22"/>
       <c r="F701" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G701" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H701" s="23" t="s">
         <v>236</v>
@@ -32796,7 +32796,7 @@
         <v>174</v>
       </c>
       <c r="K701" s="24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L701" s="19"/>
       <c r="M701" s="19"/>
@@ -32821,10 +32821,10 @@
       <c r="D702" s="19"/>
       <c r="E702" s="22"/>
       <c r="F702" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G702" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H702" s="23" t="s">
         <v>236</v>
@@ -32834,7 +32834,7 @@
         <v>54</v>
       </c>
       <c r="K702" s="24" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L702" s="19"/>
       <c r="M702" s="19"/>
@@ -32859,10 +32859,10 @@
       <c r="D703" s="19"/>
       <c r="E703" s="22"/>
       <c r="F703" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G703" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H703" s="23" t="s">
         <v>236</v>
@@ -32872,7 +32872,7 @@
         <v>54</v>
       </c>
       <c r="K703" s="24" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L703" s="19"/>
       <c r="M703" s="19"/>
@@ -32897,10 +32897,10 @@
       <c r="D704" s="19"/>
       <c r="E704" s="22"/>
       <c r="F704" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G704" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H704" s="23" t="s">
         <v>236</v>
@@ -32910,7 +32910,7 @@
         <v>174</v>
       </c>
       <c r="K704" s="24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="L704" s="19"/>
       <c r="M704" s="19"/>
@@ -32935,10 +32935,10 @@
       <c r="D705" s="19"/>
       <c r="E705" s="22"/>
       <c r="F705" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G705" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H705" s="23" t="s">
         <v>236</v>
@@ -32948,7 +32948,7 @@
         <v>174</v>
       </c>
       <c r="K705" s="24" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="L705" s="19" t="s">
         <v>60</v>
@@ -32956,7 +32956,7 @@
       <c r="M705" s="19"/>
       <c r="N705" s="25"/>
       <c r="O705" s="25" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="P705" s="19"/>
       <c r="Q705" s="19"/>
@@ -32977,10 +32977,10 @@
       <c r="D706" s="19"/>
       <c r="E706" s="22"/>
       <c r="F706" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G706" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H706" s="23" t="s">
         <v>236</v>
@@ -32990,7 +32990,7 @@
         <v>41</v>
       </c>
       <c r="K706" s="24" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="L706" s="19"/>
       <c r="M706" s="19"/>
@@ -33015,10 +33015,10 @@
       <c r="D707" s="19"/>
       <c r="E707" s="22"/>
       <c r="F707" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G707" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H707" s="23" t="s">
         <v>236</v>
@@ -33028,7 +33028,7 @@
         <v>41</v>
       </c>
       <c r="K707" s="24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="L707" s="19"/>
       <c r="M707" s="19"/>
@@ -33053,10 +33053,10 @@
       <c r="D708" s="19"/>
       <c r="E708" s="22"/>
       <c r="F708" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G708" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H708" s="23" t="s">
         <v>236</v>
@@ -33066,7 +33066,7 @@
         <v>221</v>
       </c>
       <c r="K708" s="24" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L708" s="19"/>
       <c r="M708" s="19"/>
@@ -33091,10 +33091,10 @@
       <c r="D709" s="19"/>
       <c r="E709" s="22"/>
       <c r="F709" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G709" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H709" s="23" t="s">
         <v>220</v>
@@ -33104,7 +33104,7 @@
         <v>174</v>
       </c>
       <c r="K709" s="24" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="L709" s="19"/>
       <c r="M709" s="19"/>
@@ -33129,10 +33129,10 @@
       <c r="D710" s="19"/>
       <c r="E710" s="22"/>
       <c r="F710" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G710" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H710" s="23" t="s">
         <v>236</v>
@@ -33142,7 +33142,7 @@
         <v>174</v>
       </c>
       <c r="K710" s="24" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L710" s="19"/>
       <c r="M710" s="19"/>
@@ -33167,10 +33167,10 @@
       <c r="D711" s="19"/>
       <c r="E711" s="22"/>
       <c r="F711" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G711" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H711" s="23" t="s">
         <v>236</v>
@@ -33180,7 +33180,7 @@
         <v>39</v>
       </c>
       <c r="K711" s="24" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L711" s="19" t="s">
         <v>60</v>
@@ -33188,7 +33188,7 @@
       <c r="M711" s="19"/>
       <c r="N711" s="25"/>
       <c r="O711" s="25" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="P711" s="19"/>
       <c r="Q711" s="19"/>
@@ -33209,10 +33209,10 @@
       <c r="D712" s="19"/>
       <c r="E712" s="22"/>
       <c r="F712" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G712" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H712" s="23" t="s">
         <v>236</v>
@@ -33222,7 +33222,7 @@
         <v>39</v>
       </c>
       <c r="K712" s="24" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L712" s="19"/>
       <c r="M712" s="19"/>
@@ -33247,10 +33247,10 @@
       <c r="D713" s="19"/>
       <c r="E713" s="22"/>
       <c r="F713" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G713" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H713" s="23" t="s">
         <v>236</v>
@@ -33260,7 +33260,7 @@
         <v>39</v>
       </c>
       <c r="K713" s="24" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L713" s="19"/>
       <c r="M713" s="19"/>
@@ -33272,7 +33272,7 @@
       <c r="S713" s="14"/>
       <c r="T713" s="25"/>
       <c r="U713" s="25" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V713" s="1"/>
       <c r="W713" s="1"/>
@@ -33284,7 +33284,7 @@
       <c r="A714" s="19"/>
       <c r="B714" s="19"/>
       <c r="C714" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D714" s="19" t="s">
         <v>185</v>
@@ -33293,16 +33293,16 @@
         <v>186</v>
       </c>
       <c r="F714" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G714" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H714" s="23"/>
       <c r="I714" s="23"/>
       <c r="J714" s="23"/>
       <c r="K714" s="24" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L714" s="19"/>
       <c r="M714" s="19"/>
@@ -33314,7 +33314,7 @@
       <c r="S714" s="19"/>
       <c r="T714" s="25"/>
       <c r="U714" s="25" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V714" s="1"/>
       <c r="W714" s="1"/>
@@ -33326,10 +33326,10 @@
       <c r="A715" s="19"/>
       <c r="B715" s="19"/>
       <c r="C715" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D715" s="56" t="s">
         <v>1174</v>
-      </c>
-      <c r="D715" s="56" t="s">
-        <v>1175</v>
       </c>
       <c r="E715" s="57"/>
       <c r="F715" s="9" t="s">
@@ -33346,7 +33346,7 @@
         <v>54</v>
       </c>
       <c r="K715" s="15" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L715" s="13" t="s">
         <v>60</v>
@@ -33354,7 +33354,7 @@
       <c r="M715" s="13"/>
       <c r="N715" s="11"/>
       <c r="O715" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="P715" s="13"/>
       <c r="Q715" s="13"/>
@@ -33388,7 +33388,7 @@
         <v>221</v>
       </c>
       <c r="K716" s="15" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L716" s="13"/>
       <c r="M716" s="13"/>
@@ -33426,7 +33426,7 @@
         <v>34</v>
       </c>
       <c r="K717" s="15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L717" s="13"/>
       <c r="M717" s="13"/>
@@ -33464,7 +33464,7 @@
         <v>34</v>
       </c>
       <c r="K718" s="15" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L718" s="13"/>
       <c r="M718" s="13"/>
@@ -33502,7 +33502,7 @@
         <v>34</v>
       </c>
       <c r="K719" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L719" s="13" t="s">
         <v>60</v>
@@ -33510,7 +33510,7 @@
       <c r="M719" s="13"/>
       <c r="N719" s="11"/>
       <c r="O719" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="P719" s="13"/>
       <c r="Q719" s="13"/>
@@ -33544,7 +33544,7 @@
         <v>34</v>
       </c>
       <c r="K720" s="15" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L720" s="13"/>
       <c r="M720" s="13"/>
@@ -33582,7 +33582,7 @@
         <v>174</v>
       </c>
       <c r="K721" s="15" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L721" s="13"/>
       <c r="M721" s="13"/>
@@ -33620,7 +33620,7 @@
         <v>174</v>
       </c>
       <c r="K722" s="15" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L722" s="13"/>
       <c r="M722" s="13"/>
@@ -33658,7 +33658,7 @@
         <v>34</v>
       </c>
       <c r="K723" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L723" s="13" t="s">
         <v>60</v>
@@ -33666,7 +33666,7 @@
       <c r="M723" s="13"/>
       <c r="N723" s="11"/>
       <c r="O723" s="11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="P723" s="13"/>
       <c r="Q723" s="13"/>
@@ -33700,7 +33700,7 @@
         <v>34</v>
       </c>
       <c r="K724" s="15" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L724" s="13"/>
       <c r="M724" s="13"/>
@@ -33738,7 +33738,7 @@
         <v>34</v>
       </c>
       <c r="K725" s="15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L725" s="13"/>
       <c r="M725" s="13"/>
@@ -33776,7 +33776,7 @@
         <v>39</v>
       </c>
       <c r="K726" s="15" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L726" s="13"/>
       <c r="M726" s="13"/>
@@ -33814,7 +33814,7 @@
         <v>34</v>
       </c>
       <c r="K727" s="15" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="L727" s="13"/>
       <c r="M727" s="13"/>
@@ -33826,7 +33826,7 @@
       <c r="S727" s="19"/>
       <c r="T727" s="25"/>
       <c r="U727" s="25" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V727" s="1"/>
       <c r="W727" s="1"/>
@@ -33837,13 +33837,13 @@
     <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="9"/>
       <c r="B728" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C728" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D728" s="17" t="s">
         <v>1193</v>
-      </c>
-      <c r="C728" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D728" s="17" t="s">
-        <v>1194</v>
       </c>
       <c r="E728" s="9"/>
       <c r="F728" s="9" t="s">
@@ -33908,19 +33908,19 @@
         <v>77</v>
       </c>
       <c r="O729" s="9" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P729" s="9" t="s">
         <v>79</v>
       </c>
       <c r="Q729" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R729" s="13"/>
       <c r="S729" s="14"/>
       <c r="T729" s="9"/>
       <c r="U729" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V729" s="1"/>
       <c r="W729" s="1"/>
@@ -33932,10 +33932,10 @@
       <c r="A730" s="9"/>
       <c r="B730" s="11"/>
       <c r="C730" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D730" s="9" t="s">
         <v>1198</v>
-      </c>
-      <c r="D730" s="9" t="s">
-        <v>1199</v>
       </c>
       <c r="E730" s="9"/>
       <c r="F730" s="9" t="s">
@@ -33968,13 +33968,13 @@
         <v>79</v>
       </c>
       <c r="Q730" s="9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R730" s="13"/>
       <c r="S730" s="14"/>
       <c r="T730" s="9"/>
       <c r="U730" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="V730" s="1"/>
       <c r="W730" s="1"/>
@@ -33986,10 +33986,10 @@
       <c r="A731" s="9"/>
       <c r="B731" s="11"/>
       <c r="C731" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D731" s="9" t="s">
         <v>1202</v>
-      </c>
-      <c r="D731" s="9" t="s">
-        <v>1203</v>
       </c>
       <c r="E731" s="9"/>
       <c r="F731" s="9" t="s">
@@ -34022,13 +34022,13 @@
         <v>79</v>
       </c>
       <c r="Q731" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="R731" s="13"/>
       <c r="S731" s="14"/>
       <c r="T731" s="9"/>
       <c r="U731" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V731" s="1"/>
       <c r="W731" s="1"/>
@@ -34040,10 +34040,10 @@
       <c r="A732" s="9"/>
       <c r="B732" s="11"/>
       <c r="C732" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D732" s="9" t="s">
         <v>1206</v>
-      </c>
-      <c r="D732" s="9" t="s">
-        <v>1207</v>
       </c>
       <c r="E732" s="9"/>
       <c r="F732" s="9" t="s">
@@ -34076,13 +34076,13 @@
         <v>79</v>
       </c>
       <c r="Q732" s="9" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="R732" s="13"/>
       <c r="S732" s="14"/>
       <c r="T732" s="9"/>
       <c r="U732" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V732" s="1"/>
       <c r="W732" s="1"/>
@@ -34094,10 +34094,10 @@
       <c r="A733" s="9"/>
       <c r="B733" s="11"/>
       <c r="C733" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D733" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="D733" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="E733" s="9"/>
       <c r="F733" s="9" t="s">
@@ -34130,13 +34130,13 @@
         <v>79</v>
       </c>
       <c r="Q733" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="R733" s="13"/>
       <c r="S733" s="14"/>
       <c r="T733" s="9"/>
       <c r="U733" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="V733" s="1"/>
       <c r="W733" s="1"/>
@@ -34148,10 +34148,10 @@
       <c r="A734" s="9"/>
       <c r="B734" s="11"/>
       <c r="C734" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D734" s="9" t="s">
         <v>1214</v>
-      </c>
-      <c r="D734" s="9" t="s">
-        <v>1215</v>
       </c>
       <c r="E734" s="9"/>
       <c r="F734" s="9" t="s">
@@ -34184,13 +34184,13 @@
         <v>79</v>
       </c>
       <c r="Q734" s="9" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="R734" s="13"/>
       <c r="S734" s="14"/>
       <c r="T734" s="9"/>
       <c r="U734" s="9" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V734" s="1"/>
       <c r="W734" s="1"/>
@@ -34202,10 +34202,10 @@
       <c r="A735" s="9"/>
       <c r="B735" s="11"/>
       <c r="C735" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D735" s="10" t="s">
         <v>1218</v>
-      </c>
-      <c r="D735" s="10" t="s">
-        <v>1219</v>
       </c>
       <c r="E735" s="9"/>
       <c r="F735" s="9" t="s">
@@ -34238,13 +34238,13 @@
         <v>79</v>
       </c>
       <c r="Q735" s="9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="R735" s="13"/>
       <c r="S735" s="14"/>
       <c r="T735" s="9"/>
       <c r="U735" s="9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="V735" s="1"/>
       <c r="W735" s="1"/>
@@ -34256,10 +34256,10 @@
       <c r="A736" s="9"/>
       <c r="B736" s="11"/>
       <c r="C736" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D736" s="10" t="s">
         <v>1222</v>
-      </c>
-      <c r="D736" s="10" t="s">
-        <v>1223</v>
       </c>
       <c r="E736" s="9"/>
       <c r="F736" s="9" t="s">
@@ -34292,13 +34292,13 @@
         <v>79</v>
       </c>
       <c r="Q736" s="9" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R736" s="13"/>
       <c r="S736" s="14"/>
       <c r="T736" s="9"/>
       <c r="U736" s="9" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="V736" s="1"/>
       <c r="W736" s="1"/>
@@ -34310,10 +34310,10 @@
       <c r="A737" s="9"/>
       <c r="B737" s="11"/>
       <c r="C737" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D737" s="10" t="s">
         <v>1226</v>
-      </c>
-      <c r="D737" s="10" t="s">
-        <v>1227</v>
       </c>
       <c r="E737" s="9"/>
       <c r="F737" s="9" t="s">
@@ -34346,13 +34346,13 @@
         <v>79</v>
       </c>
       <c r="Q737" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="R737" s="13"/>
       <c r="S737" s="14"/>
       <c r="T737" s="9"/>
       <c r="U737" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V737" s="1"/>
       <c r="W737" s="1"/>
@@ -34364,10 +34364,10 @@
       <c r="A738" s="9"/>
       <c r="B738" s="11"/>
       <c r="C738" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D738" s="10" t="s">
         <v>1230</v>
-      </c>
-      <c r="D738" s="10" t="s">
-        <v>1231</v>
       </c>
       <c r="E738" s="9"/>
       <c r="F738" s="9" t="s">
@@ -34400,13 +34400,13 @@
         <v>79</v>
       </c>
       <c r="Q738" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="R738" s="13"/>
       <c r="S738" s="14"/>
       <c r="T738" s="9"/>
       <c r="U738" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="V738" s="1"/>
       <c r="W738" s="1"/>
@@ -34418,7 +34418,7 @@
       <c r="A739" s="19"/>
       <c r="B739" s="19"/>
       <c r="C739" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D739" s="19"/>
       <c r="E739" s="9"/>
@@ -34436,7 +34436,7 @@
         <v>34</v>
       </c>
       <c r="K739" s="24" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L739" s="19"/>
       <c r="M739" s="19"/>
@@ -34474,7 +34474,7 @@
         <v>39</v>
       </c>
       <c r="K740" s="24" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L740" s="19"/>
       <c r="M740" s="19"/>
@@ -34512,7 +34512,7 @@
         <v>34</v>
       </c>
       <c r="K741" s="24" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="L741" s="19"/>
       <c r="M741" s="19"/>
@@ -34550,7 +34550,7 @@
         <v>39</v>
       </c>
       <c r="K742" s="24" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L742" s="19"/>
       <c r="M742" s="19"/>
@@ -34562,7 +34562,7 @@
       <c r="S742" s="19"/>
       <c r="T742" s="25"/>
       <c r="U742" s="25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="V742" s="1"/>
       <c r="W742" s="1"/>
@@ -34574,10 +34574,10 @@
       <c r="A743" s="19"/>
       <c r="B743" s="19"/>
       <c r="C743" s="19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D743" s="19" t="s">
         <v>1239</v>
-      </c>
-      <c r="D743" s="19" t="s">
-        <v>1240</v>
       </c>
       <c r="E743" s="9"/>
       <c r="F743" s="9" t="s">
@@ -34594,25 +34594,25 @@
         <v>39</v>
       </c>
       <c r="K743" s="24" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L743" s="19" t="s">
         <v>1241</v>
-      </c>
-      <c r="L743" s="19" t="s">
-        <v>1242</v>
       </c>
       <c r="M743" s="19"/>
       <c r="N743" s="25"/>
       <c r="O743" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P743" s="19"/>
       <c r="Q743" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R743" s="19"/>
       <c r="S743" s="19"/>
       <c r="T743" s="25"/>
       <c r="U743" s="25" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V743" s="1"/>
       <c r="W743" s="1"/>
@@ -34624,10 +34624,10 @@
       <c r="A744" s="19"/>
       <c r="B744" s="19"/>
       <c r="C744" s="19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D744" s="19" t="s">
         <v>1246</v>
-      </c>
-      <c r="D744" s="19" t="s">
-        <v>1247</v>
       </c>
       <c r="E744" s="9"/>
       <c r="F744" s="9" t="s">
@@ -34644,25 +34644,25 @@
         <v>39</v>
       </c>
       <c r="K744" s="24" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L744" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M744" s="19"/>
       <c r="N744" s="25"/>
       <c r="O744" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P744" s="19"/>
       <c r="Q744" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="R744" s="19"/>
       <c r="S744" s="19"/>
       <c r="T744" s="25"/>
       <c r="U744" s="25" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="V744" s="1"/>
       <c r="W744" s="1"/>
@@ -34674,10 +34674,10 @@
       <c r="A745" s="19"/>
       <c r="B745" s="19"/>
       <c r="C745" s="19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D745" s="19" t="s">
         <v>1251</v>
-      </c>
-      <c r="D745" s="19" t="s">
-        <v>1252</v>
       </c>
       <c r="E745" s="9"/>
       <c r="F745" s="9" t="s">
@@ -34694,25 +34694,25 @@
         <v>39</v>
       </c>
       <c r="K745" s="24" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L745" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M745" s="19"/>
       <c r="N745" s="25"/>
       <c r="O745" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P745" s="19"/>
       <c r="Q745" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R745" s="19"/>
       <c r="S745" s="19"/>
       <c r="T745" s="25"/>
       <c r="U745" s="25" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V745" s="1"/>
       <c r="W745" s="1"/>
@@ -34724,10 +34724,10 @@
       <c r="A746" s="19"/>
       <c r="B746" s="19"/>
       <c r="C746" s="19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D746" s="19" t="s">
         <v>1256</v>
-      </c>
-      <c r="D746" s="19" t="s">
-        <v>1257</v>
       </c>
       <c r="E746" s="9"/>
       <c r="F746" s="9" t="s">
@@ -34744,25 +34744,25 @@
         <v>39</v>
       </c>
       <c r="K746" s="24" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L746" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M746" s="19"/>
       <c r="N746" s="25"/>
       <c r="O746" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P746" s="19"/>
       <c r="Q746" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="R746" s="19"/>
       <c r="S746" s="19"/>
       <c r="T746" s="25"/>
       <c r="U746" s="25" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V746" s="1"/>
       <c r="W746" s="1"/>
@@ -34774,10 +34774,10 @@
       <c r="A747" s="19"/>
       <c r="B747" s="19"/>
       <c r="C747" s="19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D747" s="19" t="s">
         <v>1261</v>
-      </c>
-      <c r="D747" s="19" t="s">
-        <v>1262</v>
       </c>
       <c r="E747" s="9"/>
       <c r="F747" s="9" t="s">
@@ -34787,14 +34787,14 @@
         <v>216</v>
       </c>
       <c r="H747" s="23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I747" s="23"/>
       <c r="J747" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K747" s="24" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L747" s="19" t="s">
         <v>60</v>
@@ -34802,17 +34802,17 @@
       <c r="M747" s="19"/>
       <c r="N747" s="25"/>
       <c r="O747" s="25" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="P747" s="19"/>
       <c r="Q747" s="19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="R747" s="19"/>
       <c r="S747" s="19"/>
       <c r="T747" s="25"/>
       <c r="U747" s="58" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="V747" s="1"/>
       <c r="W747" s="1"/>
@@ -34824,10 +34824,10 @@
       <c r="A748" s="19"/>
       <c r="B748" s="19"/>
       <c r="C748" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D748" s="19" t="s">
         <v>1268</v>
-      </c>
-      <c r="D748" s="19" t="s">
-        <v>1269</v>
       </c>
       <c r="E748" s="9"/>
       <c r="F748" s="9" t="s">
@@ -34837,30 +34837,30 @@
         <v>216</v>
       </c>
       <c r="H748" s="23" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I748" s="23"/>
       <c r="J748" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K748" s="24" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L748" s="19" t="s">
         <v>1271</v>
-      </c>
-      <c r="L748" s="19" t="s">
-        <v>1272</v>
       </c>
       <c r="M748" s="19"/>
       <c r="N748" s="25"/>
       <c r="O748" s="25"/>
       <c r="P748" s="19"/>
       <c r="Q748" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="R748" s="19"/>
       <c r="S748" s="19"/>
       <c r="T748" s="25"/>
       <c r="U748" s="58" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V748" s="1"/>
       <c r="W748" s="1"/>
@@ -34872,10 +34872,10 @@
       <c r="A749" s="19"/>
       <c r="B749" s="19"/>
       <c r="C749" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D749" s="19" t="s">
         <v>1274</v>
-      </c>
-      <c r="D749" s="19" t="s">
-        <v>1275</v>
       </c>
       <c r="E749" s="9"/>
       <c r="F749" s="9" t="s">
@@ -34885,32 +34885,32 @@
         <v>216</v>
       </c>
       <c r="H749" s="23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I749" s="23"/>
       <c r="J749" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K749" s="24" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L749" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M749" s="19"/>
       <c r="N749" s="25"/>
       <c r="O749" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P749" s="19"/>
       <c r="Q749" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="R749" s="19"/>
       <c r="S749" s="19"/>
       <c r="T749" s="25"/>
       <c r="U749" s="25" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V749" s="1"/>
       <c r="W749" s="1"/>
@@ -34922,10 +34922,10 @@
       <c r="A750" s="19"/>
       <c r="B750" s="19"/>
       <c r="C750" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D750" s="19" t="s">
         <v>1279</v>
-      </c>
-      <c r="D750" s="19" t="s">
-        <v>1280</v>
       </c>
       <c r="E750" s="9"/>
       <c r="F750" s="9" t="s">
@@ -34935,32 +34935,32 @@
         <v>216</v>
       </c>
       <c r="H750" s="23" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I750" s="23"/>
       <c r="J750" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K750" s="24" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L750" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M750" s="19"/>
       <c r="N750" s="25"/>
       <c r="O750" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P750" s="19"/>
       <c r="Q750" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="R750" s="19"/>
       <c r="S750" s="19"/>
       <c r="T750" s="25"/>
       <c r="U750" s="25" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="V750" s="1"/>
       <c r="W750" s="1"/>
@@ -34972,10 +34972,10 @@
       <c r="A751" s="19"/>
       <c r="B751" s="19"/>
       <c r="C751" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D751" s="19" t="s">
         <v>1284</v>
-      </c>
-      <c r="D751" s="19" t="s">
-        <v>1285</v>
       </c>
       <c r="E751" s="9"/>
       <c r="F751" s="9" t="s">
@@ -34985,24 +34985,24 @@
         <v>216</v>
       </c>
       <c r="H751" s="23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I751" s="23"/>
       <c r="J751" s="23" t="s">
         <v>39</v>
       </c>
       <c r="K751" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L751" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="M751" s="19"/>
       <c r="N751" s="25"/>
       <c r="O751" s="25"/>
       <c r="P751" s="19"/>
       <c r="Q751" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="R751" s="19"/>
       <c r="S751" s="19"/>
@@ -35027,14 +35027,14 @@
         <v>251</v>
       </c>
       <c r="H752" s="23" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I752" s="23"/>
       <c r="J752" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K752" s="24" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="L752" s="19"/>
       <c r="M752" s="19"/>
@@ -35065,14 +35065,14 @@
         <v>251</v>
       </c>
       <c r="H753" s="23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I753" s="23"/>
       <c r="J753" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K753" s="24" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L753" s="19"/>
       <c r="M753" s="19"/>
@@ -35103,14 +35103,14 @@
         <v>251</v>
       </c>
       <c r="H754" s="23" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I754" s="23"/>
       <c r="J754" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K754" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L754" s="19"/>
       <c r="M754" s="19"/>
@@ -35122,7 +35122,7 @@
       <c r="S754" s="19"/>
       <c r="T754" s="25"/>
       <c r="U754" s="25" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="V754" s="1"/>
       <c r="W754" s="1"/>

--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFB37C1-0FD6-4E90-AE72-82CC258876BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C9F48-508E-4414-A965-68A120020A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3898,19 +3898,19 @@
     <t>[ "var3", 1 ]</t>
   </si>
   <si>
-    <t>["pra2-1", true, 141]|["pra2-1", false, 142]</t>
-  </si>
-  <si>
-    <t>["pra2-4", true, 152]|["pra2-4", false, 153]</t>
-  </si>
-  <si>
-    <t>["var2", 1, 112]|["var2", 0, 113]</t>
-  </si>
-  <si>
-    <t>["var1", 5, 069]|["var1", 3, 070]|["var1", 4, 070]|["var1", 2, 071]|["var1", 1, 071]|["var1", 0, 071]</t>
-  </si>
-  <si>
-    <t>["var3", 5, 159]|["var3", 4, 160]|["var3", 3, 160]|["var3", 2, 161]|["var3", 1, 161]|["var3", 0, 161]</t>
+    <t>["var1"|5|"069"]|["var1"|3|"070"]|["var1"|4|"070"]|["var1"|2|"071"]|["var1"|1|"071"]|["var1"|0|"071"]</t>
+  </si>
+  <si>
+    <t>["var2"|1|"112"]|["var2"|0|"113"]</t>
+  </si>
+  <si>
+    <t>["pra2-1"|true|"141"]|["pra2-1"|false|"142"]</t>
+  </si>
+  <si>
+    <t>["pra2-4"|true|"152"]|["pra2-4"|false|"153"]</t>
+  </si>
+  <si>
+    <t>["var3"|5|"159"]|["var3"|4|"160"]|["var3"|3|"160"]|["var3"|2|"161"]|["var3"|1|"161"]|["var3"|0|"161"]</t>
   </si>
 </sst>
 </file>
@@ -4551,10 +4551,10 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O600" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="R612" sqref="R612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14302,7 +14302,7 @@
       <c r="R244" s="14"/>
       <c r="S244" s="43"/>
       <c r="T244" s="9" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="U244" s="1"/>
       <c r="V244" s="1"/>
@@ -21598,7 +21598,7 @@
       <c r="R432" s="14"/>
       <c r="S432" s="14"/>
       <c r="T432" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="U432" s="1"/>
       <c r="V432" s="1"/>
@@ -25436,7 +25436,7 @@
       <c r="R530" s="14"/>
       <c r="S530" s="14"/>
       <c r="T530" s="9" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="U530" s="1"/>
       <c r="V530" s="1"/>
@@ -27254,7 +27254,7 @@
       <c r="R576" s="14"/>
       <c r="S576" s="14"/>
       <c r="T576" s="25" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="U576" s="1"/>
       <c r="V576" s="1"/>

--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C9F48-508E-4414-A965-68A120020A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA544B-A7F1-4C43-B24D-A0F47B2879B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3898,19 +3898,19 @@
     <t>[ "var3", 1 ]</t>
   </si>
   <si>
-    <t>["var1"|5|"069"]|["var1"|3|"070"]|["var1"|4|"070"]|["var1"|2|"071"]|["var1"|1|"071"]|["var1"|0|"071"]</t>
-  </si>
-  <si>
-    <t>["var2"|1|"112"]|["var2"|0|"113"]</t>
-  </si>
-  <si>
-    <t>["pra2-1"|true|"141"]|["pra2-1"|false|"142"]</t>
-  </si>
-  <si>
-    <t>["pra2-4"|true|"152"]|["pra2-4"|false|"153"]</t>
-  </si>
-  <si>
-    <t>["var3"|5|"159"]|["var3"|4|"160"]|["var3"|3|"160"]|["var3"|2|"161"]|["var3"|1|"161"]|["var3"|0|"161"]</t>
+    <t>["var1",5,"069"]|["var1",3,"070"]|["var1",4,"070"]|["var1",2,"071"]|["var1",1,"071"]|["var1",0,"071"]</t>
+  </si>
+  <si>
+    <t>["var2",1,"112"]|["var2",0,"113"]</t>
+  </si>
+  <si>
+    <t>["pra2-1",true,"141"]|["pra2-1",false,"142"]</t>
+  </si>
+  <si>
+    <t>["pra2-4",true,"152"]|["pra2-4",false,"153"]</t>
+  </si>
+  <si>
+    <t>["var3",5,"159"]|["var3",4,"160"]|["var3",3,"160"]|["var3",2,"161"]|["var3",1,"161"]|["var3",0,"161"]</t>
   </si>
 </sst>
 </file>
@@ -4551,10 +4551,10 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O600" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R612" sqref="R612"/>
+      <selection pane="bottomRight" activeCell="R247" sqref="R247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA544B-A7F1-4C43-B24D-A0F47B2879B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6064AFA7-683F-4E16-A806-E35F2EFAD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Script" sheetId="1" r:id="rId1"/>
@@ -4551,32 +4551,32 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O607" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R247" sqref="R247"/>
+      <selection pane="bottomRight" activeCell="R528" sqref="R528"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="51.33203125" customWidth="1"/>
+    <col min="1" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="51.28515625" customWidth="1"/>
     <col min="12" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
-    <col min="15" max="15" width="45.109375" customWidth="1"/>
-    <col min="16" max="17" width="10.109375" customWidth="1"/>
-    <col min="18" max="18" width="24.88671875" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" customWidth="1"/>
-    <col min="20" max="20" width="33.44140625" customWidth="1"/>
-    <col min="21" max="25" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" customWidth="1"/>
+    <col min="16" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" customWidth="1"/>
+    <col min="21" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
@@ -4762,7 +4762,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="11"/>
       <c r="C5" s="9"/>
@@ -4799,7 +4799,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9"/>
@@ -4836,7 +4836,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
@@ -4873,7 +4873,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
@@ -4910,7 +4910,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
@@ -4947,7 +4947,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -4984,7 +4984,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9"/>
@@ -5021,7 +5021,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9"/>
@@ -5058,7 +5058,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
@@ -5095,7 +5095,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="9"/>
@@ -5132,7 +5132,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
@@ -5169,7 +5169,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
@@ -5206,7 +5206,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
@@ -5243,7 +5243,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -5280,7 +5280,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -5317,7 +5317,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
@@ -5354,7 +5354,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
@@ -5391,7 +5391,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
@@ -5434,7 +5434,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="16" t="s">
@@ -5475,7 +5475,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
@@ -5512,7 +5512,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
@@ -5549,7 +5549,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -5586,7 +5586,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
@@ -5625,7 +5625,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="11" t="s">
         <v>70</v>
@@ -5668,7 +5668,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="13"/>
       <c r="C29" s="9"/>
@@ -5717,7 +5717,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="11"/>
       <c r="C30" s="16" t="s">
@@ -5770,7 +5770,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
@@ -5823,7 +5823,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="11"/>
       <c r="C32" s="16" t="s">
@@ -5876,7 +5876,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="16" t="s">
@@ -5929,7 +5929,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="C34" s="16" t="s">
@@ -5982,7 +5982,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="11"/>
       <c r="C35" s="16" t="s">
@@ -6035,7 +6035,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="11"/>
       <c r="C36" s="16" t="s">
@@ -6088,7 +6088,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="11"/>
       <c r="C37" s="16" t="s">
@@ -6141,7 +6141,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="11"/>
       <c r="C38" s="16" t="s">
@@ -6194,7 +6194,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="11" t="s">
         <v>143</v>
@@ -6237,7 +6237,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="13"/>
@@ -6278,7 +6278,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="11"/>
       <c r="C41" s="13"/>
@@ -6319,7 +6319,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="13"/>
@@ -6360,7 +6360,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
       <c r="C43" s="13"/>
@@ -6397,7 +6397,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="11"/>
       <c r="C44" s="13"/>
@@ -6438,7 +6438,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="11"/>
       <c r="C45" s="13"/>
@@ -6475,7 +6475,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="11"/>
       <c r="C46" s="13"/>
@@ -6512,7 +6512,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="11"/>
       <c r="C47" s="13"/>
@@ -6549,7 +6549,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="11"/>
       <c r="C48" s="13"/>
@@ -6586,7 +6586,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="11"/>
       <c r="C49" s="13"/>
@@ -6623,7 +6623,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
       <c r="C50" s="13"/>
@@ -6666,7 +6666,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="13"/>
       <c r="C51" s="16" t="s">
@@ -6707,7 +6707,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="13"/>
       <c r="C52" s="16" t="s">
@@ -6748,7 +6748,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="13"/>
       <c r="C53" s="9"/>
@@ -6785,7 +6785,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="13"/>
       <c r="C54" s="9"/>
@@ -6822,7 +6822,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="13"/>
       <c r="C55" s="9"/>
@@ -6859,7 +6859,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="13"/>
       <c r="C56" s="9"/>
@@ -6896,7 +6896,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="13"/>
       <c r="C57" s="9"/>
@@ -6933,7 +6933,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="13"/>
       <c r="C58" s="9"/>
@@ -6970,7 +6970,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="13"/>
       <c r="C59" s="9"/>
@@ -7013,7 +7013,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="13"/>
       <c r="C60" s="16" t="s">
@@ -7054,7 +7054,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>189</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7138,7 +7138,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7177,7 +7177,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7216,7 +7216,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7255,7 +7255,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7300,7 +7300,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20" t="s">
@@ -7343,7 +7343,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7384,7 +7384,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20" t="s">
@@ -7427,7 +7427,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7468,7 +7468,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
       <c r="B71" s="19" t="s">
         <v>211</v>
@@ -7507,7 +7507,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="29" t="s">
@@ -7550,7 +7550,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="21"/>
@@ -7593,7 +7593,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="29" t="s">
@@ -7640,7 +7640,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="29" t="s">
@@ -7687,7 +7687,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="29" t="s">
@@ -7728,7 +7728,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="21"/>
@@ -7765,7 +7765,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -7806,7 +7806,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -7843,7 +7843,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -7880,7 +7880,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -7917,7 +7917,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -7954,7 +7954,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -7991,7 +7991,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -8028,7 +8028,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -8065,7 +8065,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -8104,7 +8104,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="29" t="s">
@@ -8145,7 +8145,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -8182,7 +8182,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8223,7 +8223,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8264,7 +8264,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8301,7 +8301,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -8338,7 +8338,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8381,7 +8381,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="20" t="s">
@@ -8422,7 +8422,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -8459,7 +8459,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -8496,7 +8496,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8535,7 +8535,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="20" t="s">
@@ -8576,7 +8576,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8613,7 +8613,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8650,7 +8650,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8687,7 +8687,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -8724,7 +8724,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8765,7 +8765,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8802,7 +8802,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8839,7 +8839,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -8878,7 +8878,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="29" t="s">
@@ -8919,7 +8919,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
         <v>284</v>
       </c>
@@ -8964,7 +8964,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="21"/>
@@ -9001,7 +9001,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -9038,7 +9038,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -9075,7 +9075,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -9112,7 +9112,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -9149,7 +9149,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -9186,7 +9186,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -9223,7 +9223,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -9266,7 +9266,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -9303,7 +9303,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -9340,7 +9340,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -9377,7 +9377,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -9414,7 +9414,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -9451,7 +9451,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -9490,7 +9490,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -9527,7 +9527,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="25"/>
@@ -9564,7 +9564,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="25"/>
@@ -9607,7 +9607,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="25" t="s">
@@ -9648,7 +9648,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="25"/>
@@ -9685,7 +9685,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -9722,7 +9722,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -9759,7 +9759,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -9796,7 +9796,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -9833,7 +9833,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -9870,7 +9870,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -9909,7 +9909,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19" t="s">
@@ -9950,7 +9950,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -9987,7 +9987,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -10024,7 +10024,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -10061,7 +10061,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -10098,7 +10098,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -10137,7 +10137,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19" t="s">
@@ -10178,7 +10178,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -10215,7 +10215,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -10252,7 +10252,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -10289,7 +10289,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -10326,7 +10326,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -10363,7 +10363,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -10400,7 +10400,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -10437,7 +10437,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -10474,7 +10474,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -10515,7 +10515,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -10554,7 +10554,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="34" t="s">
@@ -10593,7 +10593,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -10630,7 +10630,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -10667,7 +10667,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -10704,7 +10704,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -10747,7 +10747,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="20" t="s">
@@ -10788,7 +10788,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -10825,7 +10825,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -10862,7 +10862,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -10899,7 +10899,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -10938,7 +10938,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="20" t="s">
@@ -10977,7 +10977,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -11014,7 +11014,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -11059,7 +11059,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -11096,7 +11096,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -11133,7 +11133,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -11170,7 +11170,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -11213,7 +11213,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="20" t="s">
@@ -11252,7 +11252,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -11289,7 +11289,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -11326,7 +11326,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -11365,7 +11365,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="25"/>
       <c r="B172" s="19"/>
       <c r="C172" s="20" t="s">
@@ -11406,7 +11406,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25" t="s">
         <v>385</v>
       </c>
@@ -11449,7 +11449,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -11486,7 +11486,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -11525,7 +11525,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="20" t="s">
@@ -11572,7 +11572,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="20" t="s">
@@ -11613,7 +11613,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="20" t="s">
@@ -11654,7 +11654,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -11695,7 +11695,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="20" t="s">
@@ -11734,7 +11734,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -11771,7 +11771,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -11814,7 +11814,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="20" t="s">
@@ -11853,7 +11853,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -11892,7 +11892,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="20" t="s">
@@ -11933,7 +11933,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="19" t="s">
         <v>415</v>
@@ -11978,7 +11978,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -12015,7 +12015,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -12052,7 +12052,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -12089,7 +12089,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -12130,7 +12130,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -12167,7 +12167,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -12204,7 +12204,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="19"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -12241,7 +12241,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -12278,7 +12278,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="19"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -12315,7 +12315,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="19"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -12352,7 +12352,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="19"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -12389,7 +12389,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="19"/>
       <c r="B198" s="19"/>
       <c r="C198" s="20" t="s">
@@ -12434,7 +12434,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="19"/>
       <c r="B199" s="19"/>
       <c r="C199" s="20" t="s">
@@ -12477,7 +12477,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="19"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -12518,7 +12518,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="19"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -12555,7 +12555,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="19"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -12596,7 +12596,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="19"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -12633,7 +12633,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="19"/>
       <c r="B204" s="19"/>
       <c r="C204" s="20" t="s">
@@ -12678,7 +12678,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="19"/>
       <c r="B205" s="19" t="s">
         <v>447</v>
@@ -12719,7 +12719,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="19"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -12756,7 +12756,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="19"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -12799,7 +12799,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="19"/>
       <c r="B208" s="19"/>
       <c r="C208" s="20" t="s">
@@ -12840,7 +12840,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="19"/>
       <c r="B209" s="19"/>
       <c r="C209" s="20" t="s">
@@ -12881,7 +12881,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="19"/>
       <c r="B210" s="19"/>
       <c r="C210" s="20" t="s">
@@ -12920,7 +12920,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="19"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -12957,7 +12957,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="19"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -12994,7 +12994,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="19"/>
       <c r="B213" s="19"/>
       <c r="C213" s="20" t="s">
@@ -13047,7 +13047,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="19"/>
       <c r="B214" s="19"/>
       <c r="C214" s="20" t="s">
@@ -13086,7 +13086,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="19"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -13125,7 +13125,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="19"/>
       <c r="B216" s="19"/>
       <c r="C216" s="20" t="s">
@@ -13164,7 +13164,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="19"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -13203,7 +13203,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="19"/>
       <c r="B218" s="19"/>
       <c r="C218" s="20" t="s">
@@ -13246,7 +13246,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="19"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -13295,7 +13295,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="19"/>
       <c r="B220" s="19"/>
       <c r="C220" s="20" t="s">
@@ -13334,7 +13334,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="19"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -13373,7 +13373,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="19"/>
       <c r="B222" s="19"/>
       <c r="C222" s="20" t="s">
@@ -13412,7 +13412,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="19"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -13451,7 +13451,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="19"/>
       <c r="B224" s="19"/>
       <c r="C224" s="20" t="s">
@@ -13494,7 +13494,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="19"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -13543,7 +13543,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="19"/>
       <c r="B226" s="19"/>
       <c r="C226" s="20" t="s">
@@ -13582,7 +13582,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="19"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -13621,7 +13621,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="19"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19" t="s">
@@ -13660,7 +13660,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="19"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -13699,7 +13699,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="19"/>
       <c r="B230" s="19"/>
       <c r="C230" s="20" t="s">
@@ -13742,7 +13742,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="19"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -13791,7 +13791,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="19"/>
       <c r="B232" s="19"/>
       <c r="C232" s="20" t="s">
@@ -13830,7 +13830,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="19"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -13869,7 +13869,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="19"/>
       <c r="B234" s="19"/>
       <c r="C234" s="20" t="s">
@@ -13908,7 +13908,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="19"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -13947,7 +13947,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="19"/>
       <c r="B236" s="19"/>
       <c r="C236" s="20" t="s">
@@ -13990,7 +13990,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="19"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -14039,7 +14039,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="19"/>
       <c r="B238" s="19"/>
       <c r="C238" s="20" t="s">
@@ -14078,7 +14078,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="19"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -14117,7 +14117,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="19"/>
       <c r="B240" s="19"/>
       <c r="C240" s="20" t="s">
@@ -14156,7 +14156,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="19"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -14195,7 +14195,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="19"/>
       <c r="B242" s="19"/>
       <c r="C242" s="20" t="s">
@@ -14234,7 +14234,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="19"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -14271,7 +14271,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="19"/>
       <c r="B244" s="19"/>
       <c r="C244" s="44"/>
@@ -14310,7 +14310,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="19"/>
       <c r="B245" s="19"/>
       <c r="C245" s="20" t="s">
@@ -14349,7 +14349,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="19"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -14388,7 +14388,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="19"/>
       <c r="B247" s="19"/>
       <c r="C247" s="20" t="s">
@@ -14427,7 +14427,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="19"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -14466,7 +14466,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="19"/>
       <c r="B249" s="19"/>
       <c r="C249" s="20" t="s">
@@ -14505,7 +14505,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="19"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -14544,7 +14544,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="19"/>
       <c r="B251" s="19"/>
       <c r="C251" s="20" t="s">
@@ -14583,7 +14583,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="19"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -14620,7 +14620,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="19"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -14663,7 +14663,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="19"/>
       <c r="B254" s="19"/>
       <c r="C254" s="20" t="s">
@@ -14702,7 +14702,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="19"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -14739,7 +14739,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="19"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -14778,7 +14778,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="19"/>
       <c r="B257" s="19"/>
       <c r="C257" s="20" t="s">
@@ -14817,7 +14817,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="19"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -14854,7 +14854,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="19"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -14893,7 +14893,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="19"/>
       <c r="B260" s="19"/>
       <c r="C260" s="20" t="s">
@@ -14932,7 +14932,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="19"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -14973,7 +14973,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="19"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -15010,7 +15010,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="19"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -15049,7 +15049,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="19"/>
       <c r="B264" s="19"/>
       <c r="C264" s="20" t="s">
@@ -15090,7 +15090,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="25" t="s">
         <v>543</v>
       </c>
@@ -15137,7 +15137,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="19"/>
       <c r="B266" s="19"/>
       <c r="C266" s="20" t="s">
@@ -15176,7 +15176,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="19"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -15213,7 +15213,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="19"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -15254,7 +15254,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="19"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -15291,7 +15291,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="19"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -15328,7 +15328,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="19"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -15371,7 +15371,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="19"/>
       <c r="B272" s="19"/>
       <c r="C272" s="20" t="s">
@@ -15410,7 +15410,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="19"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -15447,7 +15447,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="19"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -15484,7 +15484,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="19"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -15521,7 +15521,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="19"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -15564,7 +15564,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="19"/>
       <c r="B277" s="19"/>
       <c r="C277" s="20" t="s">
@@ -15603,7 +15603,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="19"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -15642,7 +15642,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="19"/>
       <c r="B279" s="19"/>
       <c r="C279" s="20" t="s">
@@ -15681,7 +15681,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="19"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -15718,7 +15718,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="19"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -15757,7 +15757,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="19"/>
       <c r="B282" s="19"/>
       <c r="C282" s="20" t="s">
@@ -15798,7 +15798,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="19"/>
       <c r="B283" s="19"/>
       <c r="C283" s="20" t="s">
@@ -15837,7 +15837,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="19"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -15874,7 +15874,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="19"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -15915,7 +15915,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="19"/>
       <c r="B286" s="19"/>
       <c r="C286" s="20" t="s">
@@ -15958,7 +15958,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="19"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -16001,7 +16001,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="19"/>
       <c r="B288" s="19"/>
       <c r="C288" s="20" t="s">
@@ -16042,7 +16042,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="19"/>
       <c r="B289" s="19"/>
       <c r="C289" s="20" t="s">
@@ -16081,7 +16081,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="19"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -16120,7 +16120,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="19"/>
       <c r="B291" s="19"/>
       <c r="C291" s="20" t="s">
@@ -16159,7 +16159,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="19"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -16196,7 +16196,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="19"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -16233,7 +16233,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="19"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -16270,7 +16270,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="19"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -16307,7 +16307,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="19"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -16348,7 +16348,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="19"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -16385,7 +16385,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="19"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -16422,7 +16422,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="19"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -16459,7 +16459,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="19"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -16496,7 +16496,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="19"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -16533,7 +16533,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="19"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -16570,7 +16570,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="19"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -16611,7 +16611,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="19"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -16648,7 +16648,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="19"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -16685,7 +16685,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="19"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -16728,7 +16728,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="19"/>
       <c r="B307" s="19"/>
       <c r="C307" s="20" t="s">
@@ -16767,7 +16767,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="19"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -16804,7 +16804,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="19"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -16847,7 +16847,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="19"/>
       <c r="B310" s="19"/>
       <c r="C310" s="20" t="s">
@@ -16886,7 +16886,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="19"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -16923,7 +16923,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="19"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -16960,7 +16960,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="19"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -16997,7 +16997,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="19"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -17034,7 +17034,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="19"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -17071,7 +17071,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="19"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -17114,7 +17114,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="19"/>
       <c r="B317" s="19"/>
       <c r="C317" s="20" t="s">
@@ -17153,7 +17153,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="19"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -17190,7 +17190,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="19"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -17233,7 +17233,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="19"/>
       <c r="B320" s="19"/>
       <c r="C320" s="20" t="s">
@@ -17272,7 +17272,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="19"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -17309,7 +17309,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="19"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -17348,7 +17348,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="19"/>
       <c r="B323" s="19"/>
       <c r="C323" s="20" t="s">
@@ -17387,7 +17387,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="19"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -17424,7 +17424,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="19"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -17461,7 +17461,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="19"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -17500,7 +17500,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="20" t="s">
@@ -17539,7 +17539,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="19"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -17582,7 +17582,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="19"/>
       <c r="B329" s="19"/>
       <c r="C329" s="20" t="s">
@@ -17621,7 +17621,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="19"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -17664,7 +17664,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="19"/>
       <c r="B331" s="19"/>
       <c r="C331" s="20" t="s">
@@ -17709,7 +17709,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="19"/>
       <c r="B332" s="19"/>
       <c r="C332" s="20" t="s">
@@ -17748,7 +17748,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="19"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -17789,7 +17789,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="19"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -17826,7 +17826,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="19"/>
       <c r="B335" s="19"/>
       <c r="C335" s="20" t="s">
@@ -17869,7 +17869,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="19"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -17906,7 +17906,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="19"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -17943,7 +17943,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="19"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -17980,7 +17980,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="19"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -18017,7 +18017,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="19"/>
       <c r="B340" s="19"/>
       <c r="C340" s="20" t="s">
@@ -18060,7 +18060,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="19"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -18097,7 +18097,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="19"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -18134,7 +18134,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="19"/>
       <c r="B343" s="19"/>
       <c r="C343" s="20" t="s">
@@ -18173,7 +18173,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="19"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -18210,7 +18210,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="19"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -18259,7 +18259,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="19"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19" t="s">
@@ -18298,7 +18298,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="19"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -18335,7 +18335,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="19"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -18378,7 +18378,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="19"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19" t="s">
@@ -18419,7 +18419,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="19"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -18458,7 +18458,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="19"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -18497,7 +18497,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="19"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -18536,7 +18536,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="19"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -18575,7 +18575,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="19"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -18612,7 +18612,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="19"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -18651,7 +18651,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="19"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -18688,7 +18688,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="19"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -18729,7 +18729,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="19"/>
       <c r="B358" s="19"/>
       <c r="C358" s="45"/>
@@ -18768,7 +18768,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="19"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -18807,7 +18807,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="19"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -18846,7 +18846,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="19"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -18889,7 +18889,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="19"/>
       <c r="B362" s="19"/>
       <c r="C362" s="45">
@@ -18928,7 +18928,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="19"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -18965,7 +18965,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="19"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -19008,7 +19008,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19" t="s">
@@ -19049,7 +19049,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="19"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -19088,7 +19088,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="19"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -19127,7 +19127,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="19"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -19166,7 +19166,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="19"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -19205,7 +19205,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="19"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -19244,7 +19244,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="19"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -19281,7 +19281,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="19"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -19320,7 +19320,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="19"/>
       <c r="B373" s="19"/>
       <c r="C373" s="44"/>
@@ -19357,7 +19357,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="19"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -19398,7 +19398,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="19"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -19437,7 +19437,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="19"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -19476,7 +19476,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="19"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -19515,7 +19515,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="19"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -19558,7 +19558,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="19"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19" t="s">
@@ -19599,7 +19599,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="19"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19" t="s">
@@ -19638,7 +19638,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="19"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -19675,7 +19675,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="19"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -19712,7 +19712,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="19"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -19751,7 +19751,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="19"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19" t="s">
@@ -19790,7 +19790,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="19"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -19827,7 +19827,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19"/>
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
@@ -19868,7 +19868,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19"/>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
@@ -19907,7 +19907,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19"/>
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
@@ -19944,7 +19944,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
@@ -19981,7 +19981,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19"/>
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
@@ -20018,7 +20018,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19"/>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
@@ -20055,7 +20055,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19"/>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
@@ -20092,7 +20092,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19"/>
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
@@ -20129,7 +20129,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19"/>
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
@@ -20166,7 +20166,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="19"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
@@ -20203,7 +20203,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="19"/>
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
@@ -20242,7 +20242,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="19"/>
       <c r="B397" s="19"/>
       <c r="C397" s="19"/>
@@ -20279,7 +20279,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="19"/>
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
@@ -20316,7 +20316,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="19"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19" t="s">
@@ -20355,7 +20355,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="19"/>
       <c r="B400" s="19"/>
       <c r="C400" s="19"/>
@@ -20392,7 +20392,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="19"/>
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
@@ -20429,7 +20429,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="19"/>
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
@@ -20466,7 +20466,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="19"/>
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
@@ -20503,7 +20503,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="19"/>
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
@@ -20542,7 +20542,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="19"/>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
@@ -20581,7 +20581,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="19"/>
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
@@ -20620,7 +20620,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="19"/>
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
@@ -20659,7 +20659,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="19"/>
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
@@ -20702,7 +20702,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="19"/>
       <c r="B409" s="19"/>
       <c r="C409" s="19" t="s">
@@ -20741,7 +20741,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="19"/>
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
@@ -20778,7 +20778,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="19"/>
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
@@ -20815,7 +20815,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="19"/>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -20852,7 +20852,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="19"/>
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
@@ -20889,7 +20889,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="19"/>
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
@@ -20926,7 +20926,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="19"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -20963,7 +20963,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="19"/>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -21000,7 +21000,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="19"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -21037,7 +21037,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="19"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -21076,7 +21076,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="19"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19" t="s">
@@ -21117,7 +21117,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="19"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19" t="s">
@@ -21156,7 +21156,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -21193,7 +21193,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="19"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -21230,7 +21230,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="19"/>
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
@@ -21267,7 +21267,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="19"/>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
@@ -21306,7 +21306,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="19"/>
       <c r="B425" s="19"/>
       <c r="C425" s="19" t="s">
@@ -21345,7 +21345,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="19"/>
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
@@ -21382,7 +21382,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="19"/>
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
@@ -21419,7 +21419,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="19"/>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
@@ -21456,7 +21456,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="19"/>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
@@ -21493,7 +21493,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="19"/>
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
@@ -21530,7 +21530,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="19"/>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
@@ -21567,7 +21567,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="19"/>
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
@@ -21606,7 +21606,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="19"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19" t="s">
@@ -21645,7 +21645,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="19"/>
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
@@ -21684,7 +21684,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="19"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19" t="s">
@@ -21723,7 +21723,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="19"/>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
@@ -21760,7 +21760,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="19"/>
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
@@ -21799,7 +21799,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="19"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19" t="s">
@@ -21838,7 +21838,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="19"/>
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
@@ -21875,7 +21875,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="19"/>
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
@@ -21912,7 +21912,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="19"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -21949,7 +21949,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="19"/>
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
@@ -21990,7 +21990,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="19"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19" t="s">
@@ -22029,7 +22029,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="19"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -22066,7 +22066,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="19"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -22103,7 +22103,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="19"/>
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
@@ -22140,7 +22140,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="19"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -22177,7 +22177,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="19"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -22214,7 +22214,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="19"/>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
@@ -22251,7 +22251,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="19"/>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
@@ -22290,7 +22290,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="19"/>
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
@@ -22327,7 +22327,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="19"/>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
@@ -22370,7 +22370,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="19"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19" t="s">
@@ -22409,7 +22409,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="19"/>
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
@@ -22452,7 +22452,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="19"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19" t="s">
@@ -22491,7 +22491,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="19"/>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
@@ -22530,7 +22530,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="19"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19" t="s">
@@ -22569,7 +22569,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="19"/>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -22608,7 +22608,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="19"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19" t="s">
@@ -22653,7 +22653,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="19"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19" t="s">
@@ -22692,7 +22692,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="19"/>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -22731,7 +22731,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="19"/>
       <c r="B462" s="19"/>
       <c r="C462" s="19" t="s">
@@ -22770,7 +22770,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="19"/>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
@@ -22807,7 +22807,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="19"/>
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>
@@ -22846,7 +22846,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="19"/>
       <c r="B465" s="19"/>
       <c r="C465" s="19" t="s">
@@ -22891,7 +22891,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="19"/>
       <c r="B466" s="19"/>
       <c r="C466" s="19" t="s">
@@ -22930,7 +22930,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="19"/>
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
@@ -22969,7 +22969,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="19"/>
       <c r="B468" s="19"/>
       <c r="C468" s="19" t="s">
@@ -23008,7 +23008,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="19"/>
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
@@ -23045,7 +23045,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="19"/>
       <c r="B470" s="19"/>
       <c r="C470" s="19"/>
@@ -23084,7 +23084,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="19"/>
       <c r="B471" s="19"/>
       <c r="C471" s="19" t="s">
@@ -23123,7 +23123,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="19"/>
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
@@ -23160,7 +23160,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="19"/>
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
@@ -23197,7 +23197,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="19"/>
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
@@ -23234,7 +23234,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="19"/>
       <c r="B475" s="19"/>
       <c r="C475" s="19"/>
@@ -23271,7 +23271,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="19"/>
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
@@ -23314,7 +23314,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="19"/>
       <c r="B477" s="19" t="s">
         <v>839</v>
@@ -23355,7 +23355,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="19"/>
       <c r="B478" s="19"/>
       <c r="C478" s="19"/>
@@ -23392,7 +23392,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="19"/>
       <c r="B479" s="19"/>
       <c r="C479" s="19"/>
@@ -23431,7 +23431,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="19"/>
       <c r="B480" s="19"/>
       <c r="C480" s="19" t="s">
@@ -23470,7 +23470,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="19"/>
       <c r="B481" s="19"/>
       <c r="C481" s="19"/>
@@ -23507,7 +23507,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="19"/>
       <c r="B482" s="19"/>
       <c r="C482" s="19"/>
@@ -23544,7 +23544,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="19"/>
       <c r="B483" s="19"/>
       <c r="C483" s="19"/>
@@ -23585,7 +23585,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="19"/>
       <c r="B484" s="19"/>
       <c r="C484" s="19"/>
@@ -23624,7 +23624,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:25" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="19"/>
       <c r="B485" s="19"/>
       <c r="C485" s="19" t="s">
@@ -23667,7 +23667,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="19"/>
       <c r="B486" s="19"/>
       <c r="C486" s="19"/>
@@ -23704,7 +23704,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="19"/>
       <c r="B487" s="19"/>
       <c r="C487" s="19"/>
@@ -23741,7 +23741,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="19"/>
       <c r="B488" s="19"/>
       <c r="C488" s="19"/>
@@ -23778,7 +23778,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="19"/>
       <c r="B489" s="19"/>
       <c r="C489" s="19"/>
@@ -23815,7 +23815,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="19"/>
       <c r="B490" s="19"/>
       <c r="C490" s="19"/>
@@ -23852,7 +23852,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="19"/>
       <c r="B491" s="19"/>
       <c r="C491" s="19"/>
@@ -23889,7 +23889,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="19"/>
       <c r="B492" s="19"/>
       <c r="C492" s="19"/>
@@ -23926,7 +23926,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="19"/>
       <c r="B493" s="19"/>
       <c r="C493" s="19"/>
@@ -23963,7 +23963,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="19"/>
       <c r="B494" s="19"/>
       <c r="C494" s="19"/>
@@ -24000,7 +24000,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="19"/>
       <c r="B495" s="19"/>
       <c r="C495" s="19"/>
@@ -24039,7 +24039,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="19"/>
       <c r="B496" s="19"/>
       <c r="C496" s="19" t="s">
@@ -24078,7 +24078,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="19"/>
       <c r="B497" s="19"/>
       <c r="C497" s="19"/>
@@ -24115,7 +24115,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="19"/>
       <c r="B498" s="19"/>
       <c r="C498" s="19"/>
@@ -24152,7 +24152,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="19"/>
       <c r="B499" s="19"/>
       <c r="C499" s="19"/>
@@ -24189,7 +24189,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="19"/>
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
@@ -24226,7 +24226,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="19"/>
       <c r="B501" s="19"/>
       <c r="C501" s="19"/>
@@ -24263,7 +24263,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="19"/>
       <c r="B502" s="19"/>
       <c r="C502" s="19" t="s">
@@ -24308,7 +24308,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="19"/>
       <c r="B503" s="19"/>
       <c r="C503" s="19" t="s">
@@ -24351,7 +24351,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="19"/>
       <c r="B504" s="19"/>
       <c r="C504" s="19"/>
@@ -24388,7 +24388,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="19"/>
       <c r="B505" s="19"/>
       <c r="C505" s="19"/>
@@ -24425,7 +24425,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="19"/>
       <c r="B506" s="19"/>
       <c r="C506" s="19"/>
@@ -24462,7 +24462,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="19"/>
       <c r="B507" s="19"/>
       <c r="C507" s="19"/>
@@ -24499,7 +24499,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="19"/>
       <c r="B508" s="19"/>
       <c r="C508" s="19"/>
@@ -24538,7 +24538,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="19"/>
       <c r="B509" s="19" t="s">
         <v>884</v>
@@ -24579,7 +24579,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="19"/>
       <c r="B510" s="19"/>
       <c r="C510" s="19"/>
@@ -24616,7 +24616,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="19"/>
       <c r="B511" s="19"/>
       <c r="C511" s="19"/>
@@ -24659,7 +24659,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="19"/>
       <c r="B512" s="19"/>
       <c r="C512" s="19" t="s">
@@ -24700,7 +24700,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="19"/>
       <c r="B513" s="19"/>
       <c r="C513" s="19" t="s">
@@ -24741,7 +24741,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="19"/>
       <c r="B514" s="19"/>
       <c r="C514" s="19" t="s">
@@ -24780,7 +24780,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="19"/>
       <c r="B515" s="19"/>
       <c r="C515" s="19"/>
@@ -24823,7 +24823,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="19"/>
       <c r="B516" s="19"/>
       <c r="C516" s="19" t="s">
@@ -24862,7 +24862,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="19"/>
       <c r="B517" s="19"/>
       <c r="C517" s="19"/>
@@ -24899,7 +24899,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="19"/>
       <c r="B518" s="19"/>
       <c r="C518" s="19"/>
@@ -24938,7 +24938,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="19"/>
       <c r="B519" s="19"/>
       <c r="C519" s="19" t="s">
@@ -24983,7 +24983,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="19"/>
       <c r="B520" s="19"/>
       <c r="C520" s="19" t="s">
@@ -25022,7 +25022,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="19"/>
       <c r="B521" s="19"/>
       <c r="C521" s="19"/>
@@ -25059,7 +25059,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="19"/>
       <c r="B522" s="19"/>
       <c r="C522" s="19"/>
@@ -25098,7 +25098,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="19"/>
       <c r="B523" s="19"/>
       <c r="C523" s="19" t="s">
@@ -25139,7 +25139,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="19"/>
       <c r="B524" s="19"/>
       <c r="C524" s="19"/>
@@ -25176,7 +25176,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="19"/>
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
@@ -25213,7 +25213,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="19"/>
       <c r="B526" s="19"/>
       <c r="C526" s="19"/>
@@ -25256,7 +25256,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="19"/>
       <c r="B527" s="19"/>
       <c r="C527" s="19" t="s">
@@ -25293,9 +25293,7 @@
       <c r="P527" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="Q527" s="19" t="s">
-        <v>923</v>
-      </c>
+      <c r="Q527" s="19"/>
       <c r="R527" s="14" t="s">
         <v>1291</v>
       </c>
@@ -25307,7 +25305,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="19"/>
       <c r="B528" s="19"/>
       <c r="C528" s="19"/>
@@ -25352,7 +25350,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="19"/>
       <c r="B529" s="19"/>
       <c r="C529" s="19"/>
@@ -25397,7 +25395,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="19"/>
       <c r="B530" s="19"/>
       <c r="C530" s="19"/>
@@ -25432,7 +25430,9 @@
       <c r="P530" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="Q530" s="19"/>
+      <c r="Q530" s="19" t="s">
+        <v>923</v>
+      </c>
       <c r="R530" s="14"/>
       <c r="S530" s="14"/>
       <c r="T530" s="9" t="s">
@@ -25444,7 +25444,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="19"/>
       <c r="B531" s="19"/>
       <c r="C531" s="19" t="s">
@@ -25483,7 +25483,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="19"/>
       <c r="B532" s="19"/>
       <c r="C532" s="19"/>
@@ -25520,7 +25520,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="19"/>
       <c r="B533" s="19"/>
       <c r="C533" s="19"/>
@@ -25559,7 +25559,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="19"/>
       <c r="B534" s="19"/>
       <c r="C534" s="19" t="s">
@@ -25598,7 +25598,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="19"/>
       <c r="B535" s="19"/>
       <c r="C535" s="19"/>
@@ -25635,7 +25635,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="19"/>
       <c r="B536" s="19"/>
       <c r="C536" s="19"/>
@@ -25672,7 +25672,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="19"/>
       <c r="B537" s="19"/>
       <c r="C537" s="19"/>
@@ -25709,7 +25709,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="19"/>
       <c r="B538" s="19"/>
       <c r="C538" s="19"/>
@@ -25746,7 +25746,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="19"/>
       <c r="B539" s="19"/>
       <c r="C539" s="19"/>
@@ -25783,7 +25783,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="19"/>
       <c r="B540" s="19"/>
       <c r="C540" s="19"/>
@@ -25820,7 +25820,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="19"/>
       <c r="B541" s="19"/>
       <c r="C541" s="19"/>
@@ -25859,7 +25859,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="19"/>
       <c r="B542" s="19"/>
       <c r="C542" s="19" t="s">
@@ -25898,7 +25898,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="19"/>
       <c r="B543" s="19"/>
       <c r="C543" s="19"/>
@@ -25935,7 +25935,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="19"/>
       <c r="B544" s="19"/>
       <c r="C544" s="19"/>
@@ -25984,7 +25984,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="19"/>
       <c r="B545" s="19"/>
       <c r="C545" s="19" t="s">
@@ -26023,7 +26023,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="19"/>
       <c r="B546" s="19"/>
       <c r="C546" s="19"/>
@@ -26062,7 +26062,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="19"/>
       <c r="B547" s="19"/>
       <c r="C547" s="19" t="s">
@@ -26101,7 +26101,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="19"/>
       <c r="B548" s="19"/>
       <c r="C548" s="19"/>
@@ -26138,7 +26138,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="19"/>
       <c r="B549" s="19"/>
       <c r="C549" s="19"/>
@@ -26175,7 +26175,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="19"/>
       <c r="B550" s="19"/>
       <c r="C550" s="19"/>
@@ -26214,7 +26214,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="19"/>
       <c r="B551" s="19"/>
       <c r="C551" s="19" t="s">
@@ -26265,7 +26265,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="19"/>
       <c r="B552" s="19"/>
       <c r="C552" s="19" t="s">
@@ -26304,7 +26304,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="19"/>
       <c r="B553" s="19"/>
       <c r="C553" s="19"/>
@@ -26343,7 +26343,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="19"/>
       <c r="B554" s="19"/>
       <c r="C554" s="19" t="s">
@@ -26382,7 +26382,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="19"/>
       <c r="B555" s="19"/>
       <c r="C555" s="19"/>
@@ -26419,7 +26419,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="19"/>
       <c r="B556" s="19"/>
       <c r="C556" s="19"/>
@@ -26456,7 +26456,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="19"/>
       <c r="B557" s="19"/>
       <c r="C557" s="19"/>
@@ -26493,7 +26493,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="19"/>
       <c r="B558" s="19"/>
       <c r="C558" s="19"/>
@@ -26532,7 +26532,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="19"/>
       <c r="B559" s="19"/>
       <c r="C559" s="19" t="s">
@@ -26571,7 +26571,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="19"/>
       <c r="B560" s="19"/>
       <c r="C560" s="19"/>
@@ -26610,7 +26610,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="19"/>
       <c r="B561" s="19"/>
       <c r="C561" s="19"/>
@@ -26649,7 +26649,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="19"/>
       <c r="B562" s="19"/>
       <c r="C562" s="19"/>
@@ -26686,7 +26686,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="19"/>
       <c r="B563" s="19"/>
       <c r="C563" s="19"/>
@@ -26725,7 +26725,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="19"/>
       <c r="B564" s="19"/>
       <c r="C564" s="19"/>
@@ -26762,7 +26762,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="19"/>
       <c r="B565" s="19"/>
       <c r="C565" s="19"/>
@@ -26801,7 +26801,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="19"/>
       <c r="B566" s="19"/>
       <c r="C566" s="19"/>
@@ -26840,7 +26840,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="19"/>
       <c r="B567" s="19"/>
       <c r="C567" s="19"/>
@@ -26877,7 +26877,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="19"/>
       <c r="B568" s="19"/>
       <c r="C568" s="19"/>
@@ -26914,7 +26914,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="19"/>
       <c r="B569" s="19"/>
       <c r="C569" s="19"/>
@@ -26951,7 +26951,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="19"/>
       <c r="B570" s="19"/>
       <c r="C570" s="19"/>
@@ -26988,7 +26988,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="19"/>
       <c r="B571" s="19"/>
       <c r="C571" s="19"/>
@@ -27029,7 +27029,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="19"/>
       <c r="B572" s="19"/>
       <c r="C572" s="19" t="s">
@@ -27074,7 +27074,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="19"/>
       <c r="B573" s="19"/>
       <c r="C573" s="19" t="s">
@@ -27111,9 +27111,7 @@
       <c r="P573" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="Q573" s="19" t="s">
-        <v>996</v>
-      </c>
+      <c r="Q573" s="19"/>
       <c r="R573" s="14" t="s">
         <v>1291</v>
       </c>
@@ -27125,7 +27123,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="19"/>
       <c r="B574" s="19"/>
       <c r="C574" s="19"/>
@@ -27170,7 +27168,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="19"/>
       <c r="B575" s="19"/>
       <c r="C575" s="19"/>
@@ -27215,7 +27213,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="19"/>
       <c r="B576" s="19"/>
       <c r="C576" s="19"/>
@@ -27250,7 +27248,9 @@
       <c r="P576" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="Q576" s="19"/>
+      <c r="Q576" s="19" t="s">
+        <v>996</v>
+      </c>
       <c r="R576" s="14"/>
       <c r="S576" s="14"/>
       <c r="T576" s="25" t="s">
@@ -27262,7 +27262,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="19"/>
       <c r="B577" s="19"/>
       <c r="C577" s="19" t="s">
@@ -27301,7 +27301,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="19"/>
       <c r="B578" s="19"/>
       <c r="C578" s="19"/>
@@ -27338,7 +27338,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="19"/>
       <c r="B579" s="19"/>
       <c r="C579" s="19"/>
@@ -27377,7 +27377,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="19"/>
       <c r="B580" s="19"/>
       <c r="C580" s="19" t="s">
@@ -27416,7 +27416,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="19"/>
       <c r="B581" s="19"/>
       <c r="C581" s="19"/>
@@ -27453,7 +27453,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="19"/>
       <c r="B582" s="19"/>
       <c r="C582" s="19"/>
@@ -27490,7 +27490,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="19"/>
       <c r="B583" s="19"/>
       <c r="C583" s="19"/>
@@ -27527,7 +27527,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="19"/>
       <c r="B584" s="19"/>
       <c r="C584" s="19"/>
@@ -27564,7 +27564,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="19"/>
       <c r="B585" s="19"/>
       <c r="C585" s="19"/>
@@ -27601,7 +27601,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="19"/>
       <c r="B586" s="19"/>
       <c r="C586" s="19"/>
@@ -27638,7 +27638,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="19"/>
       <c r="B587" s="19"/>
       <c r="C587" s="44"/>
@@ -27677,7 +27677,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="19"/>
       <c r="B588" s="19"/>
       <c r="C588" s="19" t="s">
@@ -27716,7 +27716,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="19"/>
       <c r="B589" s="19"/>
       <c r="C589" s="19"/>
@@ -27765,7 +27765,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="19"/>
       <c r="B590" s="19"/>
       <c r="C590" s="19" t="s">
@@ -27804,7 +27804,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="19"/>
       <c r="B591" s="19"/>
       <c r="C591" s="19"/>
@@ -27843,7 +27843,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="19"/>
       <c r="B592" s="19"/>
       <c r="C592" s="19" t="s">
@@ -27882,7 +27882,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="19"/>
       <c r="B593" s="19"/>
       <c r="C593" s="19"/>
@@ -27919,7 +27919,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="19"/>
       <c r="B594" s="19"/>
       <c r="C594" s="19"/>
@@ -27956,7 +27956,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="19"/>
       <c r="B595" s="19"/>
       <c r="C595" s="19"/>
@@ -27995,7 +27995,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="19"/>
       <c r="B596" s="19"/>
       <c r="C596" s="19" t="s">
@@ -28034,7 +28034,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="19"/>
       <c r="B597" s="19"/>
       <c r="C597" s="19"/>
@@ -28073,7 +28073,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="19"/>
       <c r="B598" s="19"/>
       <c r="C598" s="19"/>
@@ -28112,7 +28112,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="19"/>
       <c r="B599" s="19"/>
       <c r="C599" s="19"/>
@@ -28149,7 +28149,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="19"/>
       <c r="B600" s="19"/>
       <c r="C600" s="19"/>
@@ -28188,7 +28188,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="19"/>
       <c r="B601" s="19"/>
       <c r="C601" s="19"/>
@@ -28229,7 +28229,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="19"/>
       <c r="B602" s="19"/>
       <c r="C602" s="19"/>
@@ -28268,7 +28268,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="19"/>
       <c r="B603" s="19"/>
       <c r="C603" s="19"/>
@@ -28305,7 +28305,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="19"/>
       <c r="B604" s="19"/>
       <c r="C604" s="19"/>
@@ -28344,7 +28344,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="19"/>
       <c r="B605" s="19"/>
       <c r="C605" s="19"/>
@@ -28383,7 +28383,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="19"/>
       <c r="B606" s="19"/>
       <c r="C606" s="19"/>
@@ -28422,7 +28422,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="19"/>
       <c r="B607" s="19"/>
       <c r="C607" s="19"/>
@@ -28459,7 +28459,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="19"/>
       <c r="B608" s="19"/>
       <c r="C608" s="19"/>
@@ -28498,7 +28498,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="19"/>
       <c r="B609" s="19"/>
       <c r="C609" s="19" t="s">
@@ -28537,7 +28537,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="19"/>
       <c r="B610" s="19"/>
       <c r="C610" s="19"/>
@@ -28576,7 +28576,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="19"/>
       <c r="B611" s="19"/>
       <c r="C611" s="19" t="s">
@@ -28615,7 +28615,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="19"/>
       <c r="B612" s="19"/>
       <c r="C612" s="19"/>
@@ -28654,7 +28654,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="19"/>
       <c r="B613" s="19"/>
       <c r="C613" s="19" t="s">
@@ -28693,7 +28693,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="19"/>
       <c r="B614" s="19"/>
       <c r="C614" s="19"/>
@@ -28732,7 +28732,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="19"/>
       <c r="B615" s="19"/>
       <c r="C615" s="19" t="s">
@@ -28771,7 +28771,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="19"/>
       <c r="B616" s="19"/>
       <c r="C616" s="19"/>
@@ -28810,7 +28810,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="19"/>
       <c r="B617" s="19"/>
       <c r="C617" s="19" t="s">
@@ -28849,7 +28849,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="19"/>
       <c r="B618" s="19"/>
       <c r="C618" s="19"/>
@@ -28888,7 +28888,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="19"/>
       <c r="B619" s="19"/>
       <c r="C619" s="19" t="s">
@@ -28929,7 +28929,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="19"/>
       <c r="B620" s="19"/>
       <c r="C620" s="19" t="s">
@@ -28974,7 +28974,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="19"/>
       <c r="B621" s="19"/>
       <c r="C621" s="19"/>
@@ -29011,7 +29011,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="19"/>
       <c r="B622" s="19"/>
       <c r="C622" s="19"/>
@@ -29048,7 +29048,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="19"/>
       <c r="B623" s="19"/>
       <c r="C623" s="19"/>
@@ -29085,7 +29085,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="19"/>
       <c r="B624" s="19"/>
       <c r="C624" s="19"/>
@@ -29122,7 +29122,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="19"/>
       <c r="B625" s="19"/>
       <c r="C625" s="19"/>
@@ -29159,7 +29159,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="19"/>
       <c r="B626" s="19"/>
       <c r="C626" s="19"/>
@@ -29196,7 +29196,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="19"/>
       <c r="B627" s="19"/>
       <c r="C627" s="19"/>
@@ -29233,7 +29233,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="19"/>
       <c r="B628" s="19"/>
       <c r="C628" s="19"/>
@@ -29270,7 +29270,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="19"/>
       <c r="B629" s="19"/>
       <c r="C629" s="19"/>
@@ -29309,7 +29309,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="19"/>
       <c r="B630" s="19"/>
       <c r="C630" s="19" t="s">
@@ -29352,7 +29352,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="19"/>
       <c r="B631" s="19"/>
       <c r="C631" s="19"/>
@@ -29389,7 +29389,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="19"/>
       <c r="B632" s="19"/>
       <c r="C632" s="19"/>
@@ -29426,7 +29426,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="19"/>
       <c r="B633" s="19"/>
       <c r="C633" s="19"/>
@@ -29463,7 +29463,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="19"/>
       <c r="B634" s="19"/>
       <c r="C634" s="19"/>
@@ -29500,7 +29500,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="19"/>
       <c r="B635" s="19"/>
       <c r="C635" s="19"/>
@@ -29537,7 +29537,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="19"/>
       <c r="B636" s="19"/>
       <c r="C636" s="19"/>
@@ -29574,7 +29574,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="19"/>
       <c r="B637" s="19"/>
       <c r="C637" s="19"/>
@@ -29611,7 +29611,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="19"/>
       <c r="B638" s="19"/>
       <c r="C638" s="19"/>
@@ -29650,7 +29650,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="19"/>
       <c r="B639" s="19"/>
       <c r="C639" s="19" t="s">
@@ -29691,7 +29691,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="19"/>
       <c r="B640" s="19"/>
       <c r="C640" s="19"/>
@@ -29728,7 +29728,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="19"/>
       <c r="B641" s="19"/>
       <c r="C641" s="19"/>
@@ -29767,7 +29767,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="19"/>
       <c r="B642" s="19"/>
       <c r="C642" s="19"/>
@@ -29804,7 +29804,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="19"/>
       <c r="B643" s="19"/>
       <c r="C643" s="19"/>
@@ -29841,7 +29841,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="19"/>
       <c r="B644" s="19"/>
       <c r="C644" s="19"/>
@@ -29878,7 +29878,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="19"/>
       <c r="B645" s="19"/>
       <c r="C645" s="19"/>
@@ -29917,7 +29917,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="19"/>
       <c r="B646" s="19"/>
       <c r="C646" s="19"/>
@@ -29956,7 +29956,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="19"/>
       <c r="B647" s="19"/>
       <c r="C647" s="19"/>
@@ -29993,7 +29993,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="19"/>
       <c r="B648" s="19"/>
       <c r="C648" s="19"/>
@@ -30032,7 +30032,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="19"/>
       <c r="B649" s="19"/>
       <c r="C649" s="19"/>
@@ -30071,7 +30071,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="19"/>
       <c r="B650" s="19"/>
       <c r="C650" s="19"/>
@@ -30110,7 +30110,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="19"/>
       <c r="B651" s="19"/>
       <c r="C651" s="19"/>
@@ -30149,7 +30149,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="19"/>
       <c r="B652" s="19"/>
       <c r="C652" s="19"/>
@@ -30186,7 +30186,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="19"/>
       <c r="B653" s="19"/>
       <c r="C653" s="19"/>
@@ -30225,7 +30225,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="19"/>
       <c r="B654" s="19"/>
       <c r="C654" s="19"/>
@@ -30262,7 +30262,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="19"/>
       <c r="B655" s="19"/>
       <c r="C655" s="19"/>
@@ -30303,7 +30303,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="19"/>
       <c r="B656" s="19"/>
       <c r="C656" s="19"/>
@@ -30344,7 +30344,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="19"/>
       <c r="B657" s="19"/>
       <c r="C657" s="19"/>
@@ -30381,7 +30381,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="19"/>
       <c r="B658" s="19"/>
       <c r="C658" s="19"/>
@@ -30418,7 +30418,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="19"/>
       <c r="B659" s="19"/>
       <c r="C659" s="19"/>
@@ -30461,7 +30461,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="19"/>
       <c r="B660" s="19"/>
       <c r="C660" s="19" t="s">
@@ -30504,7 +30504,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="19"/>
       <c r="B661" s="19"/>
       <c r="C661" s="19"/>
@@ -30543,7 +30543,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="19"/>
       <c r="B662" s="19"/>
       <c r="C662" s="19"/>
@@ -30582,7 +30582,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="19"/>
       <c r="B663" s="19"/>
       <c r="C663" s="19"/>
@@ -30621,7 +30621,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="19"/>
       <c r="B664" s="19"/>
       <c r="C664" s="19"/>
@@ -30660,7 +30660,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="19"/>
       <c r="B665" s="19"/>
       <c r="C665" s="19"/>
@@ -30699,7 +30699,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="19"/>
       <c r="B666" s="19"/>
       <c r="C666" s="19"/>
@@ -30736,7 +30736,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="19"/>
       <c r="B667" s="19"/>
       <c r="C667" s="19"/>
@@ -30775,7 +30775,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="19"/>
       <c r="B668" s="19"/>
       <c r="C668" s="19"/>
@@ -30818,7 +30818,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="19"/>
       <c r="B669" s="19"/>
       <c r="C669" s="19"/>
@@ -30857,7 +30857,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="19"/>
       <c r="B670" s="19"/>
       <c r="C670" s="19"/>
@@ -30900,7 +30900,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="19"/>
       <c r="B671" s="19"/>
       <c r="C671" s="19"/>
@@ -30937,7 +30937,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="19"/>
       <c r="B672" s="19"/>
       <c r="C672" s="19"/>
@@ -30974,7 +30974,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="19"/>
       <c r="B673" s="19"/>
       <c r="C673" s="19"/>
@@ -31011,7 +31011,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="19"/>
       <c r="B674" s="19"/>
       <c r="C674" s="19"/>
@@ -31048,7 +31048,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="19"/>
       <c r="B675" s="19"/>
       <c r="C675" s="19"/>
@@ -31091,7 +31091,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="19"/>
       <c r="B676" s="19"/>
       <c r="C676" s="19"/>
@@ -31130,7 +31130,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="19"/>
       <c r="B677" s="19"/>
       <c r="C677" s="19"/>
@@ -31169,7 +31169,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="19"/>
       <c r="B678" s="19"/>
       <c r="C678" s="19"/>
@@ -31208,7 +31208,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="19"/>
       <c r="B679" s="19"/>
       <c r="C679" s="19"/>
@@ -31247,7 +31247,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="19"/>
       <c r="B680" s="19"/>
       <c r="C680" s="19"/>
@@ -31286,7 +31286,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="19"/>
       <c r="B681" s="19"/>
       <c r="C681" s="19"/>
@@ -31329,7 +31329,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="19"/>
       <c r="B682" s="19"/>
       <c r="C682" s="19" t="s">
@@ -31368,7 +31368,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="19"/>
       <c r="B683" s="19"/>
       <c r="C683" s="19"/>
@@ -31407,7 +31407,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="19"/>
       <c r="B684" s="19"/>
       <c r="C684" s="19"/>
@@ -31444,7 +31444,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="19"/>
       <c r="B685" s="19"/>
       <c r="C685" s="19"/>
@@ -31483,7 +31483,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="19"/>
       <c r="B686" s="19"/>
       <c r="C686" s="19"/>
@@ -31522,7 +31522,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="19"/>
       <c r="B687" s="19"/>
       <c r="C687" s="19"/>
@@ -31559,7 +31559,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="19"/>
       <c r="B688" s="19"/>
       <c r="C688" s="19"/>
@@ -31598,7 +31598,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="19"/>
       <c r="B689" s="19"/>
       <c r="C689" s="19"/>
@@ -31637,7 +31637,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="19"/>
       <c r="B690" s="19"/>
       <c r="C690" s="19"/>
@@ -31676,7 +31676,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="19"/>
       <c r="B691" s="19"/>
       <c r="C691" s="19"/>
@@ -31715,7 +31715,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="19"/>
       <c r="B692" s="19"/>
       <c r="C692" s="19"/>
@@ -31754,7 +31754,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="19"/>
       <c r="B693" s="19"/>
       <c r="C693" s="19"/>
@@ -31793,7 +31793,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="19"/>
       <c r="B694" s="19"/>
       <c r="C694" s="19"/>
@@ -31832,7 +31832,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="19"/>
       <c r="B695" s="19"/>
       <c r="C695" s="19"/>
@@ -31871,7 +31871,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="19"/>
       <c r="B696" s="19"/>
       <c r="C696" s="19"/>
@@ -31910,7 +31910,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="19"/>
       <c r="B697" s="19"/>
       <c r="C697" s="19"/>
@@ -31947,7 +31947,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="19"/>
       <c r="B698" s="19"/>
       <c r="C698" s="19"/>
@@ -31986,7 +31986,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="19"/>
       <c r="B699" s="19"/>
       <c r="C699" s="19"/>
@@ -32027,7 +32027,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="19"/>
       <c r="B700" s="19"/>
       <c r="C700" s="19"/>
@@ -32068,7 +32068,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="19"/>
       <c r="B701" s="19"/>
       <c r="C701" s="19"/>
@@ -32105,7 +32105,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="19"/>
       <c r="B702" s="19"/>
       <c r="C702" s="19"/>
@@ -32142,7 +32142,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="19"/>
       <c r="B703" s="19"/>
       <c r="C703" s="19"/>
@@ -32179,7 +32179,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="19"/>
       <c r="B704" s="19"/>
       <c r="C704" s="19"/>
@@ -32216,7 +32216,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="19"/>
       <c r="B705" s="19"/>
       <c r="C705" s="19"/>
@@ -32257,7 +32257,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="19"/>
       <c r="B706" s="19"/>
       <c r="C706" s="19"/>
@@ -32294,7 +32294,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="19"/>
       <c r="B707" s="19"/>
       <c r="C707" s="19"/>
@@ -32331,7 +32331,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="19"/>
       <c r="B708" s="19"/>
       <c r="C708" s="19"/>
@@ -32368,7 +32368,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="19"/>
       <c r="B709" s="19"/>
       <c r="C709" s="19"/>
@@ -32405,7 +32405,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="19"/>
       <c r="B710" s="19"/>
       <c r="C710" s="19"/>
@@ -32442,7 +32442,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="19"/>
       <c r="B711" s="19"/>
       <c r="C711" s="19"/>
@@ -32483,7 +32483,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="19"/>
       <c r="B712" s="19"/>
       <c r="C712" s="19"/>
@@ -32520,7 +32520,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="19"/>
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
@@ -32559,7 +32559,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="19"/>
       <c r="B714" s="19"/>
       <c r="C714" s="19" t="s">
@@ -32600,7 +32600,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="19"/>
       <c r="B715" s="19"/>
       <c r="C715" s="19" t="s">
@@ -32645,7 +32645,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="19"/>
       <c r="B716" s="19"/>
       <c r="C716" s="19"/>
@@ -32682,7 +32682,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="19"/>
       <c r="B717" s="19"/>
       <c r="C717" s="19"/>
@@ -32719,7 +32719,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="19"/>
       <c r="B718" s="19"/>
       <c r="C718" s="19"/>
@@ -32756,7 +32756,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="19"/>
       <c r="B719" s="19"/>
       <c r="C719" s="19"/>
@@ -32797,7 +32797,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="19"/>
       <c r="B720" s="19"/>
       <c r="C720" s="19"/>
@@ -32834,7 +32834,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="19"/>
       <c r="B721" s="19"/>
       <c r="C721" s="19"/>
@@ -32871,7 +32871,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="19"/>
       <c r="B722" s="19"/>
       <c r="C722" s="19"/>
@@ -32908,7 +32908,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="19"/>
       <c r="B723" s="19"/>
       <c r="C723" s="19"/>
@@ -32949,7 +32949,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="19"/>
       <c r="B724" s="19"/>
       <c r="C724" s="19"/>
@@ -32986,7 +32986,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="19"/>
       <c r="B725" s="19"/>
       <c r="C725" s="19"/>
@@ -33023,7 +33023,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="19"/>
       <c r="B726" s="19"/>
       <c r="C726" s="19"/>
@@ -33060,7 +33060,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="19"/>
       <c r="B727" s="19"/>
       <c r="C727" s="19"/>
@@ -33099,7 +33099,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
       <c r="B728" s="11" t="s">
         <v>1189</v>
@@ -33142,7 +33142,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
       <c r="B729" s="13"/>
       <c r="C729" s="9"/>
@@ -33191,7 +33191,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="B730" s="11"/>
       <c r="C730" s="9" t="s">
@@ -33244,7 +33244,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
       <c r="B731" s="11"/>
       <c r="C731" s="9" t="s">
@@ -33297,7 +33297,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
       <c r="B732" s="11"/>
       <c r="C732" s="9" t="s">
@@ -33350,7 +33350,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
       <c r="B733" s="11"/>
       <c r="C733" s="9" t="s">
@@ -33403,7 +33403,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
       <c r="B734" s="11"/>
       <c r="C734" s="9" t="s">
@@ -33456,7 +33456,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
       <c r="B735" s="11"/>
       <c r="C735" s="9" t="s">
@@ -33509,7 +33509,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
       <c r="B736" s="11"/>
       <c r="C736" s="9" t="s">
@@ -33562,7 +33562,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
       <c r="B737" s="11"/>
       <c r="C737" s="9" t="s">
@@ -33615,7 +33615,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="B738" s="11"/>
       <c r="C738" s="9" t="s">
@@ -33668,7 +33668,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="19"/>
       <c r="B739" s="19"/>
       <c r="C739" s="19" t="s">
@@ -33707,7 +33707,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="19"/>
       <c r="B740" s="19"/>
       <c r="C740" s="19"/>
@@ -33744,7 +33744,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="19"/>
       <c r="B741" s="19"/>
       <c r="C741" s="19"/>
@@ -33781,7 +33781,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="19"/>
       <c r="B742" s="19"/>
       <c r="C742" s="19"/>
@@ -33820,7 +33820,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="19"/>
       <c r="B743" s="19"/>
       <c r="C743" s="19" t="s">
@@ -33869,7 +33869,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="19"/>
       <c r="B744" s="19"/>
       <c r="C744" s="19" t="s">
@@ -33918,7 +33918,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="19"/>
       <c r="B745" s="19"/>
       <c r="C745" s="19" t="s">
@@ -33967,7 +33967,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="19"/>
       <c r="B746" s="19"/>
       <c r="C746" s="19" t="s">
@@ -34016,7 +34016,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="19"/>
       <c r="B747" s="19"/>
       <c r="C747" s="19" t="s">
@@ -34065,7 +34065,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="19"/>
       <c r="B748" s="19"/>
       <c r="C748" s="19" t="s">
@@ -34112,7 +34112,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="19"/>
       <c r="B749" s="19"/>
       <c r="C749" s="19" t="s">
@@ -34161,7 +34161,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="19"/>
       <c r="B750" s="19"/>
       <c r="C750" s="19" t="s">
@@ -34210,7 +34210,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="19"/>
       <c r="B751" s="19"/>
       <c r="C751" s="19" t="s">
@@ -34255,7 +34255,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="19"/>
       <c r="B752" s="19"/>
       <c r="C752" s="19"/>
@@ -34292,7 +34292,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="19"/>
       <c r="B753" s="19"/>
       <c r="C753" s="19"/>
@@ -34329,7 +34329,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="19"/>
       <c r="B754" s="19"/>
       <c r="C754" s="19"/>
@@ -34368,7 +34368,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="19"/>
       <c r="B755" s="19"/>
       <c r="C755" s="19"/>
@@ -34395,7 +34395,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="19"/>
       <c r="B756" s="19"/>
       <c r="C756" s="19"/>
@@ -34422,7 +34422,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="19"/>
       <c r="B757" s="19"/>
       <c r="C757" s="19"/>
@@ -34449,7 +34449,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="19"/>
       <c r="B758" s="19"/>
       <c r="C758" s="19"/>
@@ -34476,7 +34476,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="19"/>
       <c r="B759" s="19"/>
       <c r="C759" s="19"/>
@@ -34503,7 +34503,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="19"/>
       <c r="B760" s="19"/>
       <c r="C760" s="19"/>
@@ -34530,7 +34530,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="19"/>
       <c r="B761" s="19"/>
       <c r="C761" s="19"/>
@@ -34557,7 +34557,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="19"/>
       <c r="B762" s="19"/>
       <c r="C762" s="19"/>
@@ -34584,7 +34584,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="19"/>
       <c r="B763" s="19"/>
       <c r="C763" s="19"/>
@@ -34611,7 +34611,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="19"/>
       <c r="B764" s="19"/>
       <c r="C764" s="19"/>
@@ -34638,7 +34638,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="19"/>
       <c r="B765" s="19"/>
       <c r="C765" s="19"/>
@@ -34665,7 +34665,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="19"/>
       <c r="B766" s="19"/>
       <c r="C766" s="19"/>
@@ -34692,7 +34692,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="19"/>
       <c r="B767" s="19"/>
       <c r="C767" s="19"/>
@@ -34719,7 +34719,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="19"/>
       <c r="B768" s="19"/>
       <c r="C768" s="19"/>
@@ -34746,7 +34746,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="19"/>
       <c r="B769" s="19"/>
       <c r="C769" s="19"/>
@@ -34773,7 +34773,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="19"/>
       <c r="B770" s="19"/>
       <c r="C770" s="19"/>
@@ -34800,7 +34800,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="19"/>
       <c r="B771" s="19"/>
       <c r="C771" s="19"/>
@@ -34827,7 +34827,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="19"/>
       <c r="B772" s="19"/>
       <c r="C772" s="19"/>
@@ -34854,7 +34854,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="19"/>
       <c r="B773" s="19"/>
       <c r="C773" s="19"/>
@@ -34881,7 +34881,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="19"/>
       <c r="B774" s="19"/>
       <c r="C774" s="19"/>
@@ -34908,7 +34908,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="19"/>
       <c r="B775" s="19"/>
       <c r="C775" s="19"/>
@@ -34935,7 +34935,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="19"/>
       <c r="B776" s="19"/>
       <c r="C776" s="19"/>
@@ -34962,7 +34962,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="19"/>
       <c r="B777" s="19"/>
       <c r="C777" s="19"/>
@@ -34989,7 +34989,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="19"/>
       <c r="B778" s="19"/>
       <c r="C778" s="19"/>
@@ -35016,7 +35016,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="19"/>
       <c r="B779" s="19"/>
       <c r="C779" s="19"/>
@@ -35043,7 +35043,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="19"/>
       <c r="B780" s="19"/>
       <c r="C780" s="19"/>
@@ -35070,7 +35070,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="19"/>
       <c r="B781" s="19"/>
       <c r="C781" s="19"/>
@@ -35097,7 +35097,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="19"/>
       <c r="B782" s="19"/>
       <c r="C782" s="19"/>
@@ -35124,7 +35124,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="19"/>
       <c r="B783" s="19"/>
       <c r="C783" s="19"/>
@@ -35151,7 +35151,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="19"/>
       <c r="B784" s="19"/>
       <c r="C784" s="19"/>
@@ -35178,7 +35178,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="19"/>
       <c r="B785" s="19"/>
       <c r="C785" s="19"/>
@@ -35205,7 +35205,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="19"/>
       <c r="B786" s="19"/>
       <c r="C786" s="19"/>
@@ -35232,7 +35232,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="19"/>
       <c r="B787" s="19"/>
       <c r="C787" s="19"/>
@@ -35259,7 +35259,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="19"/>
       <c r="B788" s="19"/>
       <c r="C788" s="19"/>
@@ -35286,7 +35286,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="19"/>
       <c r="B789" s="19"/>
       <c r="C789" s="19"/>
@@ -35313,7 +35313,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="19"/>
       <c r="B790" s="19"/>
       <c r="C790" s="19"/>
@@ -35340,7 +35340,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="19"/>
       <c r="B791" s="19"/>
       <c r="C791" s="19"/>
@@ -35367,7 +35367,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="19"/>
       <c r="B792" s="19"/>
       <c r="C792" s="19"/>
@@ -35394,7 +35394,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="19"/>
       <c r="B793" s="19"/>
       <c r="C793" s="19"/>
@@ -35421,7 +35421,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="19"/>
       <c r="B794" s="19"/>
       <c r="C794" s="19"/>
@@ -35448,7 +35448,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="19"/>
       <c r="B795" s="19"/>
       <c r="C795" s="19"/>
@@ -35475,7 +35475,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="19"/>
       <c r="B796" s="19"/>
       <c r="C796" s="19"/>
@@ -35502,7 +35502,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="19"/>
       <c r="B797" s="19"/>
       <c r="C797" s="19"/>
@@ -35529,7 +35529,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="19"/>
       <c r="B798" s="19"/>
       <c r="C798" s="19"/>
@@ -35556,7 +35556,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="19"/>
       <c r="B799" s="19"/>
       <c r="C799" s="19"/>
@@ -35583,7 +35583,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="19"/>
       <c r="B800" s="19"/>
       <c r="C800" s="19"/>
@@ -35610,7 +35610,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="19"/>
       <c r="B801" s="19"/>
       <c r="C801" s="19"/>
@@ -35637,7 +35637,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="19"/>
       <c r="B802" s="19"/>
       <c r="C802" s="19"/>
@@ -35664,7 +35664,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="19"/>
       <c r="B803" s="19"/>
       <c r="C803" s="19"/>
@@ -35691,7 +35691,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="19"/>
       <c r="B804" s="19"/>
       <c r="C804" s="19"/>
@@ -35718,7 +35718,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="19"/>
       <c r="B805" s="19"/>
       <c r="C805" s="19"/>
@@ -35745,7 +35745,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="19"/>
       <c r="B806" s="19"/>
       <c r="C806" s="19"/>
@@ -35772,7 +35772,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="19"/>
       <c r="B807" s="19"/>
       <c r="C807" s="19"/>
@@ -35799,7 +35799,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="19"/>
       <c r="B808" s="19"/>
       <c r="C808" s="19"/>
@@ -35826,7 +35826,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="19"/>
       <c r="B809" s="19"/>
       <c r="C809" s="19"/>
@@ -35853,7 +35853,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="19"/>
       <c r="B810" s="19"/>
       <c r="C810" s="19"/>
@@ -35880,7 +35880,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="19"/>
       <c r="B811" s="19"/>
       <c r="C811" s="19"/>
@@ -35907,7 +35907,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="19"/>
       <c r="B812" s="19"/>
       <c r="C812" s="19"/>
@@ -35934,7 +35934,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="19"/>
       <c r="B813" s="19"/>
       <c r="C813" s="19"/>
@@ -35961,7 +35961,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="19"/>
       <c r="B814" s="19"/>
       <c r="C814" s="19"/>
@@ -35988,7 +35988,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="19"/>
       <c r="B815" s="19"/>
       <c r="C815" s="19"/>
@@ -36015,7 +36015,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="19"/>
       <c r="B816" s="19"/>
       <c r="C816" s="19"/>
@@ -36042,7 +36042,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="19"/>
       <c r="B817" s="19"/>
       <c r="C817" s="19"/>
@@ -36069,7 +36069,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="19"/>
       <c r="B818" s="19"/>
       <c r="C818" s="19"/>
@@ -36096,7 +36096,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="19"/>
       <c r="B819" s="19"/>
       <c r="C819" s="19"/>
@@ -36123,7 +36123,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="19"/>
       <c r="B820" s="19"/>
       <c r="C820" s="19"/>
@@ -36150,7 +36150,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="19"/>
       <c r="B821" s="19"/>
       <c r="C821" s="19"/>
@@ -36177,7 +36177,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="19"/>
       <c r="B822" s="19"/>
       <c r="C822" s="19"/>
@@ -36204,7 +36204,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="19"/>
       <c r="B823" s="19"/>
       <c r="C823" s="19"/>
@@ -36231,7 +36231,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="19"/>
       <c r="B824" s="19"/>
       <c r="C824" s="19"/>
@@ -36258,7 +36258,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="19"/>
       <c r="B825" s="19"/>
       <c r="C825" s="19"/>
@@ -36285,7 +36285,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="19"/>
       <c r="B826" s="19"/>
       <c r="C826" s="19"/>
@@ -36312,7 +36312,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="19"/>
       <c r="B827" s="19"/>
       <c r="C827" s="19"/>
@@ -36339,7 +36339,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="19"/>
       <c r="B828" s="19"/>
       <c r="C828" s="19"/>
@@ -36366,7 +36366,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="19"/>
       <c r="B829" s="19"/>
       <c r="C829" s="19"/>
@@ -36393,7 +36393,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="19"/>
       <c r="B830" s="19"/>
       <c r="C830" s="19"/>
@@ -36420,7 +36420,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="19"/>
       <c r="B831" s="19"/>
       <c r="C831" s="19"/>
@@ -36447,7 +36447,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="19"/>
       <c r="B832" s="19"/>
       <c r="C832" s="19"/>
@@ -36474,7 +36474,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="19"/>
       <c r="B833" s="19"/>
       <c r="C833" s="19"/>
@@ -36501,7 +36501,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="19"/>
       <c r="B834" s="19"/>
       <c r="C834" s="19"/>
@@ -36528,7 +36528,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="19"/>
       <c r="B835" s="19"/>
       <c r="C835" s="19"/>
@@ -36555,7 +36555,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="19"/>
       <c r="B836" s="19"/>
       <c r="C836" s="19"/>
@@ -36582,7 +36582,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="19"/>
       <c r="B837" s="19"/>
       <c r="C837" s="19"/>
@@ -36609,7 +36609,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="19"/>
       <c r="B838" s="19"/>
       <c r="C838" s="19"/>
@@ -36636,7 +36636,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="19"/>
       <c r="B839" s="19"/>
       <c r="C839" s="19"/>
@@ -36663,7 +36663,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="19"/>
       <c r="B840" s="19"/>
       <c r="C840" s="19"/>
@@ -36690,7 +36690,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="19"/>
       <c r="B841" s="19"/>
       <c r="C841" s="19"/>
@@ -36717,7 +36717,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="19"/>
       <c r="B842" s="19"/>
       <c r="C842" s="19"/>
@@ -36744,7 +36744,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="19"/>
       <c r="B843" s="19"/>
       <c r="C843" s="19"/>
@@ -36771,7 +36771,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="19"/>
       <c r="B844" s="19"/>
       <c r="C844" s="19"/>
@@ -36798,7 +36798,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="19"/>
       <c r="B845" s="19"/>
       <c r="C845" s="19"/>
@@ -36825,7 +36825,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="19"/>
       <c r="B846" s="19"/>
       <c r="C846" s="19"/>
@@ -36852,7 +36852,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="19"/>
       <c r="B847" s="19"/>
       <c r="C847" s="19"/>
@@ -36879,7 +36879,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="19"/>
       <c r="B848" s="19"/>
       <c r="C848" s="19"/>
@@ -36906,7 +36906,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="19"/>
       <c r="B849" s="19"/>
       <c r="C849" s="19"/>
@@ -36933,7 +36933,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="19"/>
       <c r="B850" s="19"/>
       <c r="C850" s="19"/>
@@ -36960,7 +36960,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="19"/>
       <c r="B851" s="19"/>
       <c r="C851" s="19"/>
@@ -36987,7 +36987,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="19"/>
       <c r="B852" s="19"/>
       <c r="C852" s="19"/>
@@ -37014,7 +37014,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="19"/>
       <c r="B853" s="19"/>
       <c r="C853" s="19"/>
@@ -37041,7 +37041,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="19"/>
       <c r="B854" s="19"/>
       <c r="C854" s="19"/>
@@ -37068,7 +37068,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="19"/>
       <c r="B855" s="19"/>
       <c r="C855" s="19"/>
@@ -37095,7 +37095,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
-    <row r="856" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="19"/>
       <c r="B856" s="19"/>
       <c r="C856" s="19"/>
@@ -37122,7 +37122,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
     </row>
-    <row r="857" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="19"/>
       <c r="B857" s="19"/>
       <c r="C857" s="19"/>
@@ -37149,7 +37149,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
     </row>
-    <row r="858" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="19"/>
       <c r="B858" s="19"/>
       <c r="C858" s="19"/>
@@ -37176,7 +37176,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
     </row>
-    <row r="859" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="19"/>
       <c r="B859" s="19"/>
       <c r="C859" s="19"/>
@@ -37203,7 +37203,7 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
     </row>
-    <row r="860" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="19"/>
       <c r="B860" s="19"/>
       <c r="C860" s="19"/>
@@ -37230,7 +37230,7 @@
       <c r="X860" s="1"/>
       <c r="Y860" s="1"/>
     </row>
-    <row r="861" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="19"/>
       <c r="B861" s="19"/>
       <c r="C861" s="19"/>
@@ -37257,7 +37257,7 @@
       <c r="X861" s="1"/>
       <c r="Y861" s="1"/>
     </row>
-    <row r="862" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="19"/>
       <c r="B862" s="19"/>
       <c r="C862" s="19"/>
@@ -37284,7 +37284,7 @@
       <c r="X862" s="1"/>
       <c r="Y862" s="1"/>
     </row>
-    <row r="863" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="19"/>
       <c r="B863" s="19"/>
       <c r="C863" s="19"/>
@@ -37311,7 +37311,7 @@
       <c r="X863" s="1"/>
       <c r="Y863" s="1"/>
     </row>
-    <row r="864" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="19"/>
       <c r="B864" s="19"/>
       <c r="C864" s="19"/>
@@ -37338,7 +37338,7 @@
       <c r="X864" s="1"/>
       <c r="Y864" s="1"/>
     </row>
-    <row r="865" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="19"/>
       <c r="B865" s="19"/>
       <c r="C865" s="19"/>
@@ -37365,7 +37365,7 @@
       <c r="X865" s="1"/>
       <c r="Y865" s="1"/>
     </row>
-    <row r="866" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="19"/>
       <c r="B866" s="19"/>
       <c r="C866" s="19"/>
@@ -37392,7 +37392,7 @@
       <c r="X866" s="1"/>
       <c r="Y866" s="1"/>
     </row>
-    <row r="867" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="19"/>
       <c r="B867" s="19"/>
       <c r="C867" s="19"/>
@@ -37419,7 +37419,7 @@
       <c r="X867" s="1"/>
       <c r="Y867" s="1"/>
     </row>
-    <row r="868" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="19"/>
       <c r="B868" s="19"/>
       <c r="C868" s="19"/>
@@ -37446,7 +37446,7 @@
       <c r="X868" s="1"/>
       <c r="Y868" s="1"/>
     </row>
-    <row r="869" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="19"/>
       <c r="B869" s="19"/>
       <c r="C869" s="19"/>
@@ -37473,7 +37473,7 @@
       <c r="X869" s="1"/>
       <c r="Y869" s="1"/>
     </row>
-    <row r="870" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="19"/>
       <c r="B870" s="19"/>
       <c r="C870" s="19"/>
@@ -37500,7 +37500,7 @@
       <c r="X870" s="1"/>
       <c r="Y870" s="1"/>
     </row>
-    <row r="871" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="19"/>
       <c r="B871" s="19"/>
       <c r="C871" s="19"/>
@@ -37527,7 +37527,7 @@
       <c r="X871" s="1"/>
       <c r="Y871" s="1"/>
     </row>
-    <row r="872" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="19"/>
       <c r="B872" s="19"/>
       <c r="C872" s="19"/>
@@ -37554,7 +37554,7 @@
       <c r="X872" s="1"/>
       <c r="Y872" s="1"/>
     </row>
-    <row r="873" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="19"/>
       <c r="B873" s="19"/>
       <c r="C873" s="19"/>
@@ -37581,7 +37581,7 @@
       <c r="X873" s="1"/>
       <c r="Y873" s="1"/>
     </row>
-    <row r="874" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="19"/>
       <c r="B874" s="19"/>
       <c r="C874" s="19"/>
@@ -37608,7 +37608,7 @@
       <c r="X874" s="1"/>
       <c r="Y874" s="1"/>
     </row>
-    <row r="875" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="19"/>
       <c r="B875" s="19"/>
       <c r="C875" s="19"/>
@@ -37635,7 +37635,7 @@
       <c r="X875" s="1"/>
       <c r="Y875" s="1"/>
     </row>
-    <row r="876" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="19"/>
       <c r="B876" s="19"/>
       <c r="C876" s="19"/>
@@ -37662,7 +37662,7 @@
       <c r="X876" s="1"/>
       <c r="Y876" s="1"/>
     </row>
-    <row r="877" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="44"/>
       <c r="B877" s="44"/>
       <c r="C877" s="44"/>
@@ -37684,7 +37684,7 @@
       <c r="S877" s="44"/>
       <c r="T877" s="44"/>
     </row>
-    <row r="878" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="44"/>
       <c r="B878" s="44"/>
       <c r="C878" s="44"/>
@@ -37706,7 +37706,7 @@
       <c r="S878" s="44"/>
       <c r="T878" s="44"/>
     </row>
-    <row r="879" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="44"/>
       <c r="B879" s="44"/>
       <c r="C879" s="44"/>
@@ -37728,7 +37728,7 @@
       <c r="S879" s="44"/>
       <c r="T879" s="44"/>
     </row>
-    <row r="880" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="44"/>
       <c r="B880" s="44"/>
       <c r="C880" s="44"/>
@@ -37750,7 +37750,7 @@
       <c r="S880" s="44"/>
       <c r="T880" s="44"/>
     </row>
-    <row r="881" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="44"/>
       <c r="B881" s="44"/>
       <c r="C881" s="44"/>
@@ -37772,7 +37772,7 @@
       <c r="S881" s="44"/>
       <c r="T881" s="44"/>
     </row>
-    <row r="882" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="44"/>
       <c r="B882" s="44"/>
       <c r="C882" s="44"/>
@@ -37794,7 +37794,7 @@
       <c r="S882" s="44"/>
       <c r="T882" s="44"/>
     </row>
-    <row r="883" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="44"/>
       <c r="B883" s="44"/>
       <c r="C883" s="44"/>
@@ -37816,7 +37816,7 @@
       <c r="S883" s="44"/>
       <c r="T883" s="44"/>
     </row>
-    <row r="884" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="44"/>
       <c r="B884" s="44"/>
       <c r="C884" s="44"/>
@@ -37838,7 +37838,7 @@
       <c r="S884" s="44"/>
       <c r="T884" s="44"/>
     </row>
-    <row r="885" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="44"/>
       <c r="B885" s="44"/>
       <c r="C885" s="44"/>
@@ -37860,7 +37860,7 @@
       <c r="S885" s="44"/>
       <c r="T885" s="44"/>
     </row>
-    <row r="886" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="44"/>
       <c r="B886" s="44"/>
       <c r="C886" s="44"/>
@@ -37882,7 +37882,7 @@
       <c r="S886" s="44"/>
       <c r="T886" s="44"/>
     </row>
-    <row r="887" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="44"/>
       <c r="B887" s="44"/>
       <c r="C887" s="44"/>
@@ -37904,7 +37904,7 @@
       <c r="S887" s="44"/>
       <c r="T887" s="44"/>
     </row>
-    <row r="888" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="44"/>
       <c r="B888" s="44"/>
       <c r="C888" s="44"/>
@@ -37926,7 +37926,7 @@
       <c r="S888" s="44"/>
       <c r="T888" s="44"/>
     </row>
-    <row r="889" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="44"/>
       <c r="B889" s="44"/>
       <c r="C889" s="44"/>
@@ -37948,7 +37948,7 @@
       <c r="S889" s="44"/>
       <c r="T889" s="44"/>
     </row>
-    <row r="890" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="44"/>
       <c r="B890" s="44"/>
       <c r="C890" s="44"/>
@@ -37970,7 +37970,7 @@
       <c r="S890" s="44"/>
       <c r="T890" s="44"/>
     </row>
-    <row r="891" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="44"/>
       <c r="B891" s="44"/>
       <c r="C891" s="44"/>
@@ -37992,7 +37992,7 @@
       <c r="S891" s="44"/>
       <c r="T891" s="44"/>
     </row>
-    <row r="892" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="44"/>
       <c r="B892" s="44"/>
       <c r="C892" s="44"/>
@@ -38014,7 +38014,7 @@
       <c r="S892" s="44"/>
       <c r="T892" s="44"/>
     </row>
-    <row r="893" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="44"/>
       <c r="B893" s="44"/>
       <c r="C893" s="44"/>
@@ -38036,7 +38036,7 @@
       <c r="S893" s="44"/>
       <c r="T893" s="44"/>
     </row>
-    <row r="894" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="44"/>
       <c r="B894" s="44"/>
       <c r="C894" s="44"/>
@@ -38058,7 +38058,7 @@
       <c r="S894" s="44"/>
       <c r="T894" s="44"/>
     </row>
-    <row r="895" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="44"/>
       <c r="B895" s="44"/>
       <c r="C895" s="44"/>
@@ -38080,7 +38080,7 @@
       <c r="S895" s="44"/>
       <c r="T895" s="44"/>
     </row>
-    <row r="896" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="44"/>
       <c r="B896" s="44"/>
       <c r="C896" s="44"/>
@@ -38102,7 +38102,7 @@
       <c r="S896" s="44"/>
       <c r="T896" s="44"/>
     </row>
-    <row r="897" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="44"/>
       <c r="B897" s="44"/>
       <c r="C897" s="44"/>
@@ -38124,7 +38124,7 @@
       <c r="S897" s="44"/>
       <c r="T897" s="44"/>
     </row>
-    <row r="898" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="44"/>
       <c r="B898" s="44"/>
       <c r="C898" s="44"/>
@@ -38146,7 +38146,7 @@
       <c r="S898" s="44"/>
       <c r="T898" s="44"/>
     </row>
-    <row r="899" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="44"/>
       <c r="B899" s="44"/>
       <c r="C899" s="44"/>
@@ -38168,7 +38168,7 @@
       <c r="S899" s="44"/>
       <c r="T899" s="44"/>
     </row>
-    <row r="900" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="44"/>
       <c r="B900" s="44"/>
       <c r="C900" s="44"/>
@@ -38190,7 +38190,7 @@
       <c r="S900" s="44"/>
       <c r="T900" s="44"/>
     </row>
-    <row r="901" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="44"/>
       <c r="B901" s="44"/>
       <c r="C901" s="44"/>
@@ -38212,7 +38212,7 @@
       <c r="S901" s="44"/>
       <c r="T901" s="44"/>
     </row>
-    <row r="902" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="44"/>
       <c r="B902" s="44"/>
       <c r="C902" s="44"/>
@@ -38234,7 +38234,7 @@
       <c r="S902" s="44"/>
       <c r="T902" s="44"/>
     </row>
-    <row r="903" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="44"/>
       <c r="B903" s="44"/>
       <c r="C903" s="44"/>
@@ -38256,7 +38256,7 @@
       <c r="S903" s="44"/>
       <c r="T903" s="44"/>
     </row>
-    <row r="904" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="44"/>
       <c r="B904" s="44"/>
       <c r="C904" s="44"/>
@@ -38278,7 +38278,7 @@
       <c r="S904" s="44"/>
       <c r="T904" s="44"/>
     </row>
-    <row r="905" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="44"/>
       <c r="B905" s="44"/>
       <c r="C905" s="44"/>
@@ -38300,7 +38300,7 @@
       <c r="S905" s="44"/>
       <c r="T905" s="44"/>
     </row>
-    <row r="906" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="44"/>
       <c r="B906" s="44"/>
       <c r="C906" s="44"/>
@@ -38322,7 +38322,7 @@
       <c r="S906" s="44"/>
       <c r="T906" s="44"/>
     </row>
-    <row r="907" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="44"/>
       <c r="B907" s="44"/>
       <c r="C907" s="44"/>
@@ -38344,7 +38344,7 @@
       <c r="S907" s="44"/>
       <c r="T907" s="44"/>
     </row>
-    <row r="908" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="44"/>
       <c r="B908" s="44"/>
       <c r="C908" s="44"/>
@@ -38366,7 +38366,7 @@
       <c r="S908" s="44"/>
       <c r="T908" s="44"/>
     </row>
-    <row r="909" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="44"/>
       <c r="B909" s="44"/>
       <c r="C909" s="44"/>
@@ -38388,7 +38388,7 @@
       <c r="S909" s="44"/>
       <c r="T909" s="44"/>
     </row>
-    <row r="910" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="44"/>
       <c r="B910" s="44"/>
       <c r="C910" s="44"/>
@@ -38410,7 +38410,7 @@
       <c r="S910" s="44"/>
       <c r="T910" s="44"/>
     </row>
-    <row r="911" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="44"/>
       <c r="B911" s="44"/>
       <c r="C911" s="44"/>
@@ -38432,7 +38432,7 @@
       <c r="S911" s="44"/>
       <c r="T911" s="44"/>
     </row>
-    <row r="912" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="44"/>
       <c r="B912" s="44"/>
       <c r="C912" s="44"/>
@@ -38454,7 +38454,7 @@
       <c r="S912" s="44"/>
       <c r="T912" s="44"/>
     </row>
-    <row r="913" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="44"/>
       <c r="B913" s="44"/>
       <c r="C913" s="44"/>
@@ -38476,7 +38476,7 @@
       <c r="S913" s="44"/>
       <c r="T913" s="44"/>
     </row>
-    <row r="914" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="44"/>
       <c r="B914" s="44"/>
       <c r="C914" s="44"/>
@@ -38498,7 +38498,7 @@
       <c r="S914" s="44"/>
       <c r="T914" s="44"/>
     </row>
-    <row r="915" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="44"/>
       <c r="B915" s="44"/>
       <c r="C915" s="44"/>
@@ -38520,7 +38520,7 @@
       <c r="S915" s="44"/>
       <c r="T915" s="44"/>
     </row>
-    <row r="916" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="44"/>
       <c r="B916" s="44"/>
       <c r="C916" s="44"/>
@@ -38542,7 +38542,7 @@
       <c r="S916" s="44"/>
       <c r="T916" s="44"/>
     </row>
-    <row r="917" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="44"/>
       <c r="B917" s="44"/>
       <c r="C917" s="44"/>
@@ -38564,7 +38564,7 @@
       <c r="S917" s="44"/>
       <c r="T917" s="44"/>
     </row>
-    <row r="918" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="44"/>
       <c r="B918" s="44"/>
       <c r="C918" s="44"/>
@@ -38586,7 +38586,7 @@
       <c r="S918" s="44"/>
       <c r="T918" s="44"/>
     </row>
-    <row r="919" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="44"/>
       <c r="B919" s="44"/>
       <c r="C919" s="44"/>
@@ -38608,7 +38608,7 @@
       <c r="S919" s="44"/>
       <c r="T919" s="44"/>
     </row>
-    <row r="920" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="44"/>
       <c r="B920" s="44"/>
       <c r="C920" s="44"/>
@@ -38630,7 +38630,7 @@
       <c r="S920" s="44"/>
       <c r="T920" s="44"/>
     </row>
-    <row r="921" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="44"/>
       <c r="B921" s="44"/>
       <c r="C921" s="44"/>
@@ -38652,7 +38652,7 @@
       <c r="S921" s="44"/>
       <c r="T921" s="44"/>
     </row>
-    <row r="922" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="44"/>
       <c r="B922" s="44"/>
       <c r="C922" s="44"/>
@@ -38674,7 +38674,7 @@
       <c r="S922" s="44"/>
       <c r="T922" s="44"/>
     </row>
-    <row r="923" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="44"/>
       <c r="B923" s="44"/>
       <c r="C923" s="44"/>
@@ -38696,7 +38696,7 @@
       <c r="S923" s="44"/>
       <c r="T923" s="44"/>
     </row>
-    <row r="924" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="44"/>
       <c r="B924" s="44"/>
       <c r="C924" s="44"/>
@@ -38718,7 +38718,7 @@
       <c r="S924" s="44"/>
       <c r="T924" s="44"/>
     </row>
-    <row r="925" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="44"/>
       <c r="B925" s="44"/>
       <c r="C925" s="44"/>
@@ -38740,7 +38740,7 @@
       <c r="S925" s="44"/>
       <c r="T925" s="44"/>
     </row>
-    <row r="926" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="44"/>
       <c r="B926" s="44"/>
       <c r="C926" s="44"/>
@@ -38762,7 +38762,7 @@
       <c r="S926" s="44"/>
       <c r="T926" s="44"/>
     </row>
-    <row r="927" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="44"/>
       <c r="B927" s="44"/>
       <c r="C927" s="44"/>
@@ -38784,7 +38784,7 @@
       <c r="S927" s="44"/>
       <c r="T927" s="44"/>
     </row>
-    <row r="928" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="44"/>
       <c r="B928" s="44"/>
       <c r="C928" s="44"/>
@@ -38806,7 +38806,7 @@
       <c r="S928" s="44"/>
       <c r="T928" s="44"/>
     </row>
-    <row r="929" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="44"/>
       <c r="B929" s="44"/>
       <c r="C929" s="44"/>
@@ -38828,7 +38828,7 @@
       <c r="S929" s="44"/>
       <c r="T929" s="44"/>
     </row>
-    <row r="930" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="44"/>
       <c r="B930" s="44"/>
       <c r="C930" s="44"/>
@@ -38850,7 +38850,7 @@
       <c r="S930" s="44"/>
       <c r="T930" s="44"/>
     </row>
-    <row r="931" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="44"/>
       <c r="B931" s="44"/>
       <c r="C931" s="44"/>
@@ -38872,7 +38872,7 @@
       <c r="S931" s="44"/>
       <c r="T931" s="44"/>
     </row>
-    <row r="932" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="44"/>
       <c r="B932" s="44"/>
       <c r="C932" s="44"/>
@@ -38894,7 +38894,7 @@
       <c r="S932" s="44"/>
       <c r="T932" s="44"/>
     </row>
-    <row r="933" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="44"/>
       <c r="B933" s="44"/>
       <c r="C933" s="44"/>
@@ -38916,7 +38916,7 @@
       <c r="S933" s="44"/>
       <c r="T933" s="44"/>
     </row>
-    <row r="934" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="44"/>
       <c r="B934" s="44"/>
       <c r="C934" s="44"/>
@@ -38938,7 +38938,7 @@
       <c r="S934" s="44"/>
       <c r="T934" s="44"/>
     </row>
-    <row r="935" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="44"/>
       <c r="B935" s="44"/>
       <c r="C935" s="44"/>
@@ -38960,7 +38960,7 @@
       <c r="S935" s="44"/>
       <c r="T935" s="44"/>
     </row>
-    <row r="936" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="44"/>
       <c r="B936" s="44"/>
       <c r="C936" s="44"/>
@@ -38982,7 +38982,7 @@
       <c r="S936" s="44"/>
       <c r="T936" s="44"/>
     </row>
-    <row r="937" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="44"/>
       <c r="B937" s="44"/>
       <c r="C937" s="44"/>
@@ -39004,7 +39004,7 @@
       <c r="S937" s="44"/>
       <c r="T937" s="44"/>
     </row>
-    <row r="938" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="44"/>
       <c r="B938" s="44"/>
       <c r="C938" s="44"/>
@@ -39026,7 +39026,7 @@
       <c r="S938" s="44"/>
       <c r="T938" s="44"/>
     </row>
-    <row r="939" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="44"/>
       <c r="B939" s="44"/>
       <c r="C939" s="44"/>
@@ -39048,7 +39048,7 @@
       <c r="S939" s="44"/>
       <c r="T939" s="44"/>
     </row>
-    <row r="940" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="44"/>
       <c r="B940" s="44"/>
       <c r="C940" s="44"/>
@@ -39070,7 +39070,7 @@
       <c r="S940" s="44"/>
       <c r="T940" s="44"/>
     </row>
-    <row r="941" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="44"/>
       <c r="B941" s="44"/>
       <c r="C941" s="44"/>
@@ -39092,7 +39092,7 @@
       <c r="S941" s="44"/>
       <c r="T941" s="44"/>
     </row>
-    <row r="942" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="44"/>
       <c r="B942" s="44"/>
       <c r="C942" s="44"/>
@@ -39114,7 +39114,7 @@
       <c r="S942" s="44"/>
       <c r="T942" s="44"/>
     </row>
-    <row r="943" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="44"/>
       <c r="B943" s="44"/>
       <c r="C943" s="44"/>
@@ -39136,7 +39136,7 @@
       <c r="S943" s="44"/>
       <c r="T943" s="44"/>
     </row>
-    <row r="944" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="44"/>
       <c r="B944" s="44"/>
       <c r="C944" s="44"/>
@@ -39158,7 +39158,7 @@
       <c r="S944" s="44"/>
       <c r="T944" s="44"/>
     </row>
-    <row r="945" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="44"/>
       <c r="B945" s="44"/>
       <c r="C945" s="44"/>
@@ -39180,7 +39180,7 @@
       <c r="S945" s="44"/>
       <c r="T945" s="44"/>
     </row>
-    <row r="946" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="44"/>
       <c r="B946" s="44"/>
       <c r="C946" s="44"/>
@@ -39202,7 +39202,7 @@
       <c r="S946" s="44"/>
       <c r="T946" s="44"/>
     </row>
-    <row r="947" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="44"/>
       <c r="B947" s="44"/>
       <c r="C947" s="44"/>
@@ -39224,7 +39224,7 @@
       <c r="S947" s="44"/>
       <c r="T947" s="44"/>
     </row>
-    <row r="948" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="44"/>
       <c r="B948" s="44"/>
       <c r="C948" s="44"/>
@@ -39246,7 +39246,7 @@
       <c r="S948" s="44"/>
       <c r="T948" s="44"/>
     </row>
-    <row r="949" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="44"/>
       <c r="B949" s="44"/>
       <c r="C949" s="44"/>
@@ -39268,7 +39268,7 @@
       <c r="S949" s="44"/>
       <c r="T949" s="44"/>
     </row>
-    <row r="950" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="44"/>
       <c r="B950" s="44"/>
       <c r="C950" s="44"/>
@@ -39290,7 +39290,7 @@
       <c r="S950" s="44"/>
       <c r="T950" s="44"/>
     </row>
-    <row r="951" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="44"/>
       <c r="B951" s="44"/>
       <c r="C951" s="44"/>
@@ -39312,7 +39312,7 @@
       <c r="S951" s="44"/>
       <c r="T951" s="44"/>
     </row>
-    <row r="952" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="44"/>
       <c r="B952" s="44"/>
       <c r="C952" s="44"/>
@@ -39334,7 +39334,7 @@
       <c r="S952" s="44"/>
       <c r="T952" s="44"/>
     </row>
-    <row r="953" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="44"/>
       <c r="B953" s="44"/>
       <c r="C953" s="44"/>
@@ -39356,7 +39356,7 @@
       <c r="S953" s="44"/>
       <c r="T953" s="44"/>
     </row>
-    <row r="954" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="44"/>
       <c r="B954" s="44"/>
       <c r="C954" s="44"/>
@@ -39378,52 +39378,52 @@
       <c r="S954" s="44"/>
       <c r="T954" s="44"/>
     </row>
-    <row r="955" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>

--- a/VivelDialog.xlsx
+++ b/VivelDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Github\viveljs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6064AFA7-683F-4E16-A806-E35F2EFAD27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96581FDC-A725-4498-B9FA-61A87003D296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4551,10 +4551,10 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O607" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I514" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R528" sqref="R528"/>
+      <selection pane="bottomRight" activeCell="O525" sqref="O525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25239,10 +25239,10 @@
         <v>916</v>
       </c>
       <c r="M526" s="19"/>
-      <c r="N526" s="25"/>
-      <c r="O526" s="25" t="s">
+      <c r="N526" s="25" t="s">
         <v>917</v>
       </c>
+      <c r="O526" s="25"/>
       <c r="P526" s="19"/>
       <c r="Q526" s="19"/>
       <c r="R526" s="14"/>
@@ -27059,10 +27059,10 @@
         <v>916</v>
       </c>
       <c r="M572" s="19"/>
-      <c r="N572" s="25"/>
-      <c r="O572" s="25" t="s">
+      <c r="N572" s="25" t="s">
         <v>991</v>
       </c>
+      <c r="O572" s="25"/>
       <c r="P572" s="19"/>
       <c r="Q572" s="19"/>
       <c r="R572" s="14"/>
